--- a/Plan_de_Trabajo/DiagramaGantt.xlsx
+++ b/Plan_de_Trabajo/DiagramaGantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\4.Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\RepositorioGitHub\TechnoShop\Plan_de_Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4D0CE9-277D-4CBD-8207-0F4171BFE6E1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67690FA-315F-4D7B-AE2D-99E7552F462A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>WBS</t>
   </si>
@@ -424,13 +424,7 @@
     <t>TEMPLATE ROWS</t>
   </si>
   <si>
-    <t>[Task Category]</t>
-  </si>
-  <si>
     <t>[Task]</t>
-  </si>
-  <si>
-    <t>[Name]</t>
   </si>
   <si>
     <t>See the Help worksheet to learn how to use these rows. You can hide these rows before printing.</t>
@@ -483,9 +477,6 @@
     <t>Definicion del problema</t>
   </si>
   <si>
-    <t>Acuerdo el funcionamiento del proyecto</t>
-  </si>
-  <si>
     <t>LIDER</t>
   </si>
   <si>
@@ -516,31 +507,61 @@
     <t>Diseño</t>
   </si>
   <si>
-    <t>Codigo del programa</t>
-  </si>
-  <si>
-    <t>revision del programa</t>
-  </si>
-  <si>
     <t>Diagrama de clases</t>
-  </si>
-  <si>
-    <t>Casos de uso</t>
   </si>
   <si>
     <t>Codificacion</t>
   </si>
   <si>
-    <t>creacion del repositorio en Github</t>
-  </si>
-  <si>
-    <t>Investigacion</t>
-  </si>
-  <si>
     <t>[TechnoShop] Proyecto POO</t>
   </si>
   <si>
-    <t>[UADY LIS]</t>
+    <t>Ulises A.</t>
+  </si>
+  <si>
+    <t>UADY</t>
+  </si>
+  <si>
+    <t>Ulises Ancona, Emmanuel Azcorra, Shaid Bojorquez, Martin Alpuche, Juan Duran</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Creacion del repositorio en Github</t>
+  </si>
+  <si>
+    <t>Acuerdo del funcionamiento del proyecto</t>
+  </si>
+  <si>
+    <t>Investigacion sobre el tema del proyecto</t>
+  </si>
+  <si>
+    <t>Escenarios y Casos de uso</t>
+  </si>
+  <si>
+    <t>Calendarizacion de tareas</t>
+  </si>
+  <si>
+    <t>Shaid B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . .Administracion de usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . .Acciones del administrador</t>
+  </si>
+  <si>
+    <t>Creacion del esqueleto del programa (clases con metodos y atributos)</t>
+  </si>
+  <si>
+    <t>Implementacion del programa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . .Diseño de interfaz gráfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . .Bases de datos</t>
   </si>
 </sst>
 </file>
@@ -879,7 +900,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,6 +1030,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,7 +1346,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1593,24 +1620,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1618,9 +1627,36 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1669,7 +1705,35 @@
     <cellStyle name="Título 3" xfId="32" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1835,8 +1899,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>387350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2227,11 +2291,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN40"/>
+  <dimension ref="A1:BN43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2251,7 +2315,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -2259,35 +2323,37 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="I1" s="98"/>
-      <c r="K1" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
+      <c r="K1" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
       <c r="E2" s="99"/>
@@ -2324,196 +2390,196 @@
     <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77"/>
       <c r="B4" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="108">
+        <v>19</v>
+      </c>
+      <c r="C4" s="105">
         <v>43259</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="78"/>
       <c r="G4" s="81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="95">
         <v>1</v>
       </c>
       <c r="I4" s="79"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="100" t="str">
+      <c r="K4" s="102" t="str">
         <f>"Semana "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="100" t="str">
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="102" t="str">
         <f>"Semana "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="100" t="str">
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="102" t="str">
         <f>"Semana "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="100" t="str">
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="102" t="str">
         <f>"Semana "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="100" t="str">
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="102" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="100" t="str">
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="102" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="100" t="str">
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="102" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="101"/>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="100" t="str">
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="102" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="101"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101"/>
-      <c r="BL4" s="101"/>
-      <c r="BM4" s="101"/>
-      <c r="BN4" s="102"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="103"/>
+      <c r="BN4" s="104"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="77"/>
       <c r="B5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="80"/>
       <c r="G5" s="80"/>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="103">
+      <c r="K5" s="106">
         <f>K6</f>
         <v>43255</v>
       </c>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="103">
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="106">
         <f>R6</f>
         <v>43262</v>
       </c>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="103">
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="106">
         <f>Y6</f>
         <v>43269</v>
       </c>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="103">
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="106">
         <f>AF6</f>
         <v>43276</v>
       </c>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="103">
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="106">
         <f>AM6</f>
         <v>43283</v>
       </c>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="103">
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="106">
         <f>AT6</f>
         <v>43290</v>
       </c>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="105"/>
-      <c r="BA5" s="103">
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="106">
         <f>BA6</f>
         <v>43297</v>
       </c>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="105"/>
-      <c r="BH5" s="103">
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="108"/>
+      <c r="BH5" s="106">
         <f>BH6</f>
         <v>43304</v>
       </c>
-      <c r="BI5" s="104"/>
-      <c r="BJ5" s="104"/>
-      <c r="BK5" s="104"/>
-      <c r="BL5" s="104"/>
-      <c r="BM5" s="104"/>
-      <c r="BN5" s="105"/>
+      <c r="BI5" s="107"/>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="107"/>
+      <c r="BL5" s="107"/>
+      <c r="BM5" s="107"/>
+      <c r="BN5" s="108"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
@@ -2756,28 +2822,28 @@
         <v>0</v>
       </c>
       <c r="B7" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="87" t="s">
+      <c r="H7" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>21</v>
-      </c>
       <c r="I7" s="85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="85"/>
       <c r="K7" s="88" t="str">
@@ -2900,7 +2966,7 @@
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AO7" s="89" t="str">
+      <c r="AO7" s="109" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
@@ -3011,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="54"/>
@@ -3023,7 +3089,7 @@
       <c r="G8" s="56"/>
       <c r="H8" s="57"/>
       <c r="I8" s="58" t="str">
-        <f t="shared" ref="I8:I33" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I36" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="61"/>
@@ -3057,7 +3123,7 @@
       <c r="AL8" s="73"/>
       <c r="AM8" s="73"/>
       <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
+      <c r="AO8" s="110"/>
       <c r="AP8" s="73"/>
       <c r="AQ8" s="73"/>
       <c r="AR8" s="73"/>
@@ -3084,16 +3150,16 @@
       <c r="BM8" s="73"/>
       <c r="BN8" s="73"/>
     </row>
-    <row r="9" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="28" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="str">
         <f t="shared" ref="A9:A13" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D9" s="94"/>
       <c r="E9" s="67">
@@ -3107,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="30">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I9" s="31">
         <f t="shared" si="5"/>
@@ -3144,7 +3210,7 @@
       <c r="AL9" s="74"/>
       <c r="AM9" s="74"/>
       <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
+      <c r="AO9" s="111"/>
       <c r="AP9" s="74"/>
       <c r="AQ9" s="74"/>
       <c r="AR9" s="74"/>
@@ -3177,21 +3243,24 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="94"/>
       <c r="E10" s="67">
         <v>43262</v>
       </c>
       <c r="F10" s="68">
-        <f t="shared" ref="F10:F31" si="7">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F34" si="7">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>43266</v>
       </c>
       <c r="G10" s="29">
         <v>5</v>
       </c>
       <c r="H10" s="30">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="I10" s="31">
         <f t="shared" si="5"/>
@@ -3228,7 +3297,7 @@
       <c r="AL10" s="74"/>
       <c r="AM10" s="74"/>
       <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
+      <c r="AO10" s="111"/>
       <c r="AP10" s="74"/>
       <c r="AQ10" s="74"/>
       <c r="AR10" s="74"/>
@@ -3255,7 +3324,7 @@
       <c r="BM10" s="74"/>
       <c r="BN10" s="74"/>
     </row>
-    <row r="11" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="str">
         <f t="shared" si="6"/>
         <v>1.3</v>
@@ -3263,23 +3332,26 @@
       <c r="B11" s="93" t="s">
         <v>32</v>
       </c>
+      <c r="C11" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="94"/>
       <c r="E11" s="67">
         <v>43262</v>
       </c>
       <c r="F11" s="68">
         <f>IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
-        <v>43263</v>
+        <v>43265</v>
       </c>
       <c r="G11" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="30">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I11" s="31">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="74"/>
@@ -3312,7 +3384,7 @@
       <c r="AL11" s="74"/>
       <c r="AM11" s="74"/>
       <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
+      <c r="AO11" s="111"/>
       <c r="AP11" s="74"/>
       <c r="AQ11" s="74"/>
       <c r="AR11" s="74"/>
@@ -3345,7 +3417,10 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="94"/>
       <c r="E12" s="67">
@@ -3396,7 +3471,7 @@
       <c r="AL12" s="74"/>
       <c r="AM12" s="74"/>
       <c r="AN12" s="74"/>
-      <c r="AO12" s="74"/>
+      <c r="AO12" s="111"/>
       <c r="AP12" s="74"/>
       <c r="AQ12" s="74"/>
       <c r="AR12" s="74"/>
@@ -3428,22 +3503,28 @@
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="B13" s="93"/>
+      <c r="B13" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="94"/>
       <c r="E13" s="67">
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="F13" s="68">
         <f>IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
-        <v>43262</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>43270</v>
+      </c>
+      <c r="G13" s="29">
+        <v>5</v>
+      </c>
       <c r="H13" s="30">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="I13" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="74"/>
@@ -3476,7 +3557,7 @@
       <c r="AL13" s="74"/>
       <c r="AM13" s="74"/>
       <c r="AN13" s="74"/>
-      <c r="AO13" s="74"/>
+      <c r="AO13" s="111"/>
       <c r="AP13" s="74"/>
       <c r="AQ13" s="74"/>
       <c r="AR13" s="74"/>
@@ -3509,7 +3590,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="69"/>
@@ -3554,7 +3635,7 @@
       <c r="AL14" s="76"/>
       <c r="AM14" s="76"/>
       <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
+      <c r="AO14" s="111"/>
       <c r="AP14" s="76"/>
       <c r="AQ14" s="76"/>
       <c r="AR14" s="76"/>
@@ -3587,7 +3668,10 @@
         <v>2.1</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="94"/>
       <c r="E15" s="67">
@@ -3638,7 +3722,7 @@
       <c r="AL15" s="74"/>
       <c r="AM15" s="74"/>
       <c r="AN15" s="74"/>
-      <c r="AO15" s="74"/>
+      <c r="AO15" s="111"/>
       <c r="AP15" s="74"/>
       <c r="AQ15" s="74"/>
       <c r="AR15" s="74"/>
@@ -3665,13 +3749,16 @@
       <c r="BM15" s="74"/>
       <c r="BN15" s="74"/>
     </row>
-    <row r="16" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="94"/>
       <c r="E16" s="67">
@@ -3722,7 +3809,7 @@
       <c r="AL16" s="74"/>
       <c r="AM16" s="74"/>
       <c r="AN16" s="74"/>
-      <c r="AO16" s="74"/>
+      <c r="AO16" s="111"/>
       <c r="AP16" s="74"/>
       <c r="AQ16" s="74"/>
       <c r="AR16" s="74"/>
@@ -3755,7 +3842,7 @@
         <v>2.3</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="94"/>
       <c r="E17" s="67"/>
@@ -3804,7 +3891,7 @@
       <c r="AL17" s="74"/>
       <c r="AM17" s="74"/>
       <c r="AN17" s="74"/>
-      <c r="AO17" s="74"/>
+      <c r="AO17" s="111"/>
       <c r="AP17" s="74"/>
       <c r="AQ17" s="74"/>
       <c r="AR17" s="74"/>
@@ -3884,7 +3971,7 @@
       <c r="AL18" s="74"/>
       <c r="AM18" s="74"/>
       <c r="AN18" s="74"/>
-      <c r="AO18" s="74"/>
+      <c r="AO18" s="111"/>
       <c r="AP18" s="74"/>
       <c r="AQ18" s="74"/>
       <c r="AR18" s="74"/>
@@ -3964,7 +4051,7 @@
       <c r="AL19" s="74"/>
       <c r="AM19" s="74"/>
       <c r="AN19" s="74"/>
-      <c r="AO19" s="74"/>
+      <c r="AO19" s="111"/>
       <c r="AP19" s="74"/>
       <c r="AQ19" s="74"/>
       <c r="AR19" s="74"/>
@@ -3997,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="69"/>
@@ -4042,7 +4129,7 @@
       <c r="AL20" s="76"/>
       <c r="AM20" s="76"/>
       <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
+      <c r="AO20" s="111"/>
       <c r="AP20" s="76"/>
       <c r="AQ20" s="76"/>
       <c r="AR20" s="76"/>
@@ -4069,13 +4156,13 @@
       <c r="BM20" s="76"/>
       <c r="BN20" s="76"/>
     </row>
-    <row r="21" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" s="28" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="str">
-        <f t="shared" ref="A21:A22" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A21" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D21" s="94"/>
       <c r="E21" s="67">
@@ -4089,10 +4176,10 @@
         <v>5</v>
       </c>
       <c r="H21" s="30">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="31">
-        <f t="shared" ref="I21:I22" si="10">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
+        <f t="shared" ref="I21:I24" si="10">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
         <v>5</v>
       </c>
       <c r="J21" s="62"/>
@@ -4126,7 +4213,7 @@
       <c r="AL21" s="74"/>
       <c r="AM21" s="74"/>
       <c r="AN21" s="74"/>
-      <c r="AO21" s="74"/>
+      <c r="AO21" s="111"/>
       <c r="AP21" s="74"/>
       <c r="AQ21" s="74"/>
       <c r="AR21" s="74"/>
@@ -4153,13 +4240,13 @@
       <c r="BM21" s="74"/>
       <c r="BN21" s="74"/>
     </row>
-    <row r="22" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D22" s="94"/>
       <c r="E22" s="67">
@@ -4210,7 +4297,7 @@
       <c r="AL22" s="74"/>
       <c r="AM22" s="74"/>
       <c r="AN22" s="74"/>
-      <c r="AO22" s="74"/>
+      <c r="AO22" s="111"/>
       <c r="AP22" s="74"/>
       <c r="AQ22" s="74"/>
       <c r="AR22" s="74"/>
@@ -4238,22 +4325,24 @@
       <c r="BN22" s="74"/>
     </row>
     <row r="23" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="93"/>
-      <c r="D23" s="94"/>
+      <c r="A23" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="67"/>
       <c r="F23" s="68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F23" si="11">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G23" s="29">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30">
-        <v>0</v>
-      </c>
-      <c r="I23" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="47" t="str">
+        <f t="shared" ref="I23" si="12">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J23" s="62"/>
@@ -4287,7 +4376,7 @@
       <c r="AL23" s="74"/>
       <c r="AM23" s="74"/>
       <c r="AN23" s="74"/>
-      <c r="AO23" s="74"/>
+      <c r="AO23" s="111"/>
       <c r="AP23" s="74"/>
       <c r="AQ23" s="74"/>
       <c r="AR23" s="74"/>
@@ -4315,22 +4404,24 @@
       <c r="BN23" s="74"/>
     </row>
     <row r="24" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="93"/>
-      <c r="D24" s="94"/>
+      <c r="A24" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.2</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="67"/>
       <c r="F24" s="68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F24" si="13">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G24" s="29">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30">
-        <v>0</v>
-      </c>
-      <c r="I24" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="47" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J24" s="62"/>
@@ -4364,7 +4455,7 @@
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
       <c r="AN24" s="74"/>
-      <c r="AO24" s="74"/>
+      <c r="AO24" s="111"/>
       <c r="AP24" s="74"/>
       <c r="AQ24" s="74"/>
       <c r="AR24" s="74"/>
@@ -4392,22 +4483,24 @@
       <c r="BN24" s="74"/>
     </row>
     <row r="25" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="93"/>
-      <c r="D25" s="94"/>
+      <c r="A25" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.3</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="67"/>
       <c r="F25" s="68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F25:F26" si="14">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G25" s="29">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30">
-        <v>0</v>
-      </c>
-      <c r="I25" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="47" t="str">
+        <f t="shared" ref="I25:I26" si="15">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J25" s="62"/>
@@ -4441,7 +4534,7 @@
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
       <c r="AN25" s="74"/>
-      <c r="AO25" s="74"/>
+      <c r="AO25" s="111"/>
       <c r="AP25" s="74"/>
       <c r="AQ25" s="74"/>
       <c r="AR25" s="74"/>
@@ -4469,23 +4562,24 @@
       <c r="BN25" s="74"/>
     </row>
     <row r="26" spans="1:66" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69" t="str">
-        <f t="shared" si="7"/>
+      <c r="A26" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.4</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="str">
-        <f t="shared" si="5"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="47" t="str">
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J26" s="63"/>
@@ -4519,7 +4613,7 @@
       <c r="AL26" s="76"/>
       <c r="AM26" s="76"/>
       <c r="AN26" s="76"/>
-      <c r="AO26" s="76"/>
+      <c r="AO26" s="111"/>
       <c r="AP26" s="76"/>
       <c r="AQ26" s="76"/>
       <c r="AR26" s="76"/>
@@ -4547,13 +4641,10 @@
       <c r="BN26" s="76"/>
     </row>
     <row r="27" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B27" s="93" t="s">
-        <v>3</v>
-      </c>
+      <c r="A27" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="B27" s="93"/>
       <c r="D27" s="94"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68" t="str">
@@ -4629,7 +4720,9 @@
       <c r="BN27" s="74"/>
     </row>
     <row r="28" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="27">
+        <v>3.6</v>
+      </c>
       <c r="B28" s="93"/>
       <c r="D28" s="94"/>
       <c r="E28" s="67"/>
@@ -4706,21 +4799,23 @@
       <c r="BN28" s="74"/>
     </row>
     <row r="29" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68" t="str">
+      <c r="A29" s="20" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G29" s="29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30">
-        <v>0</v>
-      </c>
-      <c r="I29" s="31" t="str">
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -4783,8 +4878,13 @@
       <c r="BN29" s="74"/>
     </row>
     <row r="30" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>2</v>
+      </c>
       <c r="D30" s="94"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68" t="str">
@@ -4938,14 +5038,21 @@
     </row>
     <row r="32" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36" t="str">
+      <c r="B32" s="93"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G32" s="29">
+        <v>0</v>
+      </c>
+      <c r="H32" s="30">
+        <v>0</v>
+      </c>
+      <c r="I32" s="31" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -5009,14 +5116,21 @@
     </row>
     <row r="33" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36" t="str">
+      <c r="B33" s="93"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G33" s="29">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30">
+        <v>0</v>
+      </c>
+      <c r="I33" s="31" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -5079,17 +5193,25 @@
       <c r="BN33" s="74"/>
     </row>
     <row r="34" spans="1:66" s="42" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G34" s="29">
+        <v>0</v>
+      </c>
+      <c r="H34" s="30">
+        <v>0</v>
+      </c>
+      <c r="I34" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J34" s="65"/>
       <c r="K34" s="74"/>
       <c r="L34" s="74"/>
@@ -5149,17 +5271,18 @@
       <c r="BN34" s="74"/>
     </row>
     <row r="35" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J35" s="65"/>
       <c r="K35" s="74"/>
       <c r="L35" s="74"/>
@@ -5219,24 +5342,16 @@
       <c r="BN35" s="74"/>
     </row>
     <row r="36" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="96" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B36" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68" t="str">
-        <f t="shared" ref="F36:F39" si="11">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="47" t="str">
-        <f>IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
+      <c r="A36" s="27"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J36" s="66"/>
@@ -5298,26 +5413,17 @@
       <c r="BN36" s="74"/>
     </row>
     <row r="37" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="47" t="str">
-        <f t="shared" ref="I37:I39" si="12">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="66"/>
       <c r="K37" s="74"/>
       <c r="L37" s="74"/>
@@ -5377,26 +5483,17 @@
       <c r="BN37" s="74"/>
     </row>
     <row r="38" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="47" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> - </v>
-      </c>
+      <c r="A38" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
       <c r="J38" s="66"/>
       <c r="K38" s="74"/>
       <c r="L38" s="74"/>
@@ -5456,24 +5553,24 @@
       <c r="BN38" s="74"/>
     </row>
     <row r="39" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="48"/>
+      <c r="A39" s="96" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B39" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="45"/>
       <c r="D39" s="46"/>
       <c r="E39" s="67"/>
       <c r="F39" s="68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F39:F42" si="16">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="47" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J39" s="66"/>
@@ -5535,15 +5632,26 @@
       <c r="BN39" s="74"/>
     </row>
     <row r="40" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="A40" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="68" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="47" t="str">
+        <f t="shared" ref="I40:I42" si="17">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -5602,18 +5710,64 @@
       <c r="BM40" s="10"/>
       <c r="BN40" s="10"/>
     </row>
+    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A41" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="48"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="47" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+    </row>
+    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A42" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="47" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+    </row>
+    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -5624,10 +5778,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H20 H23:H39">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="H8:H20 H27:H42">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5641,25 +5804,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="6" priority="49">
+    <cfRule type="expression" dxfId="10" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN20 K23:BN39">
-    <cfRule type="expression" dxfId="5" priority="52">
+  <conditionalFormatting sqref="K8:BN20">
+    <cfRule type="expression" dxfId="9" priority="57">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="53">
+    <cfRule type="expression" dxfId="8" priority="58">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN20 K23:BN39">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H22">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5673,16 +5836,88 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN22">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN22">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A1CAC4A-1FDB-4B85-A11C-C24386224E1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0B2A41A-F48A-44FB-91F1-06A23FE15B72}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{649CE155-25C9-44CC-81B2-37997D7B3A65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:BN23">
+    <cfRule type="expression" dxfId="3" priority="65">
+      <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="66">
+      <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:BN39">
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>AND($E27&lt;=K$6,ROUNDDOWN(($F27-$E27+1)*$H27,0)+$E27-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="69">
+      <formula>AND(NOT(ISBLANK($E27)),$E27&lt;=K$6,$F27&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C862E5DA-8BCC-403C-9F71-B31EE3B1FF64}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5695,8 +5930,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A32:B33 B27 B17 A35:B35 B34 E14 E20 E26 E32:H35 G14:H14 G20:H20 G26:H26 G36 G37:G38 G39 H23:H24 H30 H28 H29 H27" unlockedFormula="1"/>
-    <ignoredError sqref="A26 A20 A14" formula="1"/>
+    <ignoredError sqref="A35:B36 B30 B17 A38:B38 B37 E14 E20 E29 E35:H38 G14:H14 G20:H20 G29:H29 G39 G40:G41 G42 H27 H33 H31 H32 H30" unlockedFormula="1"/>
+    <ignoredError sqref="A20 A14" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -5744,7 +5979,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H20 H23:H39</xm:sqref>
+          <xm:sqref>H8:H20 H27:H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2FF0FC17-99F8-4043-8C72-4D80C2CF5D75}">
@@ -5761,6 +5996,66 @@
           </x14:cfRule>
           <xm:sqref>H21:H22</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A1CAC4A-1FDB-4B85-A11C-C24386224E1C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0B2A41A-F48A-44FB-91F1-06A23FE15B72}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{649CE155-25C9-44CC-81B2-37997D7B3A65}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C862E5DA-8BCC-403C-9F71-B31EE3B1FF64}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H23</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Plan_de_Trabajo/DiagramaGantt.xlsx
+++ b/Plan_de_Trabajo/DiagramaGantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\RepositorioGitHub\TechnoShop\Plan_de_Trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\Repositorio\TechnoShop\Plan_de_Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67690FA-315F-4D7B-AE2D-99E7552F462A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8F54A5-5960-45A0-8D52-A3F509F82931}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$49</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -24,7 +24,7 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>WBS</t>
   </si>
@@ -546,22 +546,106 @@
     <t>Shaid B.</t>
   </si>
   <si>
-    <t xml:space="preserve"> . .Administracion de usuarios</t>
+    <t>EF</t>
   </si>
   <si>
-    <t xml:space="preserve"> . .Acciones del administrador</t>
+    <t>E1</t>
   </si>
   <si>
-    <t>Creacion del esqueleto del programa (clases con metodos y atributos)</t>
+    <t>E2</t>
   </si>
   <si>
-    <t>Implementacion del programa</t>
+    <t>Administracion de Usuarios</t>
   </si>
   <si>
-    <t xml:space="preserve"> . .Diseño de interfaz gráfica</t>
+    <t>Acciones del administrador</t>
   </si>
   <si>
-    <t xml:space="preserve"> . .Bases de datos</t>
+    <t>Bases de datos</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>3.1.6</t>
+  </si>
+  <si>
+    <t>3.1.7</t>
+  </si>
+  <si>
+    <t>3.1.8</t>
+  </si>
+  <si>
+    <t>3.1.9</t>
+  </si>
+  <si>
+    <t>3.1.10</t>
+  </si>
+  <si>
+    <t>3.1.11</t>
+  </si>
+  <si>
+    <t>3.1.12</t>
+  </si>
+  <si>
+    <t>3.1.13</t>
+  </si>
+  <si>
+    <t>...Validacion de usuarios</t>
+  </si>
+  <si>
+    <t>...Registro de usuarios</t>
+  </si>
+  <si>
+    <t>...Carrito de productos</t>
+  </si>
+  <si>
+    <t>...Pedidos realizados</t>
+  </si>
+  <si>
+    <t>Diseño de interfaz grafica</t>
+  </si>
+  <si>
+    <t>...Pago por tarjeta</t>
+  </si>
+  <si>
+    <t>...Agregar o eliminar producto</t>
+  </si>
+  <si>
+    <t>...Validacion de administrador</t>
+  </si>
+  <si>
+    <t>...Asignar y actualizar membresia</t>
+  </si>
+  <si>
+    <t>…Pago por membresia</t>
+  </si>
+  <si>
+    <t>Administracion de Tienda</t>
+  </si>
+  <si>
+    <t>…Control de productos</t>
+  </si>
+  <si>
+    <t>…Reporte de pedidos</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1430,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1523,9 +1607,6 @@
     <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,6 +1701,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1627,36 +1735,21 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1705,7 +1798,61 @@
     <cellStyle name="Título 3" xfId="32" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2291,11 +2438,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN43"/>
+  <dimension ref="A1:CN59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2314,7 +2461,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="14"/>
@@ -2322,30 +2469,30 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="I1" s="98"/>
-      <c r="K1" s="100" t="s">
+      <c r="I1" s="97"/>
+      <c r="K1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -2356,8 +2503,8 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66" ht="14.25" x14ac:dyDescent="0.2">
@@ -2388,23 +2535,23 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="110">
         <v>43259</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="81" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="94">
         <v>1</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="78"/>
       <c r="J4" s="17"/>
       <c r="K4" s="102" t="str">
         <f>"Semana "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
@@ -2488,98 +2635,98 @@
       <c r="BN4" s="104"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="81" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="106">
+      <c r="K5" s="105">
         <f>K6</f>
         <v>43255</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="106">
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="105">
         <f>R6</f>
         <v>43262</v>
       </c>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="106">
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="105">
         <f>Y6</f>
         <v>43269</v>
       </c>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="106">
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="105">
         <f>AF6</f>
         <v>43276</v>
       </c>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="106">
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="105">
         <f>AM6</f>
         <v>43283</v>
       </c>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="108"/>
-      <c r="AT5" s="106">
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="105">
         <f>AT6</f>
         <v>43290</v>
       </c>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="106">
+      <c r="AU5" s="106"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="106"/>
+      <c r="AY5" s="106"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="105">
         <f>BA6</f>
         <v>43297</v>
       </c>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="108"/>
-      <c r="BH5" s="106">
+      <c r="BB5" s="106"/>
+      <c r="BC5" s="106"/>
+      <c r="BD5" s="106"/>
+      <c r="BE5" s="106"/>
+      <c r="BF5" s="106"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="105">
         <f>BH6</f>
         <v>43304</v>
       </c>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="108"/>
+      <c r="BI5" s="106"/>
+      <c r="BJ5" s="106"/>
+      <c r="BK5" s="106"/>
+      <c r="BL5" s="106"/>
+      <c r="BM5" s="106"/>
+      <c r="BN5" s="107"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
@@ -2817,256 +2964,256 @@
         <v>43310</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="91" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+    <row r="7" spans="1:66" s="90" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="88" t="str">
+      <c r="J7" s="84"/>
+      <c r="K7" s="87" t="str">
         <f t="shared" ref="K7:AE7" si="2">CHOOSE(WEEKDAY(K6,1),"D","L","M","M","J","V","S")</f>
         <v>L</v>
       </c>
-      <c r="L7" s="88" t="str">
+      <c r="L7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="M7" s="88" t="str">
+      <c r="M7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="N7" s="88" t="str">
+      <c r="N7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>J</v>
       </c>
-      <c r="O7" s="88" t="str">
+      <c r="O7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>V</v>
       </c>
-      <c r="P7" s="88" t="str">
+      <c r="P7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Q7" s="88" t="str">
+      <c r="Q7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="R7" s="88" t="str">
+      <c r="R7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
-      <c r="S7" s="88" t="str">
+      <c r="S7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="T7" s="88" t="str">
+      <c r="T7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="U7" s="88" t="str">
+      <c r="U7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>J</v>
       </c>
-      <c r="V7" s="88" t="str">
+      <c r="V7" s="111" t="str">
         <f t="shared" si="2"/>
         <v>V</v>
       </c>
-      <c r="W7" s="88" t="str">
+      <c r="W7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="X7" s="88" t="str">
+      <c r="X7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="Y7" s="88" t="str">
+      <c r="Y7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
-      <c r="Z7" s="88" t="str">
+      <c r="Z7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AA7" s="88" t="str">
+      <c r="AA7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AB7" s="88" t="str">
+      <c r="AB7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>J</v>
       </c>
-      <c r="AC7" s="88" t="str">
+      <c r="AC7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>V</v>
       </c>
-      <c r="AD7" s="88" t="str">
+      <c r="AD7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AE7" s="88" t="str">
+      <c r="AE7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="AF7" s="88" t="str">
+      <c r="AF7" s="111" t="str">
         <f t="shared" ref="AF7:AP7" si="3">CHOOSE(WEEKDAY(AF6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="AG7" s="89" t="str">
+      <c r="AG7" s="88" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AH7" s="89" t="str">
+      <c r="AH7" s="88" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AI7" s="89" t="str">
+      <c r="AI7" s="88" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AJ7" s="89" t="str">
+      <c r="AJ7" s="88" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AK7" s="89" t="str">
+      <c r="AK7" s="88" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AL7" s="90" t="str">
+      <c r="AL7" s="89" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AM7" s="88" t="str">
+      <c r="AM7" s="87" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AN7" s="89" t="str">
+      <c r="AN7" s="88" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AO7" s="109" t="str">
+      <c r="AO7" s="99" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AP7" s="89" t="str">
+      <c r="AP7" s="88" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AQ7" s="89" t="str">
+      <c r="AQ7" s="88" t="str">
         <f t="shared" ref="AQ7:BN7" si="4">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AR7" s="89" t="str">
+      <c r="AR7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AS7" s="90" t="str">
+      <c r="AS7" s="89" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AT7" s="88" t="str">
+      <c r="AT7" s="87" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AU7" s="89" t="str">
+      <c r="AU7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AV7" s="89" t="str">
+      <c r="AV7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AW7" s="89" t="str">
+      <c r="AW7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AX7" s="89" t="str">
+      <c r="AX7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AY7" s="89" t="str">
+      <c r="AY7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AZ7" s="90" t="str">
+      <c r="AZ7" s="89" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BA7" s="88" t="str">
+      <c r="BA7" s="87" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="BB7" s="89" t="str">
+      <c r="BB7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BC7" s="89" t="str">
+      <c r="BC7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BD7" s="89" t="str">
+      <c r="BD7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BE7" s="89" t="str">
+      <c r="BE7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BF7" s="89" t="str">
+      <c r="BF7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BG7" s="90" t="str">
+      <c r="BG7" s="89" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BH7" s="88" t="str">
+      <c r="BH7" s="87" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="BI7" s="89" t="str">
+      <c r="BI7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BJ7" s="89" t="str">
+      <c r="BJ7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BK7" s="89" t="str">
+      <c r="BK7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BL7" s="89" t="str">
+      <c r="BL7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BM7" s="89" t="str">
+      <c r="BM7" s="88" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BN7" s="90" t="str">
+      <c r="BN7" s="89" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
@@ -3082,90 +3229,96 @@
       <c r="C8" s="53"/>
       <c r="D8" s="54"/>
       <c r="E8" s="55"/>
-      <c r="F8" s="82" t="str">
+      <c r="F8" s="81" t="str">
         <f>IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="57"/>
       <c r="I8" s="58" t="str">
-        <f t="shared" ref="I8:I36" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I52" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="61"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="110"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-      <c r="BF8" s="73"/>
-      <c r="BG8" s="73"/>
-      <c r="BH8" s="73"/>
-      <c r="BI8" s="73"/>
-      <c r="BJ8" s="73"/>
-      <c r="BK8" s="73"/>
-      <c r="BL8" s="73"/>
-      <c r="BM8" s="73"/>
-      <c r="BN8" s="73"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="72"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
+      <c r="BG8" s="72"/>
+      <c r="BH8" s="72"/>
+      <c r="BI8" s="72"/>
+      <c r="BJ8" s="72"/>
+      <c r="BK8" s="72"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="72"/>
+      <c r="BN8" s="72"/>
     </row>
     <row r="9" spans="1:66" s="28" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="str">
         <f t="shared" ref="A9:A13" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="92" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="67">
+      <c r="D9" s="93"/>
+      <c r="E9" s="66">
         <v>43259</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="67">
         <f>IF(ISBLANK(E9)," I10- ",IF(G9=0,E9,E9+G9-1))</f>
         <v>43262</v>
       </c>
@@ -3180,80 +3333,80 @@
         <v>2</v>
       </c>
       <c r="J9" s="62"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="74"/>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="74"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="74"/>
-      <c r="BC9" s="74"/>
-      <c r="BD9" s="74"/>
-      <c r="BE9" s="74"/>
-      <c r="BF9" s="74"/>
-      <c r="BG9" s="74"/>
-      <c r="BH9" s="74"/>
-      <c r="BI9" s="74"/>
-      <c r="BJ9" s="74"/>
-      <c r="BK9" s="74"/>
-      <c r="BL9" s="74"/>
-      <c r="BM9" s="74"/>
-      <c r="BN9" s="74"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="101"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="73"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73"/>
+      <c r="AY9" s="73"/>
+      <c r="AZ9" s="73"/>
+      <c r="BA9" s="73"/>
+      <c r="BB9" s="73"/>
+      <c r="BC9" s="73"/>
+      <c r="BD9" s="73"/>
+      <c r="BE9" s="73"/>
+      <c r="BF9" s="73"/>
+      <c r="BG9" s="73"/>
+      <c r="BH9" s="73"/>
+      <c r="BI9" s="73"/>
+      <c r="BJ9" s="73"/>
+      <c r="BK9" s="73"/>
+      <c r="BL9" s="73"/>
+      <c r="BM9" s="73"/>
+      <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" s="28" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="str">
         <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="92" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="67">
+      <c r="D10" s="93"/>
+      <c r="E10" s="66">
         <v>43262</v>
       </c>
-      <c r="F10" s="68">
-        <f t="shared" ref="F10:F34" si="7">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+      <c r="F10" s="67">
+        <f t="shared" ref="F10:F50" si="7">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>43266</v>
       </c>
       <c r="G10" s="29">
@@ -3267,79 +3420,79 @@
         <v>5</v>
       </c>
       <c r="J10" s="62"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="111"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="74"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="74"/>
-      <c r="BM10" s="74"/>
-      <c r="BN10" s="74"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="101"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="73"/>
+      <c r="BD10" s="73"/>
+      <c r="BE10" s="73"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="73"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="73"/>
+      <c r="BJ10" s="73"/>
+      <c r="BK10" s="73"/>
+      <c r="BL10" s="73"/>
+      <c r="BM10" s="73"/>
+      <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="str">
         <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="92" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="67">
+      <c r="D11" s="93"/>
+      <c r="E11" s="66">
         <v>43262</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="67">
         <f>IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
         <v>43265</v>
       </c>
@@ -3354,79 +3507,79 @@
         <v>4</v>
       </c>
       <c r="J11" s="62"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="74"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="74"/>
-      <c r="AV11" s="74"/>
-      <c r="AW11" s="74"/>
-      <c r="AX11" s="74"/>
-      <c r="AY11" s="74"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="74"/>
-      <c r="BB11" s="74"/>
-      <c r="BC11" s="74"/>
-      <c r="BD11" s="74"/>
-      <c r="BE11" s="74"/>
-      <c r="BF11" s="74"/>
-      <c r="BG11" s="74"/>
-      <c r="BH11" s="74"/>
-      <c r="BI11" s="74"/>
-      <c r="BJ11" s="74"/>
-      <c r="BK11" s="74"/>
-      <c r="BL11" s="74"/>
-      <c r="BM11" s="74"/>
-      <c r="BN11" s="74"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="73"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="73"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="73"/>
+      <c r="AQ11" s="73"/>
+      <c r="AR11" s="73"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="73"/>
+      <c r="AU11" s="73"/>
+      <c r="AV11" s="73"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="73"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="73"/>
+      <c r="BA11" s="73"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="73"/>
+      <c r="BD11" s="73"/>
+      <c r="BE11" s="73"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="73"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="73"/>
+      <c r="BJ11" s="73"/>
+      <c r="BK11" s="73"/>
+      <c r="BL11" s="73"/>
+      <c r="BM11" s="73"/>
+      <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="str">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="92" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="67">
+      <c r="D12" s="93"/>
+      <c r="E12" s="66">
         <v>43262</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="67">
         <f t="shared" si="7"/>
         <v>43262</v>
       </c>
@@ -3441,79 +3594,79 @@
         <v>1</v>
       </c>
       <c r="J12" s="62"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="74"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="74"/>
-      <c r="AL12" s="74"/>
-      <c r="AM12" s="74"/>
-      <c r="AN12" s="74"/>
-      <c r="AO12" s="111"/>
-      <c r="AP12" s="74"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="74"/>
-      <c r="AS12" s="74"/>
-      <c r="AT12" s="74"/>
-      <c r="AU12" s="74"/>
-      <c r="AV12" s="74"/>
-      <c r="AW12" s="74"/>
-      <c r="AX12" s="74"/>
-      <c r="AY12" s="74"/>
-      <c r="AZ12" s="74"/>
-      <c r="BA12" s="74"/>
-      <c r="BB12" s="74"/>
-      <c r="BC12" s="74"/>
-      <c r="BD12" s="74"/>
-      <c r="BE12" s="74"/>
-      <c r="BF12" s="74"/>
-      <c r="BG12" s="74"/>
-      <c r="BH12" s="74"/>
-      <c r="BI12" s="74"/>
-      <c r="BJ12" s="74"/>
-      <c r="BK12" s="74"/>
-      <c r="BL12" s="74"/>
-      <c r="BM12" s="74"/>
-      <c r="BN12" s="74"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="101"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="73"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="73"/>
+      <c r="BH12" s="73"/>
+      <c r="BI12" s="73"/>
+      <c r="BJ12" s="73"/>
+      <c r="BK12" s="73"/>
+      <c r="BL12" s="73"/>
+      <c r="BM12" s="73"/>
+      <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="str">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="92" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="67">
+      <c r="D13" s="93"/>
+      <c r="E13" s="66">
         <v>43266</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="67">
         <f>IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
         <v>43270</v>
       </c>
@@ -3527,62 +3680,62 @@
         <v>2</v>
       </c>
       <c r="J13" s="62"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="74"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="74"/>
-      <c r="AL13" s="74"/>
-      <c r="AM13" s="74"/>
-      <c r="AN13" s="74"/>
-      <c r="AO13" s="111"/>
-      <c r="AP13" s="74"/>
-      <c r="AQ13" s="74"/>
-      <c r="AR13" s="74"/>
-      <c r="AS13" s="74"/>
-      <c r="AT13" s="74"/>
-      <c r="AU13" s="74"/>
-      <c r="AV13" s="74"/>
-      <c r="AW13" s="74"/>
-      <c r="AX13" s="74"/>
-      <c r="AY13" s="74"/>
-      <c r="AZ13" s="74"/>
-      <c r="BA13" s="74"/>
-      <c r="BB13" s="74"/>
-      <c r="BC13" s="74"/>
-      <c r="BD13" s="74"/>
-      <c r="BE13" s="74"/>
-      <c r="BF13" s="74"/>
-      <c r="BG13" s="74"/>
-      <c r="BH13" s="74"/>
-      <c r="BI13" s="74"/>
-      <c r="BJ13" s="74"/>
-      <c r="BK13" s="74"/>
-      <c r="BL13" s="74"/>
-      <c r="BM13" s="74"/>
-      <c r="BN13" s="74"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="101"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="73"/>
+      <c r="AS13" s="73"/>
+      <c r="AT13" s="73"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="73"/>
+      <c r="BA13" s="73"/>
+      <c r="BB13" s="73"/>
+      <c r="BC13" s="73"/>
+      <c r="BD13" s="73"/>
+      <c r="BE13" s="73"/>
+      <c r="BF13" s="73"/>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="73"/>
+      <c r="BJ13" s="73"/>
+      <c r="BK13" s="73"/>
+      <c r="BL13" s="73"/>
+      <c r="BM13" s="73"/>
+      <c r="BN13" s="73"/>
     </row>
     <row r="14" spans="1:66" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="str">
@@ -3593,8 +3746,8 @@
         <v>22</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69" t="str">
+      <c r="E14" s="68"/>
+      <c r="F14" s="68" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -3605,79 +3758,79 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J14" s="63"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="111"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="76"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="76"/>
-      <c r="BI14" s="76"/>
-      <c r="BJ14" s="76"/>
-      <c r="BK14" s="76"/>
-      <c r="BL14" s="76"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="76"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="101"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="75"/>
+      <c r="BD14" s="75"/>
+      <c r="BE14" s="75"/>
+      <c r="BF14" s="75"/>
+      <c r="BG14" s="75"/>
+      <c r="BH14" s="75"/>
+      <c r="BI14" s="75"/>
+      <c r="BJ14" s="75"/>
+      <c r="BK14" s="75"/>
+      <c r="BL14" s="75"/>
+      <c r="BM14" s="75"/>
+      <c r="BN14" s="75"/>
     </row>
     <row r="15" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="92" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="67">
+      <c r="D15" s="93"/>
+      <c r="E15" s="66">
         <v>43262</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="67">
         <f t="shared" si="7"/>
         <v>43266</v>
       </c>
@@ -3692,79 +3845,79 @@
         <v>5</v>
       </c>
       <c r="J15" s="62"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="74"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="74"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="74"/>
-      <c r="AO15" s="111"/>
-      <c r="AP15" s="74"/>
-      <c r="AQ15" s="74"/>
-      <c r="AR15" s="74"/>
-      <c r="AS15" s="74"/>
-      <c r="AT15" s="74"/>
-      <c r="AU15" s="74"/>
-      <c r="AV15" s="74"/>
-      <c r="AW15" s="74"/>
-      <c r="AX15" s="74"/>
-      <c r="AY15" s="74"/>
-      <c r="AZ15" s="74"/>
-      <c r="BA15" s="74"/>
-      <c r="BB15" s="74"/>
-      <c r="BC15" s="74"/>
-      <c r="BD15" s="74"/>
-      <c r="BE15" s="74"/>
-      <c r="BF15" s="74"/>
-      <c r="BG15" s="74"/>
-      <c r="BH15" s="74"/>
-      <c r="BI15" s="74"/>
-      <c r="BJ15" s="74"/>
-      <c r="BK15" s="74"/>
-      <c r="BL15" s="74"/>
-      <c r="BM15" s="74"/>
-      <c r="BN15" s="74"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="101"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="73"/>
+      <c r="AR15" s="73"/>
+      <c r="AS15" s="73"/>
+      <c r="AT15" s="73"/>
+      <c r="AU15" s="73"/>
+      <c r="AV15" s="73"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="73"/>
+      <c r="AY15" s="73"/>
+      <c r="AZ15" s="73"/>
+      <c r="BA15" s="73"/>
+      <c r="BB15" s="73"/>
+      <c r="BC15" s="73"/>
+      <c r="BD15" s="73"/>
+      <c r="BE15" s="73"/>
+      <c r="BF15" s="73"/>
+      <c r="BG15" s="73"/>
+      <c r="BH15" s="73"/>
+      <c r="BI15" s="73"/>
+      <c r="BJ15" s="73"/>
+      <c r="BK15" s="73"/>
+      <c r="BL15" s="73"/>
+      <c r="BM15" s="73"/>
+      <c r="BN15" s="73"/>
     </row>
     <row r="16" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="92" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="67">
+      <c r="D16" s="93"/>
+      <c r="E16" s="66">
         <v>43262</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="67">
         <f t="shared" si="7"/>
         <v>43266</v>
       </c>
@@ -3779,74 +3932,74 @@
         <v>5</v>
       </c>
       <c r="J16" s="62"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="74"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="74"/>
-      <c r="AO16" s="111"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="74"/>
-      <c r="AS16" s="74"/>
-      <c r="AT16" s="74"/>
-      <c r="AU16" s="74"/>
-      <c r="AV16" s="74"/>
-      <c r="AW16" s="74"/>
-      <c r="AX16" s="74"/>
-      <c r="AY16" s="74"/>
-      <c r="AZ16" s="74"/>
-      <c r="BA16" s="74"/>
-      <c r="BB16" s="74"/>
-      <c r="BC16" s="74"/>
-      <c r="BD16" s="74"/>
-      <c r="BE16" s="74"/>
-      <c r="BF16" s="74"/>
-      <c r="BG16" s="74"/>
-      <c r="BH16" s="74"/>
-      <c r="BI16" s="74"/>
-      <c r="BJ16" s="74"/>
-      <c r="BK16" s="74"/>
-      <c r="BL16" s="74"/>
-      <c r="BM16" s="74"/>
-      <c r="BN16" s="74"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="101"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="73"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="73"/>
+      <c r="BE16" s="73"/>
+      <c r="BF16" s="73"/>
+      <c r="BG16" s="73"/>
+      <c r="BH16" s="73"/>
+      <c r="BI16" s="73"/>
+      <c r="BJ16" s="73"/>
+      <c r="BK16" s="73"/>
+      <c r="BL16" s="73"/>
+      <c r="BM16" s="73"/>
+      <c r="BN16" s="73"/>
     </row>
-    <row r="17" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68" t="str">
+      <c r="D17" s="93"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -3861,72 +4014,72 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J17" s="62"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
-      <c r="AI17" s="74"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="74"/>
-      <c r="AL17" s="74"/>
-      <c r="AM17" s="74"/>
-      <c r="AN17" s="74"/>
-      <c r="AO17" s="111"/>
-      <c r="AP17" s="74"/>
-      <c r="AQ17" s="74"/>
-      <c r="AR17" s="74"/>
-      <c r="AS17" s="74"/>
-      <c r="AT17" s="74"/>
-      <c r="AU17" s="74"/>
-      <c r="AV17" s="74"/>
-      <c r="AW17" s="74"/>
-      <c r="AX17" s="74"/>
-      <c r="AY17" s="74"/>
-      <c r="AZ17" s="74"/>
-      <c r="BA17" s="74"/>
-      <c r="BB17" s="74"/>
-      <c r="BC17" s="74"/>
-      <c r="BD17" s="74"/>
-      <c r="BE17" s="74"/>
-      <c r="BF17" s="74"/>
-      <c r="BG17" s="74"/>
-      <c r="BH17" s="74"/>
-      <c r="BI17" s="74"/>
-      <c r="BJ17" s="74"/>
-      <c r="BK17" s="74"/>
-      <c r="BL17" s="74"/>
-      <c r="BM17" s="74"/>
-      <c r="BN17" s="74"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="101"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="73"/>
+      <c r="AS17" s="73"/>
+      <c r="AT17" s="73"/>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="73"/>
+      <c r="AZ17" s="73"/>
+      <c r="BA17" s="73"/>
+      <c r="BB17" s="73"/>
+      <c r="BC17" s="73"/>
+      <c r="BD17" s="73"/>
+      <c r="BE17" s="73"/>
+      <c r="BF17" s="73"/>
+      <c r="BG17" s="73"/>
+      <c r="BH17" s="73"/>
+      <c r="BI17" s="73"/>
+      <c r="BJ17" s="73"/>
+      <c r="BK17" s="73"/>
+      <c r="BL17" s="73"/>
+      <c r="BM17" s="73"/>
+      <c r="BN17" s="73"/>
     </row>
-    <row r="18" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68" t="str">
+      <c r="B18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -3941,72 +4094,72 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J18" s="62"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="74"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="111"/>
-      <c r="AP18" s="74"/>
-      <c r="AQ18" s="74"/>
-      <c r="AR18" s="74"/>
-      <c r="AS18" s="74"/>
-      <c r="AT18" s="74"/>
-      <c r="AU18" s="74"/>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="74"/>
-      <c r="AX18" s="74"/>
-      <c r="AY18" s="74"/>
-      <c r="AZ18" s="74"/>
-      <c r="BA18" s="74"/>
-      <c r="BB18" s="74"/>
-      <c r="BC18" s="74"/>
-      <c r="BD18" s="74"/>
-      <c r="BE18" s="74"/>
-      <c r="BF18" s="74"/>
-      <c r="BG18" s="74"/>
-      <c r="BH18" s="74"/>
-      <c r="BI18" s="74"/>
-      <c r="BJ18" s="74"/>
-      <c r="BK18" s="74"/>
-      <c r="BL18" s="74"/>
-      <c r="BM18" s="74"/>
-      <c r="BN18" s="74"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="101"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="101"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="73"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="73"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="73"/>
+      <c r="BJ18" s="73"/>
+      <c r="BK18" s="73"/>
+      <c r="BL18" s="73"/>
+      <c r="BM18" s="73"/>
+      <c r="BN18" s="73"/>
     </row>
-    <row r="19" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68" t="str">
+      <c r="B19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -4021,64 +4174,64 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J19" s="62"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="74"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="74"/>
-      <c r="AL19" s="74"/>
-      <c r="AM19" s="74"/>
-      <c r="AN19" s="74"/>
-      <c r="AO19" s="111"/>
-      <c r="AP19" s="74"/>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="74"/>
-      <c r="AS19" s="74"/>
-      <c r="AT19" s="74"/>
-      <c r="AU19" s="74"/>
-      <c r="AV19" s="74"/>
-      <c r="AW19" s="74"/>
-      <c r="AX19" s="74"/>
-      <c r="AY19" s="74"/>
-      <c r="AZ19" s="74"/>
-      <c r="BA19" s="74"/>
-      <c r="BB19" s="74"/>
-      <c r="BC19" s="74"/>
-      <c r="BD19" s="74"/>
-      <c r="BE19" s="74"/>
-      <c r="BF19" s="74"/>
-      <c r="BG19" s="74"/>
-      <c r="BH19" s="74"/>
-      <c r="BI19" s="74"/>
-      <c r="BJ19" s="74"/>
-      <c r="BK19" s="74"/>
-      <c r="BL19" s="74"/>
-      <c r="BM19" s="74"/>
-      <c r="BN19" s="74"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="101"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="101"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="73"/>
+      <c r="BA19" s="73"/>
+      <c r="BB19" s="73"/>
+      <c r="BC19" s="73"/>
+      <c r="BD19" s="73"/>
+      <c r="BE19" s="73"/>
+      <c r="BF19" s="73"/>
+      <c r="BG19" s="73"/>
+      <c r="BH19" s="73"/>
+      <c r="BI19" s="73"/>
+      <c r="BJ19" s="73"/>
+      <c r="BK19" s="73"/>
+      <c r="BL19" s="73"/>
+      <c r="BM19" s="73"/>
+      <c r="BN19" s="73"/>
     </row>
-    <row r="20" spans="1:66" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:92" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -4087,8 +4240,8 @@
         <v>24</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69" t="str">
+      <c r="E20" s="68"/>
+      <c r="F20" s="68" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -4099,76 +4252,102 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J20" s="63"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="111"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="76"/>
-      <c r="BA20" s="76"/>
-      <c r="BB20" s="76"/>
-      <c r="BC20" s="76"/>
-      <c r="BD20" s="76"/>
-      <c r="BE20" s="76"/>
-      <c r="BF20" s="76"/>
-      <c r="BG20" s="76"/>
-      <c r="BH20" s="76"/>
-      <c r="BI20" s="76"/>
-      <c r="BJ20" s="76"/>
-      <c r="BK20" s="76"/>
-      <c r="BL20" s="76"/>
-      <c r="BM20" s="76"/>
-      <c r="BN20" s="76"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="101"/>
+      <c r="AP20" s="75"/>
+      <c r="AQ20" s="75"/>
+      <c r="AR20" s="75"/>
+      <c r="AS20" s="75"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="73"/>
+      <c r="BB20" s="73"/>
+      <c r="BC20" s="73"/>
+      <c r="BD20" s="73"/>
+      <c r="BE20" s="73"/>
+      <c r="BF20" s="73"/>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="73"/>
+      <c r="BI20" s="73"/>
+      <c r="BJ20" s="73"/>
+      <c r="BK20" s="73"/>
+      <c r="BL20" s="73"/>
+      <c r="BM20" s="73"/>
+      <c r="BN20" s="73"/>
+      <c r="BO20" s="28"/>
+      <c r="BP20" s="28"/>
+      <c r="BQ20" s="28"/>
+      <c r="BR20" s="28"/>
+      <c r="BS20" s="28"/>
+      <c r="BT20" s="28"/>
+      <c r="BU20" s="28"/>
+      <c r="BV20" s="28"/>
+      <c r="BW20" s="28"/>
+      <c r="BX20" s="28"/>
+      <c r="BY20" s="28"/>
+      <c r="BZ20" s="28"/>
+      <c r="CA20" s="28"/>
+      <c r="CB20" s="28"/>
+      <c r="CC20" s="28"/>
+      <c r="CD20" s="28"/>
+      <c r="CE20" s="28"/>
+      <c r="CF20" s="28"/>
+      <c r="CG20" s="28"/>
+      <c r="CH20" s="28"/>
+      <c r="CI20" s="28"/>
+      <c r="CJ20" s="28"/>
+      <c r="CK20" s="28"/>
+      <c r="CL20" s="28"/>
+      <c r="CM20" s="28"/>
+      <c r="CN20" s="28"/>
     </row>
-    <row r="21" spans="1:66" s="28" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:92" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="str">
         <f t="shared" ref="A21" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B21" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="67">
+      <c r="B21" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="93"/>
+      <c r="E21" s="66">
         <v>43262</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="67">
         <f t="shared" ref="F21" si="9">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
         <v>43266</v>
       </c>
@@ -4176,1598 +4355,2838 @@
         <v>5</v>
       </c>
       <c r="H21" s="30">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="I21" s="31">
-        <f t="shared" ref="I21:I24" si="10">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
+        <f t="shared" ref="I21:I37" si="10">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
         <v>5</v>
       </c>
       <c r="J21" s="62"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="74"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="74"/>
-      <c r="AL21" s="74"/>
-      <c r="AM21" s="74"/>
-      <c r="AN21" s="74"/>
-      <c r="AO21" s="111"/>
-      <c r="AP21" s="74"/>
-      <c r="AQ21" s="74"/>
-      <c r="AR21" s="74"/>
-      <c r="AS21" s="74"/>
-      <c r="AT21" s="74"/>
-      <c r="AU21" s="74"/>
-      <c r="AV21" s="74"/>
-      <c r="AW21" s="74"/>
-      <c r="AX21" s="74"/>
-      <c r="AY21" s="74"/>
-      <c r="AZ21" s="74"/>
-      <c r="BA21" s="74"/>
-      <c r="BB21" s="74"/>
-      <c r="BC21" s="74"/>
-      <c r="BD21" s="74"/>
-      <c r="BE21" s="74"/>
-      <c r="BF21" s="74"/>
-      <c r="BG21" s="74"/>
-      <c r="BH21" s="74"/>
-      <c r="BI21" s="74"/>
-      <c r="BJ21" s="74"/>
-      <c r="BK21" s="74"/>
-      <c r="BL21" s="74"/>
-      <c r="BM21" s="74"/>
-      <c r="BN21" s="74"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="73"/>
+      <c r="AH21" s="73"/>
+      <c r="AI21" s="73"/>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="73"/>
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="73"/>
+      <c r="AN21" s="73"/>
+      <c r="AO21" s="101"/>
+      <c r="AP21" s="73"/>
+      <c r="AQ21" s="73"/>
+      <c r="AR21" s="73"/>
+      <c r="AS21" s="73"/>
+      <c r="AT21" s="73"/>
+      <c r="AU21" s="73"/>
+      <c r="AV21" s="73"/>
+      <c r="AW21" s="73"/>
+      <c r="AX21" s="73"/>
+      <c r="AY21" s="73"/>
+      <c r="AZ21" s="73"/>
+      <c r="BA21" s="73"/>
+      <c r="BB21" s="73"/>
+      <c r="BC21" s="73"/>
+      <c r="BD21" s="73"/>
+      <c r="BE21" s="73"/>
+      <c r="BF21" s="73"/>
+      <c r="BG21" s="73"/>
+      <c r="BH21" s="73"/>
+      <c r="BI21" s="73"/>
+      <c r="BJ21" s="73"/>
+      <c r="BK21" s="73"/>
+      <c r="BL21" s="73"/>
+      <c r="BM21" s="73"/>
+      <c r="BN21" s="73"/>
     </row>
-    <row r="22" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="str">
+    <row r="22" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="93"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="101"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="73"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="73"/>
+      <c r="AO22" s="101"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="73"/>
+      <c r="AT22" s="73"/>
+      <c r="AU22" s="73"/>
+      <c r="AV22" s="73"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="73"/>
+      <c r="AY22" s="73"/>
+      <c r="AZ22" s="73"/>
+      <c r="BA22" s="73"/>
+      <c r="BB22" s="73"/>
+      <c r="BC22" s="73"/>
+      <c r="BD22" s="73"/>
+      <c r="BE22" s="73"/>
+      <c r="BF22" s="73"/>
+      <c r="BG22" s="73"/>
+      <c r="BH22" s="73"/>
+      <c r="BI22" s="73"/>
+      <c r="BJ22" s="73"/>
+      <c r="BK22" s="73"/>
+      <c r="BL22" s="73"/>
+      <c r="BM22" s="73"/>
+      <c r="BN22" s="73"/>
+    </row>
+    <row r="23" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="93"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="101"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="101"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="73"/>
+      <c r="AU23" s="73"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73"/>
+      <c r="AY23" s="73"/>
+      <c r="AZ23" s="73"/>
+      <c r="BA23" s="73"/>
+      <c r="BB23" s="73"/>
+      <c r="BC23" s="73"/>
+      <c r="BD23" s="73"/>
+      <c r="BE23" s="73"/>
+      <c r="BF23" s="73"/>
+      <c r="BG23" s="73"/>
+      <c r="BH23" s="73"/>
+      <c r="BI23" s="73"/>
+      <c r="BJ23" s="73"/>
+      <c r="BK23" s="73"/>
+      <c r="BL23" s="73"/>
+      <c r="BM23" s="73"/>
+      <c r="BN23" s="73"/>
+    </row>
+    <row r="24" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="93"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="101"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="73"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="73"/>
+      <c r="AO24" s="101"/>
+      <c r="AP24" s="73"/>
+      <c r="AQ24" s="73"/>
+      <c r="AR24" s="73"/>
+      <c r="AS24" s="73"/>
+      <c r="AT24" s="73"/>
+      <c r="AU24" s="73"/>
+      <c r="AV24" s="73"/>
+      <c r="AW24" s="73"/>
+      <c r="AX24" s="73"/>
+      <c r="AY24" s="73"/>
+      <c r="AZ24" s="73"/>
+      <c r="BA24" s="73"/>
+      <c r="BB24" s="73"/>
+      <c r="BC24" s="73"/>
+      <c r="BD24" s="73"/>
+      <c r="BE24" s="73"/>
+      <c r="BF24" s="73"/>
+      <c r="BG24" s="73"/>
+      <c r="BH24" s="73"/>
+      <c r="BI24" s="73"/>
+      <c r="BJ24" s="73"/>
+      <c r="BK24" s="73"/>
+      <c r="BL24" s="73"/>
+      <c r="BM24" s="73"/>
+      <c r="BN24" s="73"/>
+    </row>
+    <row r="25" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="93"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="101"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="101"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="73"/>
+      <c r="AR25" s="73"/>
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="73"/>
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="73"/>
+      <c r="AY25" s="73"/>
+      <c r="AZ25" s="73"/>
+      <c r="BA25" s="73"/>
+      <c r="BB25" s="73"/>
+      <c r="BC25" s="73"/>
+      <c r="BD25" s="73"/>
+      <c r="BE25" s="73"/>
+      <c r="BF25" s="73"/>
+      <c r="BG25" s="73"/>
+      <c r="BH25" s="73"/>
+      <c r="BI25" s="73"/>
+      <c r="BJ25" s="73"/>
+      <c r="BK25" s="73"/>
+      <c r="BL25" s="73"/>
+      <c r="BM25" s="73"/>
+      <c r="BN25" s="73"/>
+    </row>
+    <row r="26" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="101"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="73"/>
+      <c r="AO26" s="101"/>
+      <c r="AP26" s="73"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
+      <c r="AT26" s="73"/>
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
+      <c r="AX26" s="73"/>
+      <c r="AY26" s="73"/>
+      <c r="AZ26" s="73"/>
+      <c r="BA26" s="73"/>
+      <c r="BB26" s="73"/>
+      <c r="BC26" s="73"/>
+      <c r="BD26" s="73"/>
+      <c r="BE26" s="73"/>
+      <c r="BF26" s="73"/>
+      <c r="BG26" s="73"/>
+      <c r="BH26" s="73"/>
+      <c r="BI26" s="73"/>
+      <c r="BJ26" s="73"/>
+      <c r="BK26" s="73"/>
+      <c r="BL26" s="73"/>
+      <c r="BM26" s="73"/>
+      <c r="BN26" s="73"/>
+    </row>
+    <row r="27" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="93"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="101"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="73"/>
+      <c r="AS27" s="73"/>
+      <c r="AT27" s="73"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="73"/>
+      <c r="AW27" s="73"/>
+      <c r="AX27" s="73"/>
+      <c r="AY27" s="73"/>
+      <c r="AZ27" s="73"/>
+      <c r="BA27" s="73"/>
+      <c r="BB27" s="73"/>
+      <c r="BC27" s="73"/>
+      <c r="BD27" s="73"/>
+      <c r="BE27" s="73"/>
+      <c r="BF27" s="73"/>
+      <c r="BG27" s="73"/>
+      <c r="BH27" s="73"/>
+      <c r="BI27" s="73"/>
+      <c r="BJ27" s="73"/>
+      <c r="BK27" s="73"/>
+      <c r="BL27" s="73"/>
+      <c r="BM27" s="73"/>
+      <c r="BN27" s="73"/>
+    </row>
+    <row r="28" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="73"/>
+      <c r="AS28" s="73"/>
+      <c r="AT28" s="73"/>
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="73"/>
+      <c r="AW28" s="73"/>
+      <c r="AX28" s="73"/>
+      <c r="AY28" s="73"/>
+      <c r="AZ28" s="73"/>
+      <c r="BA28" s="73"/>
+      <c r="BB28" s="73"/>
+      <c r="BC28" s="73"/>
+      <c r="BD28" s="73"/>
+      <c r="BE28" s="73"/>
+      <c r="BF28" s="73"/>
+      <c r="BG28" s="73"/>
+      <c r="BH28" s="73"/>
+      <c r="BI28" s="73"/>
+      <c r="BJ28" s="73"/>
+      <c r="BK28" s="73"/>
+      <c r="BL28" s="73"/>
+      <c r="BM28" s="73"/>
+      <c r="BN28" s="73"/>
+    </row>
+    <row r="29" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="73"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="101"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="73"/>
+      <c r="AT29" s="73"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="73"/>
+      <c r="AW29" s="73"/>
+      <c r="AX29" s="73"/>
+      <c r="AY29" s="73"/>
+      <c r="AZ29" s="73"/>
+      <c r="BA29" s="73"/>
+      <c r="BB29" s="73"/>
+      <c r="BC29" s="73"/>
+      <c r="BD29" s="73"/>
+      <c r="BE29" s="73"/>
+      <c r="BF29" s="73"/>
+      <c r="BG29" s="73"/>
+      <c r="BH29" s="73"/>
+      <c r="BI29" s="73"/>
+      <c r="BJ29" s="73"/>
+      <c r="BK29" s="73"/>
+      <c r="BL29" s="73"/>
+      <c r="BM29" s="73"/>
+      <c r="BN29" s="73"/>
+    </row>
+    <row r="30" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="101"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="101"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="73"/>
+      <c r="AS30" s="73"/>
+      <c r="AT30" s="73"/>
+      <c r="AU30" s="73"/>
+      <c r="AV30" s="73"/>
+      <c r="AW30" s="73"/>
+      <c r="AX30" s="73"/>
+      <c r="AY30" s="73"/>
+      <c r="AZ30" s="73"/>
+      <c r="BA30" s="73"/>
+      <c r="BB30" s="73"/>
+      <c r="BC30" s="73"/>
+      <c r="BD30" s="73"/>
+      <c r="BE30" s="73"/>
+      <c r="BF30" s="73"/>
+      <c r="BG30" s="73"/>
+      <c r="BH30" s="73"/>
+      <c r="BI30" s="73"/>
+      <c r="BJ30" s="73"/>
+      <c r="BK30" s="73"/>
+      <c r="BL30" s="73"/>
+      <c r="BM30" s="73"/>
+      <c r="BN30" s="73"/>
+    </row>
+    <row r="31" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="101"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="101"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="73"/>
+      <c r="AX31" s="73"/>
+      <c r="AY31" s="73"/>
+      <c r="AZ31" s="73"/>
+      <c r="BA31" s="73"/>
+      <c r="BB31" s="73"/>
+      <c r="BC31" s="73"/>
+      <c r="BD31" s="73"/>
+      <c r="BE31" s="73"/>
+      <c r="BF31" s="73"/>
+      <c r="BG31" s="73"/>
+      <c r="BH31" s="73"/>
+      <c r="BI31" s="73"/>
+      <c r="BJ31" s="73"/>
+      <c r="BK31" s="73"/>
+      <c r="BL31" s="73"/>
+      <c r="BM31" s="73"/>
+      <c r="BN31" s="73"/>
+    </row>
+    <row r="32" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="101"/>
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="73"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="101"/>
+      <c r="AP32" s="73"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="73"/>
+      <c r="AS32" s="73"/>
+      <c r="AT32" s="73"/>
+      <c r="AU32" s="73"/>
+      <c r="AV32" s="73"/>
+      <c r="AW32" s="73"/>
+      <c r="AX32" s="73"/>
+      <c r="AY32" s="73"/>
+      <c r="AZ32" s="73"/>
+      <c r="BA32" s="73"/>
+      <c r="BB32" s="73"/>
+      <c r="BC32" s="73"/>
+      <c r="BD32" s="73"/>
+      <c r="BE32" s="73"/>
+      <c r="BF32" s="73"/>
+      <c r="BG32" s="73"/>
+      <c r="BH32" s="73"/>
+      <c r="BI32" s="73"/>
+      <c r="BJ32" s="73"/>
+      <c r="BK32" s="73"/>
+      <c r="BL32" s="73"/>
+      <c r="BM32" s="73"/>
+      <c r="BN32" s="73"/>
+    </row>
+    <row r="33" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="101"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="73"/>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="73"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="101"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="73"/>
+      <c r="AT33" s="73"/>
+      <c r="AU33" s="73"/>
+      <c r="AV33" s="73"/>
+      <c r="AW33" s="73"/>
+      <c r="AX33" s="73"/>
+      <c r="AY33" s="73"/>
+      <c r="AZ33" s="73"/>
+      <c r="BA33" s="73"/>
+      <c r="BB33" s="73"/>
+      <c r="BC33" s="73"/>
+      <c r="BD33" s="73"/>
+      <c r="BE33" s="73"/>
+      <c r="BF33" s="73"/>
+      <c r="BG33" s="73"/>
+      <c r="BH33" s="73"/>
+      <c r="BI33" s="73"/>
+      <c r="BJ33" s="73"/>
+      <c r="BK33" s="73"/>
+      <c r="BL33" s="73"/>
+      <c r="BM33" s="73"/>
+      <c r="BN33" s="73"/>
+    </row>
+    <row r="34" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="101"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="101"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="73"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="73"/>
+      <c r="BA34" s="73"/>
+      <c r="BB34" s="73"/>
+      <c r="BC34" s="73"/>
+      <c r="BD34" s="73"/>
+      <c r="BE34" s="73"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="73"/>
+      <c r="BH34" s="73"/>
+      <c r="BI34" s="73"/>
+      <c r="BJ34" s="73"/>
+      <c r="BK34" s="73"/>
+      <c r="BL34" s="73"/>
+      <c r="BM34" s="73"/>
+      <c r="BN34" s="73"/>
+    </row>
+    <row r="35" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B22" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="67">
+      <c r="B35" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="93"/>
+      <c r="E35" s="66">
         <v>43262</v>
       </c>
-      <c r="F22" s="68">
-        <f>IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
+      <c r="F35" s="67">
+        <f>IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
         <v>43275</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G35" s="29">
         <v>14</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H35" s="30">
         <v>0.15</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I35" s="31">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="74"/>
-      <c r="AJ22" s="74"/>
-      <c r="AK22" s="74"/>
-      <c r="AL22" s="74"/>
-      <c r="AM22" s="74"/>
-      <c r="AN22" s="74"/>
-      <c r="AO22" s="111"/>
-      <c r="AP22" s="74"/>
-      <c r="AQ22" s="74"/>
-      <c r="AR22" s="74"/>
-      <c r="AS22" s="74"/>
-      <c r="AT22" s="74"/>
-      <c r="AU22" s="74"/>
-      <c r="AV22" s="74"/>
-      <c r="AW22" s="74"/>
-      <c r="AX22" s="74"/>
-      <c r="AY22" s="74"/>
-      <c r="AZ22" s="74"/>
-      <c r="BA22" s="74"/>
-      <c r="BB22" s="74"/>
-      <c r="BC22" s="74"/>
-      <c r="BD22" s="74"/>
-      <c r="BE22" s="74"/>
-      <c r="BF22" s="74"/>
-      <c r="BG22" s="74"/>
-      <c r="BH22" s="74"/>
-      <c r="BI22" s="74"/>
-      <c r="BJ22" s="74"/>
-      <c r="BK22" s="74"/>
-      <c r="BL22" s="74"/>
-      <c r="BM22" s="74"/>
-      <c r="BN22" s="74"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="101"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="73"/>
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="73"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="73"/>
+      <c r="AN35" s="73"/>
+      <c r="AO35" s="101"/>
+      <c r="AP35" s="73"/>
+      <c r="AQ35" s="73"/>
+      <c r="AR35" s="73"/>
+      <c r="AS35" s="73"/>
+      <c r="AT35" s="73"/>
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="73"/>
+      <c r="AY35" s="73"/>
+      <c r="AZ35" s="73"/>
+      <c r="BA35" s="73"/>
+      <c r="BB35" s="73"/>
+      <c r="BC35" s="73"/>
+      <c r="BD35" s="73"/>
+      <c r="BE35" s="73"/>
+      <c r="BF35" s="73"/>
+      <c r="BG35" s="73"/>
+      <c r="BH35" s="73"/>
+      <c r="BI35" s="73"/>
+      <c r="BJ35" s="73"/>
+      <c r="BK35" s="73"/>
+      <c r="BL35" s="73"/>
+      <c r="BM35" s="73"/>
+      <c r="BN35" s="73"/>
     </row>
-    <row r="23" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="str">
+    <row r="36" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.1</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68" t="str">
-        <f t="shared" ref="F23" si="11">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+      <c r="B36" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67" t="str">
+        <f t="shared" ref="F36" si="11">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="47" t="str">
-        <f t="shared" ref="I23" si="12">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="47" t="str">
+        <f t="shared" ref="I36" si="12">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="74"/>
-      <c r="AJ23" s="74"/>
-      <c r="AK23" s="74"/>
-      <c r="AL23" s="74"/>
-      <c r="AM23" s="74"/>
-      <c r="AN23" s="74"/>
-      <c r="AO23" s="111"/>
-      <c r="AP23" s="74"/>
-      <c r="AQ23" s="74"/>
-      <c r="AR23" s="74"/>
-      <c r="AS23" s="74"/>
-      <c r="AT23" s="74"/>
-      <c r="AU23" s="74"/>
-      <c r="AV23" s="74"/>
-      <c r="AW23" s="74"/>
-      <c r="AX23" s="74"/>
-      <c r="AY23" s="74"/>
-      <c r="AZ23" s="74"/>
-      <c r="BA23" s="74"/>
-      <c r="BB23" s="74"/>
-      <c r="BC23" s="74"/>
-      <c r="BD23" s="74"/>
-      <c r="BE23" s="74"/>
-      <c r="BF23" s="74"/>
-      <c r="BG23" s="74"/>
-      <c r="BH23" s="74"/>
-      <c r="BI23" s="74"/>
-      <c r="BJ23" s="74"/>
-      <c r="BK23" s="74"/>
-      <c r="BL23" s="74"/>
-      <c r="BM23" s="74"/>
-      <c r="BN23" s="74"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="101"/>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="73"/>
+      <c r="AI36" s="73"/>
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="73"/>
+      <c r="AL36" s="73"/>
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="73"/>
+      <c r="AO36" s="101"/>
+      <c r="AP36" s="73"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="73"/>
+      <c r="AT36" s="73"/>
+      <c r="AU36" s="73"/>
+      <c r="AV36" s="73"/>
+      <c r="AW36" s="73"/>
+      <c r="AX36" s="73"/>
+      <c r="AY36" s="73"/>
+      <c r="AZ36" s="73"/>
+      <c r="BA36" s="73"/>
+      <c r="BB36" s="73"/>
+      <c r="BC36" s="73"/>
+      <c r="BD36" s="73"/>
+      <c r="BE36" s="73"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="73"/>
+      <c r="BI36" s="73"/>
+      <c r="BJ36" s="73"/>
+      <c r="BK36" s="73"/>
+      <c r="BL36" s="73"/>
+      <c r="BM36" s="73"/>
+      <c r="BN36" s="73"/>
     </row>
-    <row r="24" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="str">
+    <row r="37" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.2</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68" t="str">
-        <f t="shared" ref="F24" si="13">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
+      <c r="B37" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67" t="str">
+        <f t="shared" ref="F37" si="13">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="47" t="str">
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="47" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J24" s="62"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="74"/>
-      <c r="AJ24" s="74"/>
-      <c r="AK24" s="74"/>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="74"/>
-      <c r="AN24" s="74"/>
-      <c r="AO24" s="111"/>
-      <c r="AP24" s="74"/>
-      <c r="AQ24" s="74"/>
-      <c r="AR24" s="74"/>
-      <c r="AS24" s="74"/>
-      <c r="AT24" s="74"/>
-      <c r="AU24" s="74"/>
-      <c r="AV24" s="74"/>
-      <c r="AW24" s="74"/>
-      <c r="AX24" s="74"/>
-      <c r="AY24" s="74"/>
-      <c r="AZ24" s="74"/>
-      <c r="BA24" s="74"/>
-      <c r="BB24" s="74"/>
-      <c r="BC24" s="74"/>
-      <c r="BD24" s="74"/>
-      <c r="BE24" s="74"/>
-      <c r="BF24" s="74"/>
-      <c r="BG24" s="74"/>
-      <c r="BH24" s="74"/>
-      <c r="BI24" s="74"/>
-      <c r="BJ24" s="74"/>
-      <c r="BK24" s="74"/>
-      <c r="BL24" s="74"/>
-      <c r="BM24" s="74"/>
-      <c r="BN24" s="74"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="101"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="73"/>
+      <c r="AN37" s="73"/>
+      <c r="AO37" s="101"/>
+      <c r="AP37" s="73"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="73"/>
+      <c r="AT37" s="73"/>
+      <c r="AU37" s="73"/>
+      <c r="AV37" s="73"/>
+      <c r="AW37" s="73"/>
+      <c r="AX37" s="73"/>
+      <c r="AY37" s="73"/>
+      <c r="AZ37" s="73"/>
+      <c r="BA37" s="73"/>
+      <c r="BB37" s="73"/>
+      <c r="BC37" s="73"/>
+      <c r="BD37" s="73"/>
+      <c r="BE37" s="73"/>
+      <c r="BF37" s="73"/>
+      <c r="BG37" s="73"/>
+      <c r="BH37" s="73"/>
+      <c r="BI37" s="73"/>
+      <c r="BJ37" s="73"/>
+      <c r="BK37" s="73"/>
+      <c r="BL37" s="73"/>
+      <c r="BM37" s="73"/>
+      <c r="BN37" s="73"/>
     </row>
-    <row r="25" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="str">
+    <row r="38" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.3</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68" t="str">
-        <f t="shared" ref="F25:F26" si="14">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+      <c r="B38" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="48"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67" t="str">
+        <f t="shared" ref="F38:F39" si="14">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="47" t="str">
-        <f t="shared" ref="I25:I26" si="15">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="47" t="str">
+        <f t="shared" ref="I38:I39" si="15">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J25" s="62"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="74"/>
-      <c r="AJ25" s="74"/>
-      <c r="AK25" s="74"/>
-      <c r="AL25" s="74"/>
-      <c r="AM25" s="74"/>
-      <c r="AN25" s="74"/>
-      <c r="AO25" s="111"/>
-      <c r="AP25" s="74"/>
-      <c r="AQ25" s="74"/>
-      <c r="AR25" s="74"/>
-      <c r="AS25" s="74"/>
-      <c r="AT25" s="74"/>
-      <c r="AU25" s="74"/>
-      <c r="AV25" s="74"/>
-      <c r="AW25" s="74"/>
-      <c r="AX25" s="74"/>
-      <c r="AY25" s="74"/>
-      <c r="AZ25" s="74"/>
-      <c r="BA25" s="74"/>
-      <c r="BB25" s="74"/>
-      <c r="BC25" s="74"/>
-      <c r="BD25" s="74"/>
-      <c r="BE25" s="74"/>
-      <c r="BF25" s="74"/>
-      <c r="BG25" s="74"/>
-      <c r="BH25" s="74"/>
-      <c r="BI25" s="74"/>
-      <c r="BJ25" s="74"/>
-      <c r="BK25" s="74"/>
-      <c r="BL25" s="74"/>
-      <c r="BM25" s="74"/>
-      <c r="BN25" s="74"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="101"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="73"/>
+      <c r="AJ38" s="73"/>
+      <c r="AK38" s="73"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="73"/>
+      <c r="AN38" s="73"/>
+      <c r="AO38" s="101"/>
+      <c r="AP38" s="73"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="73"/>
+      <c r="AS38" s="73"/>
+      <c r="AT38" s="73"/>
+      <c r="AU38" s="73"/>
+      <c r="AV38" s="73"/>
+      <c r="AW38" s="73"/>
+      <c r="AX38" s="73"/>
+      <c r="AY38" s="73"/>
+      <c r="AZ38" s="73"/>
+      <c r="BA38" s="73"/>
+      <c r="BB38" s="73"/>
+      <c r="BC38" s="73"/>
+      <c r="BD38" s="73"/>
+      <c r="BE38" s="73"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="73"/>
+      <c r="BH38" s="73"/>
+      <c r="BI38" s="73"/>
+      <c r="BJ38" s="73"/>
+      <c r="BK38" s="73"/>
+      <c r="BL38" s="73"/>
+      <c r="BM38" s="73"/>
+      <c r="BN38" s="73"/>
     </row>
-    <row r="26" spans="1:66" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="str">
+    <row r="39" spans="1:92" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.4</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68" t="str">
+      <c r="B39" s="49"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="47" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="76"/>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="76"/>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="76"/>
-      <c r="AK26" s="76"/>
-      <c r="AL26" s="76"/>
-      <c r="AM26" s="76"/>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="111"/>
-      <c r="AP26" s="76"/>
-      <c r="AQ26" s="76"/>
-      <c r="AR26" s="76"/>
-      <c r="AS26" s="76"/>
-      <c r="AT26" s="76"/>
-      <c r="AU26" s="76"/>
-      <c r="AV26" s="76"/>
-      <c r="AW26" s="76"/>
-      <c r="AX26" s="76"/>
-      <c r="AY26" s="76"/>
-      <c r="AZ26" s="76"/>
-      <c r="BA26" s="76"/>
-      <c r="BB26" s="76"/>
-      <c r="BC26" s="76"/>
-      <c r="BD26" s="76"/>
-      <c r="BE26" s="76"/>
-      <c r="BF26" s="76"/>
-      <c r="BG26" s="76"/>
-      <c r="BH26" s="76"/>
-      <c r="BI26" s="76"/>
-      <c r="BJ26" s="76"/>
-      <c r="BK26" s="76"/>
-      <c r="BL26" s="76"/>
-      <c r="BM26" s="76"/>
-      <c r="BN26" s="76"/>
-    </row>
-    <row r="27" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
-        <v>3.5</v>
-      </c>
-      <c r="B27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G27" s="29">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30">
-        <v>0</v>
-      </c>
-      <c r="I27" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="74"/>
-      <c r="AH27" s="74"/>
-      <c r="AI27" s="74"/>
-      <c r="AJ27" s="74"/>
-      <c r="AK27" s="74"/>
-      <c r="AL27" s="74"/>
-      <c r="AM27" s="74"/>
-      <c r="AN27" s="74"/>
-      <c r="AO27" s="74"/>
-      <c r="AP27" s="74"/>
-      <c r="AQ27" s="74"/>
-      <c r="AR27" s="74"/>
-      <c r="AS27" s="74"/>
-      <c r="AT27" s="74"/>
-      <c r="AU27" s="74"/>
-      <c r="AV27" s="74"/>
-      <c r="AW27" s="74"/>
-      <c r="AX27" s="74"/>
-      <c r="AY27" s="74"/>
-      <c r="AZ27" s="74"/>
-      <c r="BA27" s="74"/>
-      <c r="BB27" s="74"/>
-      <c r="BC27" s="74"/>
-      <c r="BD27" s="74"/>
-      <c r="BE27" s="74"/>
-      <c r="BF27" s="74"/>
-      <c r="BG27" s="74"/>
-      <c r="BH27" s="74"/>
-      <c r="BI27" s="74"/>
-      <c r="BJ27" s="74"/>
-      <c r="BK27" s="74"/>
-      <c r="BL27" s="74"/>
-      <c r="BM27" s="74"/>
-      <c r="BN27" s="74"/>
-    </row>
-    <row r="28" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
-        <v>3.6</v>
-      </c>
-      <c r="B28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G28" s="29">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30">
-        <v>0</v>
-      </c>
-      <c r="I28" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J28" s="62"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="74"/>
-      <c r="AJ28" s="74"/>
-      <c r="AK28" s="74"/>
-      <c r="AL28" s="74"/>
-      <c r="AM28" s="74"/>
-      <c r="AN28" s="74"/>
-      <c r="AO28" s="74"/>
-      <c r="AP28" s="74"/>
-      <c r="AQ28" s="74"/>
-      <c r="AR28" s="74"/>
-      <c r="AS28" s="74"/>
-      <c r="AT28" s="74"/>
-      <c r="AU28" s="74"/>
-      <c r="AV28" s="74"/>
-      <c r="AW28" s="74"/>
-      <c r="AX28" s="74"/>
-      <c r="AY28" s="74"/>
-      <c r="AZ28" s="74"/>
-      <c r="BA28" s="74"/>
-      <c r="BB28" s="74"/>
-      <c r="BC28" s="74"/>
-      <c r="BD28" s="74"/>
-      <c r="BE28" s="74"/>
-      <c r="BF28" s="74"/>
-      <c r="BG28" s="74"/>
-      <c r="BH28" s="74"/>
-      <c r="BI28" s="74"/>
-      <c r="BJ28" s="74"/>
-      <c r="BK28" s="74"/>
-      <c r="BL28" s="74"/>
-      <c r="BM28" s="74"/>
-      <c r="BN28" s="74"/>
-    </row>
-    <row r="29" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="74"/>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="74"/>
-      <c r="AJ29" s="74"/>
-      <c r="AK29" s="74"/>
-      <c r="AL29" s="74"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="74"/>
-      <c r="AO29" s="74"/>
-      <c r="AP29" s="74"/>
-      <c r="AQ29" s="74"/>
-      <c r="AR29" s="74"/>
-      <c r="AS29" s="74"/>
-      <c r="AT29" s="74"/>
-      <c r="AU29" s="74"/>
-      <c r="AV29" s="74"/>
-      <c r="AW29" s="74"/>
-      <c r="AX29" s="74"/>
-      <c r="AY29" s="74"/>
-      <c r="AZ29" s="74"/>
-      <c r="BA29" s="74"/>
-      <c r="BB29" s="74"/>
-      <c r="BC29" s="74"/>
-      <c r="BD29" s="74"/>
-      <c r="BE29" s="74"/>
-      <c r="BF29" s="74"/>
-      <c r="BG29" s="74"/>
-      <c r="BH29" s="74"/>
-      <c r="BI29" s="74"/>
-      <c r="BJ29" s="74"/>
-      <c r="BK29" s="74"/>
-      <c r="BL29" s="74"/>
-      <c r="BM29" s="74"/>
-      <c r="BN29" s="74"/>
-    </row>
-    <row r="30" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B30" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G30" s="29">
-        <v>0</v>
-      </c>
-      <c r="H30" s="30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="74"/>
-      <c r="AF30" s="74"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="74"/>
-      <c r="AI30" s="74"/>
-      <c r="AJ30" s="74"/>
-      <c r="AK30" s="74"/>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="74"/>
-      <c r="AN30" s="74"/>
-      <c r="AO30" s="74"/>
-      <c r="AP30" s="74"/>
-      <c r="AQ30" s="74"/>
-      <c r="AR30" s="74"/>
-      <c r="AS30" s="74"/>
-      <c r="AT30" s="74"/>
-      <c r="AU30" s="74"/>
-      <c r="AV30" s="74"/>
-      <c r="AW30" s="74"/>
-      <c r="AX30" s="74"/>
-      <c r="AY30" s="74"/>
-      <c r="AZ30" s="74"/>
-      <c r="BA30" s="74"/>
-      <c r="BB30" s="74"/>
-      <c r="BC30" s="74"/>
-      <c r="BD30" s="74"/>
-      <c r="BE30" s="74"/>
-      <c r="BF30" s="74"/>
-      <c r="BG30" s="74"/>
-      <c r="BH30" s="74"/>
-      <c r="BI30" s="74"/>
-      <c r="BJ30" s="74"/>
-      <c r="BK30" s="74"/>
-      <c r="BL30" s="74"/>
-      <c r="BM30" s="74"/>
-      <c r="BN30" s="74"/>
-    </row>
-    <row r="31" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G31" s="29">
-        <v>0</v>
-      </c>
-      <c r="H31" s="30">
-        <v>0</v>
-      </c>
-      <c r="I31" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J31" s="62"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="74"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="74"/>
-      <c r="AG31" s="74"/>
-      <c r="AH31" s="74"/>
-      <c r="AI31" s="74"/>
-      <c r="AJ31" s="74"/>
-      <c r="AK31" s="74"/>
-      <c r="AL31" s="74"/>
-      <c r="AM31" s="74"/>
-      <c r="AN31" s="74"/>
-      <c r="AO31" s="74"/>
-      <c r="AP31" s="74"/>
-      <c r="AQ31" s="74"/>
-      <c r="AR31" s="74"/>
-      <c r="AS31" s="74"/>
-      <c r="AT31" s="74"/>
-      <c r="AU31" s="74"/>
-      <c r="AV31" s="74"/>
-      <c r="AW31" s="74"/>
-      <c r="AX31" s="74"/>
-      <c r="AY31" s="74"/>
-      <c r="AZ31" s="74"/>
-      <c r="BA31" s="74"/>
-      <c r="BB31" s="74"/>
-      <c r="BC31" s="74"/>
-      <c r="BD31" s="74"/>
-      <c r="BE31" s="74"/>
-      <c r="BF31" s="74"/>
-      <c r="BG31" s="74"/>
-      <c r="BH31" s="74"/>
-      <c r="BI31" s="74"/>
-      <c r="BJ31" s="74"/>
-      <c r="BK31" s="74"/>
-      <c r="BL31" s="74"/>
-      <c r="BM31" s="74"/>
-      <c r="BN31" s="74"/>
-    </row>
-    <row r="32" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G32" s="29">
-        <v>0</v>
-      </c>
-      <c r="H32" s="30">
-        <v>0</v>
-      </c>
-      <c r="I32" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="74"/>
-      <c r="AB32" s="74"/>
-      <c r="AC32" s="74"/>
-      <c r="AD32" s="74"/>
-      <c r="AE32" s="74"/>
-      <c r="AF32" s="74"/>
-      <c r="AG32" s="74"/>
-      <c r="AH32" s="74"/>
-      <c r="AI32" s="74"/>
-      <c r="AJ32" s="74"/>
-      <c r="AK32" s="74"/>
-      <c r="AL32" s="74"/>
-      <c r="AM32" s="74"/>
-      <c r="AN32" s="74"/>
-      <c r="AO32" s="74"/>
-      <c r="AP32" s="74"/>
-      <c r="AQ32" s="74"/>
-      <c r="AR32" s="74"/>
-      <c r="AS32" s="74"/>
-      <c r="AT32" s="74"/>
-      <c r="AU32" s="74"/>
-      <c r="AV32" s="74"/>
-      <c r="AW32" s="74"/>
-      <c r="AX32" s="74"/>
-      <c r="AY32" s="74"/>
-      <c r="AZ32" s="74"/>
-      <c r="BA32" s="74"/>
-      <c r="BB32" s="74"/>
-      <c r="BC32" s="74"/>
-      <c r="BD32" s="74"/>
-      <c r="BE32" s="74"/>
-      <c r="BF32" s="74"/>
-      <c r="BG32" s="74"/>
-      <c r="BH32" s="74"/>
-      <c r="BI32" s="74"/>
-      <c r="BJ32" s="74"/>
-      <c r="BK32" s="74"/>
-      <c r="BL32" s="74"/>
-      <c r="BM32" s="74"/>
-      <c r="BN32" s="74"/>
-    </row>
-    <row r="33" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G33" s="29">
-        <v>0</v>
-      </c>
-      <c r="H33" s="30">
-        <v>0</v>
-      </c>
-      <c r="I33" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="74"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="74"/>
-      <c r="AD33" s="74"/>
-      <c r="AE33" s="74"/>
-      <c r="AF33" s="74"/>
-      <c r="AG33" s="74"/>
-      <c r="AH33" s="74"/>
-      <c r="AI33" s="74"/>
-      <c r="AJ33" s="74"/>
-      <c r="AK33" s="74"/>
-      <c r="AL33" s="74"/>
-      <c r="AM33" s="74"/>
-      <c r="AN33" s="74"/>
-      <c r="AO33" s="74"/>
-      <c r="AP33" s="74"/>
-      <c r="AQ33" s="74"/>
-      <c r="AR33" s="74"/>
-      <c r="AS33" s="74"/>
-      <c r="AT33" s="74"/>
-      <c r="AU33" s="74"/>
-      <c r="AV33" s="74"/>
-      <c r="AW33" s="74"/>
-      <c r="AX33" s="74"/>
-      <c r="AY33" s="74"/>
-      <c r="AZ33" s="74"/>
-      <c r="BA33" s="74"/>
-      <c r="BB33" s="74"/>
-      <c r="BC33" s="74"/>
-      <c r="BD33" s="74"/>
-      <c r="BE33" s="74"/>
-      <c r="BF33" s="74"/>
-      <c r="BG33" s="74"/>
-      <c r="BH33" s="74"/>
-      <c r="BI33" s="74"/>
-      <c r="BJ33" s="74"/>
-      <c r="BK33" s="74"/>
-      <c r="BL33" s="74"/>
-      <c r="BM33" s="74"/>
-      <c r="BN33" s="74"/>
-    </row>
-    <row r="34" spans="1:66" s="42" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G34" s="29">
-        <v>0</v>
-      </c>
-      <c r="H34" s="30">
-        <v>0</v>
-      </c>
-      <c r="I34" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J34" s="65"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="74"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="74"/>
-      <c r="AA34" s="74"/>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="74"/>
-      <c r="AD34" s="74"/>
-      <c r="AE34" s="74"/>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="74"/>
-      <c r="AJ34" s="74"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="74"/>
-      <c r="AM34" s="74"/>
-      <c r="AN34" s="74"/>
-      <c r="AO34" s="74"/>
-      <c r="AP34" s="74"/>
-      <c r="AQ34" s="74"/>
-      <c r="AR34" s="74"/>
-      <c r="AS34" s="74"/>
-      <c r="AT34" s="74"/>
-      <c r="AU34" s="74"/>
-      <c r="AV34" s="74"/>
-      <c r="AW34" s="74"/>
-      <c r="AX34" s="74"/>
-      <c r="AY34" s="74"/>
-      <c r="AZ34" s="74"/>
-      <c r="BA34" s="74"/>
-      <c r="BB34" s="74"/>
-      <c r="BC34" s="74"/>
-      <c r="BD34" s="74"/>
-      <c r="BE34" s="74"/>
-      <c r="BF34" s="74"/>
-      <c r="BG34" s="74"/>
-      <c r="BH34" s="74"/>
-      <c r="BI34" s="74"/>
-      <c r="BJ34" s="74"/>
-      <c r="BK34" s="74"/>
-      <c r="BL34" s="74"/>
-      <c r="BM34" s="74"/>
-      <c r="BN34" s="74"/>
-    </row>
-    <row r="35" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J35" s="65"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="74"/>
-      <c r="AK35" s="74"/>
-      <c r="AL35" s="74"/>
-      <c r="AM35" s="74"/>
-      <c r="AN35" s="74"/>
-      <c r="AO35" s="74"/>
-      <c r="AP35" s="74"/>
-      <c r="AQ35" s="74"/>
-      <c r="AR35" s="74"/>
-      <c r="AS35" s="74"/>
-      <c r="AT35" s="74"/>
-      <c r="AU35" s="74"/>
-      <c r="AV35" s="74"/>
-      <c r="AW35" s="74"/>
-      <c r="AX35" s="74"/>
-      <c r="AY35" s="74"/>
-      <c r="AZ35" s="74"/>
-      <c r="BA35" s="74"/>
-      <c r="BB35" s="74"/>
-      <c r="BC35" s="74"/>
-      <c r="BD35" s="74"/>
-      <c r="BE35" s="74"/>
-      <c r="BF35" s="74"/>
-      <c r="BG35" s="74"/>
-      <c r="BH35" s="74"/>
-      <c r="BI35" s="74"/>
-      <c r="BJ35" s="74"/>
-      <c r="BK35" s="74"/>
-      <c r="BL35" s="74"/>
-      <c r="BM35" s="74"/>
-      <c r="BN35" s="74"/>
-    </row>
-    <row r="36" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J36" s="66"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="74"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
-      <c r="AL36" s="74"/>
-      <c r="AM36" s="74"/>
-      <c r="AN36" s="74"/>
-      <c r="AO36" s="74"/>
-      <c r="AP36" s="74"/>
-      <c r="AQ36" s="74"/>
-      <c r="AR36" s="74"/>
-      <c r="AS36" s="74"/>
-      <c r="AT36" s="74"/>
-      <c r="AU36" s="74"/>
-      <c r="AV36" s="74"/>
-      <c r="AW36" s="74"/>
-      <c r="AX36" s="74"/>
-      <c r="AY36" s="74"/>
-      <c r="AZ36" s="74"/>
-      <c r="BA36" s="74"/>
-      <c r="BB36" s="74"/>
-      <c r="BC36" s="74"/>
-      <c r="BD36" s="74"/>
-      <c r="BE36" s="74"/>
-      <c r="BF36" s="74"/>
-      <c r="BG36" s="74"/>
-      <c r="BH36" s="74"/>
-      <c r="BI36" s="74"/>
-      <c r="BJ36" s="74"/>
-      <c r="BK36" s="74"/>
-      <c r="BL36" s="74"/>
-      <c r="BM36" s="74"/>
-      <c r="BN36" s="74"/>
-    </row>
-    <row r="37" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="74"/>
-      <c r="AC37" s="74"/>
-      <c r="AD37" s="74"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
-      <c r="AI37" s="74"/>
-      <c r="AJ37" s="74"/>
-      <c r="AK37" s="74"/>
-      <c r="AL37" s="74"/>
-      <c r="AM37" s="74"/>
-      <c r="AN37" s="74"/>
-      <c r="AO37" s="74"/>
-      <c r="AP37" s="74"/>
-      <c r="AQ37" s="74"/>
-      <c r="AR37" s="74"/>
-      <c r="AS37" s="74"/>
-      <c r="AT37" s="74"/>
-      <c r="AU37" s="74"/>
-      <c r="AV37" s="74"/>
-      <c r="AW37" s="74"/>
-      <c r="AX37" s="74"/>
-      <c r="AY37" s="74"/>
-      <c r="AZ37" s="74"/>
-      <c r="BA37" s="74"/>
-      <c r="BB37" s="74"/>
-      <c r="BC37" s="74"/>
-      <c r="BD37" s="74"/>
-      <c r="BE37" s="74"/>
-      <c r="BF37" s="74"/>
-      <c r="BG37" s="74"/>
-      <c r="BH37" s="74"/>
-      <c r="BI37" s="74"/>
-      <c r="BJ37" s="74"/>
-      <c r="BK37" s="74"/>
-      <c r="BL37" s="74"/>
-      <c r="BM37" s="74"/>
-      <c r="BN37" s="74"/>
-    </row>
-    <row r="38" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="74"/>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="74"/>
-      <c r="AA38" s="74"/>
-      <c r="AB38" s="74"/>
-      <c r="AC38" s="74"/>
-      <c r="AD38" s="74"/>
-      <c r="AE38" s="74"/>
-      <c r="AF38" s="74"/>
-      <c r="AG38" s="74"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="74"/>
-      <c r="AJ38" s="74"/>
-      <c r="AK38" s="74"/>
-      <c r="AL38" s="74"/>
-      <c r="AM38" s="74"/>
-      <c r="AN38" s="74"/>
-      <c r="AO38" s="74"/>
-      <c r="AP38" s="74"/>
-      <c r="AQ38" s="74"/>
-      <c r="AR38" s="74"/>
-      <c r="AS38" s="74"/>
-      <c r="AT38" s="74"/>
-      <c r="AU38" s="74"/>
-      <c r="AV38" s="74"/>
-      <c r="AW38" s="74"/>
-      <c r="AX38" s="74"/>
-      <c r="AY38" s="74"/>
-      <c r="AZ38" s="74"/>
-      <c r="BA38" s="74"/>
-      <c r="BB38" s="74"/>
-      <c r="BC38" s="74"/>
-      <c r="BD38" s="74"/>
-      <c r="BE38" s="74"/>
-      <c r="BF38" s="74"/>
-      <c r="BG38" s="74"/>
-      <c r="BH38" s="74"/>
-      <c r="BI38" s="74"/>
-      <c r="BJ38" s="74"/>
-      <c r="BK38" s="74"/>
-      <c r="BL38" s="74"/>
-      <c r="BM38" s="74"/>
-      <c r="BN38" s="74"/>
-    </row>
-    <row r="39" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="96" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B39" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68" t="str">
-        <f t="shared" ref="F39:F42" si="16">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="47" t="str">
-        <f>IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J39" s="66"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="74"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="74"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="74"/>
-      <c r="AA39" s="74"/>
-      <c r="AB39" s="74"/>
-      <c r="AC39" s="74"/>
-      <c r="AD39" s="74"/>
-      <c r="AE39" s="74"/>
-      <c r="AF39" s="74"/>
-      <c r="AG39" s="74"/>
-      <c r="AH39" s="74"/>
-      <c r="AI39" s="74"/>
-      <c r="AJ39" s="74"/>
-      <c r="AK39" s="74"/>
-      <c r="AL39" s="74"/>
-      <c r="AM39" s="74"/>
-      <c r="AN39" s="74"/>
-      <c r="AO39" s="74"/>
-      <c r="AP39" s="74"/>
-      <c r="AQ39" s="74"/>
-      <c r="AR39" s="74"/>
-      <c r="AS39" s="74"/>
-      <c r="AT39" s="74"/>
-      <c r="AU39" s="74"/>
-      <c r="AV39" s="74"/>
-      <c r="AW39" s="74"/>
-      <c r="AX39" s="74"/>
-      <c r="AY39" s="74"/>
-      <c r="AZ39" s="74"/>
-      <c r="BA39" s="74"/>
-      <c r="BB39" s="74"/>
-      <c r="BC39" s="74"/>
-      <c r="BD39" s="74"/>
-      <c r="BE39" s="74"/>
-      <c r="BF39" s="74"/>
-      <c r="BG39" s="74"/>
-      <c r="BH39" s="74"/>
-      <c r="BI39" s="74"/>
-      <c r="BJ39" s="74"/>
-      <c r="BK39" s="74"/>
-      <c r="BL39" s="74"/>
-      <c r="BM39" s="74"/>
-      <c r="BN39" s="74"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="73"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="73"/>
+      <c r="AF39" s="101"/>
+      <c r="AG39" s="73"/>
+      <c r="AH39" s="73"/>
+      <c r="AI39" s="73"/>
+      <c r="AJ39" s="73"/>
+      <c r="AK39" s="73"/>
+      <c r="AL39" s="73"/>
+      <c r="AM39" s="73"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="101"/>
+      <c r="AP39" s="73"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="73"/>
+      <c r="AT39" s="73"/>
+      <c r="AU39" s="73"/>
+      <c r="AV39" s="73"/>
+      <c r="AW39" s="73"/>
+      <c r="AX39" s="73"/>
+      <c r="AY39" s="73"/>
+      <c r="AZ39" s="73"/>
+      <c r="BA39" s="73"/>
+      <c r="BB39" s="73"/>
+      <c r="BC39" s="73"/>
+      <c r="BD39" s="73"/>
+      <c r="BE39" s="73"/>
+      <c r="BF39" s="73"/>
+      <c r="BG39" s="73"/>
+      <c r="BH39" s="73"/>
+      <c r="BI39" s="73"/>
+      <c r="BJ39" s="73"/>
+      <c r="BK39" s="73"/>
+      <c r="BL39" s="73"/>
+      <c r="BM39" s="73"/>
+      <c r="BN39" s="73"/>
+      <c r="BO39" s="28"/>
+      <c r="BP39" s="28"/>
+      <c r="BQ39" s="28"/>
+      <c r="BR39" s="28"/>
+      <c r="BS39" s="28"/>
+      <c r="BT39" s="28"/>
+      <c r="BU39" s="28"/>
+      <c r="BV39" s="28"/>
+      <c r="BW39" s="28"/>
+      <c r="BX39" s="28"/>
+      <c r="BY39" s="28"/>
+      <c r="BZ39" s="28"/>
+      <c r="CA39" s="28"/>
+      <c r="CB39" s="28"/>
+      <c r="CC39" s="28"/>
+      <c r="CD39" s="28"/>
+      <c r="CE39" s="28"/>
+      <c r="CF39" s="28"/>
+      <c r="CG39" s="28"/>
+      <c r="CH39" s="28"/>
+      <c r="CI39" s="28"/>
+      <c r="CJ39" s="28"/>
+      <c r="CK39" s="28"/>
+      <c r="CL39" s="28"/>
+      <c r="CM39" s="28"/>
+      <c r="CN39" s="28"/>
     </row>
-    <row r="40" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="str">
+    <row r="40" spans="1:92" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>3.3</v>
+      </c>
+      <c r="B40" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="114"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
+      <c r="AB40" s="73"/>
+      <c r="AC40" s="73"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="73"/>
+      <c r="AF40" s="101"/>
+      <c r="AG40" s="73"/>
+      <c r="AH40" s="73"/>
+      <c r="AI40" s="73"/>
+      <c r="AJ40" s="73"/>
+      <c r="AK40" s="73"/>
+      <c r="AL40" s="73"/>
+      <c r="AM40" s="73"/>
+      <c r="AN40" s="73"/>
+      <c r="AO40" s="101"/>
+      <c r="AP40" s="73"/>
+      <c r="AQ40" s="73"/>
+      <c r="AR40" s="73"/>
+      <c r="AS40" s="73"/>
+      <c r="AT40" s="73"/>
+      <c r="AU40" s="73"/>
+      <c r="AV40" s="73"/>
+      <c r="AW40" s="73"/>
+      <c r="AX40" s="73"/>
+      <c r="AY40" s="73"/>
+      <c r="AZ40" s="73"/>
+      <c r="BA40" s="73"/>
+      <c r="BB40" s="73"/>
+      <c r="BC40" s="73"/>
+      <c r="BD40" s="73"/>
+      <c r="BE40" s="73"/>
+      <c r="BF40" s="73"/>
+      <c r="BG40" s="73"/>
+      <c r="BH40" s="73"/>
+      <c r="BI40" s="73"/>
+      <c r="BJ40" s="73"/>
+      <c r="BK40" s="73"/>
+      <c r="BL40" s="73"/>
+      <c r="BM40" s="73"/>
+      <c r="BN40" s="73"/>
+      <c r="BO40" s="28"/>
+      <c r="BP40" s="28"/>
+      <c r="BQ40" s="28"/>
+      <c r="BR40" s="28"/>
+      <c r="BS40" s="28"/>
+      <c r="BT40" s="28"/>
+      <c r="BU40" s="28"/>
+      <c r="BV40" s="28"/>
+      <c r="BW40" s="28"/>
+      <c r="BX40" s="28"/>
+      <c r="BY40" s="28"/>
+      <c r="BZ40" s="28"/>
+      <c r="CA40" s="28"/>
+      <c r="CB40" s="28"/>
+      <c r="CC40" s="28"/>
+      <c r="CD40" s="28"/>
+      <c r="CE40" s="28"/>
+      <c r="CF40" s="28"/>
+      <c r="CG40" s="28"/>
+      <c r="CH40" s="28"/>
+      <c r="CI40" s="28"/>
+      <c r="CJ40" s="28"/>
+      <c r="CK40" s="28"/>
+      <c r="CL40" s="28"/>
+      <c r="CM40" s="28"/>
+      <c r="CN40" s="28"/>
+    </row>
+    <row r="41" spans="1:92" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="114"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="101"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="73"/>
+      <c r="AJ41" s="73"/>
+      <c r="AK41" s="73"/>
+      <c r="AL41" s="73"/>
+      <c r="AM41" s="73"/>
+      <c r="AN41" s="73"/>
+      <c r="AO41" s="101"/>
+      <c r="AP41" s="73"/>
+      <c r="AQ41" s="73"/>
+      <c r="AR41" s="73"/>
+      <c r="AS41" s="73"/>
+      <c r="AT41" s="73"/>
+      <c r="AU41" s="73"/>
+      <c r="AV41" s="73"/>
+      <c r="AW41" s="73"/>
+      <c r="AX41" s="73"/>
+      <c r="AY41" s="73"/>
+      <c r="AZ41" s="73"/>
+      <c r="BA41" s="73"/>
+      <c r="BB41" s="73"/>
+      <c r="BC41" s="73"/>
+      <c r="BD41" s="73"/>
+      <c r="BE41" s="73"/>
+      <c r="BF41" s="73"/>
+      <c r="BG41" s="73"/>
+      <c r="BH41" s="73"/>
+      <c r="BI41" s="73"/>
+      <c r="BJ41" s="73"/>
+      <c r="BK41" s="73"/>
+      <c r="BL41" s="73"/>
+      <c r="BM41" s="73"/>
+      <c r="BN41" s="73"/>
+      <c r="BO41" s="28"/>
+      <c r="BP41" s="28"/>
+      <c r="BQ41" s="28"/>
+      <c r="BR41" s="28"/>
+      <c r="BS41" s="28"/>
+      <c r="BT41" s="28"/>
+      <c r="BU41" s="28"/>
+      <c r="BV41" s="28"/>
+      <c r="BW41" s="28"/>
+      <c r="BX41" s="28"/>
+      <c r="BY41" s="28"/>
+      <c r="BZ41" s="28"/>
+      <c r="CA41" s="28"/>
+      <c r="CB41" s="28"/>
+      <c r="CC41" s="28"/>
+      <c r="CD41" s="28"/>
+      <c r="CE41" s="28"/>
+      <c r="CF41" s="28"/>
+      <c r="CG41" s="28"/>
+      <c r="CH41" s="28"/>
+      <c r="CI41" s="28"/>
+      <c r="CJ41" s="28"/>
+      <c r="CK41" s="28"/>
+      <c r="CL41" s="28"/>
+      <c r="CM41" s="28"/>
+      <c r="CN41" s="28"/>
+    </row>
+    <row r="42" spans="1:92" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="114"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="73"/>
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="73"/>
+      <c r="AE42" s="73"/>
+      <c r="AF42" s="101"/>
+      <c r="AG42" s="73"/>
+      <c r="AH42" s="73"/>
+      <c r="AI42" s="73"/>
+      <c r="AJ42" s="73"/>
+      <c r="AK42" s="73"/>
+      <c r="AL42" s="73"/>
+      <c r="AM42" s="73"/>
+      <c r="AN42" s="73"/>
+      <c r="AO42" s="101"/>
+      <c r="AP42" s="73"/>
+      <c r="AQ42" s="73"/>
+      <c r="AR42" s="73"/>
+      <c r="AS42" s="73"/>
+      <c r="AT42" s="73"/>
+      <c r="AU42" s="73"/>
+      <c r="AV42" s="73"/>
+      <c r="AW42" s="73"/>
+      <c r="AX42" s="73"/>
+      <c r="AY42" s="73"/>
+      <c r="AZ42" s="73"/>
+      <c r="BA42" s="73"/>
+      <c r="BB42" s="73"/>
+      <c r="BC42" s="73"/>
+      <c r="BD42" s="73"/>
+      <c r="BE42" s="73"/>
+      <c r="BF42" s="73"/>
+      <c r="BG42" s="73"/>
+      <c r="BH42" s="73"/>
+      <c r="BI42" s="73"/>
+      <c r="BJ42" s="73"/>
+      <c r="BK42" s="73"/>
+      <c r="BL42" s="73"/>
+      <c r="BM42" s="73"/>
+      <c r="BN42" s="73"/>
+      <c r="BO42" s="28"/>
+      <c r="BP42" s="28"/>
+      <c r="BQ42" s="28"/>
+      <c r="BR42" s="28"/>
+      <c r="BS42" s="28"/>
+      <c r="BT42" s="28"/>
+      <c r="BU42" s="28"/>
+      <c r="BV42" s="28"/>
+      <c r="BW42" s="28"/>
+      <c r="BX42" s="28"/>
+      <c r="BY42" s="28"/>
+      <c r="BZ42" s="28"/>
+      <c r="CA42" s="28"/>
+      <c r="CB42" s="28"/>
+      <c r="CC42" s="28"/>
+      <c r="CD42" s="28"/>
+      <c r="CE42" s="28"/>
+      <c r="CF42" s="28"/>
+      <c r="CG42" s="28"/>
+      <c r="CH42" s="28"/>
+      <c r="CI42" s="28"/>
+      <c r="CJ42" s="28"/>
+      <c r="CK42" s="28"/>
+      <c r="CL42" s="28"/>
+      <c r="CM42" s="28"/>
+      <c r="CN42" s="28"/>
+    </row>
+    <row r="43" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="27">
+        <v>3.4</v>
+      </c>
+      <c r="B43" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="93"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G43" s="29">
+        <v>0</v>
+      </c>
+      <c r="H43" s="30">
+        <v>0</v>
+      </c>
+      <c r="I43" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J43" s="62"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="73"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="73"/>
+      <c r="AI43" s="73"/>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="73"/>
+      <c r="AL43" s="73"/>
+      <c r="AM43" s="73"/>
+      <c r="AN43" s="73"/>
+      <c r="AO43" s="73"/>
+      <c r="AP43" s="73"/>
+      <c r="AQ43" s="73"/>
+      <c r="AR43" s="73"/>
+      <c r="AS43" s="73"/>
+      <c r="AT43" s="73"/>
+      <c r="AU43" s="73"/>
+      <c r="AV43" s="73"/>
+      <c r="AW43" s="73"/>
+      <c r="AX43" s="73"/>
+      <c r="AY43" s="73"/>
+      <c r="AZ43" s="73"/>
+      <c r="BA43" s="73"/>
+      <c r="BB43" s="73"/>
+      <c r="BC43" s="73"/>
+      <c r="BD43" s="73"/>
+      <c r="BE43" s="73"/>
+      <c r="BF43" s="73"/>
+      <c r="BG43" s="73"/>
+      <c r="BH43" s="73"/>
+      <c r="BI43" s="73"/>
+      <c r="BJ43" s="73"/>
+      <c r="BK43" s="73"/>
+      <c r="BL43" s="73"/>
+      <c r="BM43" s="73"/>
+      <c r="BN43" s="73"/>
+    </row>
+    <row r="44" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="93"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G44" s="29">
+        <v>0</v>
+      </c>
+      <c r="H44" s="30">
+        <v>0</v>
+      </c>
+      <c r="I44" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J44" s="62"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="73"/>
+      <c r="AG44" s="73"/>
+      <c r="AH44" s="73"/>
+      <c r="AI44" s="73"/>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="73"/>
+      <c r="AL44" s="73"/>
+      <c r="AM44" s="73"/>
+      <c r="AN44" s="73"/>
+      <c r="AO44" s="73"/>
+      <c r="AP44" s="73"/>
+      <c r="AQ44" s="73"/>
+      <c r="AR44" s="73"/>
+      <c r="AS44" s="73"/>
+      <c r="AT44" s="73"/>
+      <c r="AU44" s="73"/>
+      <c r="AV44" s="73"/>
+      <c r="AW44" s="73"/>
+      <c r="AX44" s="73"/>
+      <c r="AY44" s="73"/>
+      <c r="AZ44" s="73"/>
+      <c r="BA44" s="73"/>
+      <c r="BB44" s="73"/>
+      <c r="BC44" s="73"/>
+      <c r="BD44" s="73"/>
+      <c r="BE44" s="73"/>
+      <c r="BF44" s="73"/>
+      <c r="BG44" s="73"/>
+      <c r="BH44" s="73"/>
+      <c r="BI44" s="73"/>
+      <c r="BJ44" s="73"/>
+      <c r="BK44" s="73"/>
+      <c r="BL44" s="73"/>
+      <c r="BM44" s="73"/>
+      <c r="BN44" s="73"/>
+    </row>
+    <row r="45" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J45" s="63"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="101"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
+      <c r="AA45" s="75"/>
+      <c r="AB45" s="75"/>
+      <c r="AC45" s="75"/>
+      <c r="AD45" s="75"/>
+      <c r="AE45" s="75"/>
+      <c r="AF45" s="101"/>
+      <c r="AG45" s="75"/>
+      <c r="AH45" s="75"/>
+      <c r="AI45" s="75"/>
+      <c r="AJ45" s="75"/>
+      <c r="AK45" s="75"/>
+      <c r="AL45" s="75"/>
+      <c r="AM45" s="75"/>
+      <c r="AN45" s="75"/>
+      <c r="AO45" s="101"/>
+      <c r="AP45" s="75"/>
+      <c r="AQ45" s="75"/>
+      <c r="AR45" s="75"/>
+      <c r="AS45" s="75"/>
+      <c r="AT45" s="73"/>
+      <c r="AU45" s="73"/>
+      <c r="AV45" s="73"/>
+      <c r="AW45" s="73"/>
+      <c r="AX45" s="73"/>
+      <c r="AY45" s="73"/>
+      <c r="AZ45" s="73"/>
+      <c r="BA45" s="73"/>
+      <c r="BB45" s="73"/>
+      <c r="BC45" s="73"/>
+      <c r="BD45" s="73"/>
+      <c r="BE45" s="73"/>
+      <c r="BF45" s="73"/>
+      <c r="BG45" s="73"/>
+      <c r="BH45" s="73"/>
+      <c r="BI45" s="73"/>
+      <c r="BJ45" s="73"/>
+      <c r="BK45" s="73"/>
+      <c r="BL45" s="73"/>
+      <c r="BM45" s="73"/>
+      <c r="BN45" s="73"/>
+    </row>
+    <row r="46" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B46" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="93"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G46" s="29">
+        <v>0</v>
+      </c>
+      <c r="H46" s="30">
+        <v>0</v>
+      </c>
+      <c r="I46" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J46" s="62"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="73"/>
+      <c r="AC46" s="73"/>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="73"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="73"/>
+      <c r="AH46" s="73"/>
+      <c r="AI46" s="73"/>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="73"/>
+      <c r="AL46" s="73"/>
+      <c r="AM46" s="73"/>
+      <c r="AN46" s="73"/>
+      <c r="AO46" s="73"/>
+      <c r="AP46" s="73"/>
+      <c r="AQ46" s="73"/>
+      <c r="AR46" s="73"/>
+      <c r="AS46" s="73"/>
+      <c r="AT46" s="73"/>
+      <c r="AU46" s="73"/>
+      <c r="AV46" s="73"/>
+      <c r="AW46" s="73"/>
+      <c r="AX46" s="73"/>
+      <c r="AY46" s="73"/>
+      <c r="AZ46" s="73"/>
+      <c r="BA46" s="73"/>
+      <c r="BB46" s="73"/>
+      <c r="BC46" s="73"/>
+      <c r="BD46" s="73"/>
+      <c r="BE46" s="73"/>
+      <c r="BF46" s="73"/>
+      <c r="BG46" s="73"/>
+      <c r="BH46" s="73"/>
+      <c r="BI46" s="73"/>
+      <c r="BJ46" s="73"/>
+      <c r="BK46" s="73"/>
+      <c r="BL46" s="73"/>
+      <c r="BM46" s="73"/>
+      <c r="BN46" s="73"/>
+    </row>
+    <row r="47" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="92"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G47" s="29">
+        <v>0</v>
+      </c>
+      <c r="H47" s="30">
+        <v>0</v>
+      </c>
+      <c r="I47" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J47" s="62"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
+      <c r="AB47" s="73"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="73"/>
+      <c r="AM47" s="73"/>
+      <c r="AN47" s="73"/>
+      <c r="AO47" s="73"/>
+      <c r="AP47" s="73"/>
+      <c r="AQ47" s="73"/>
+      <c r="AR47" s="73"/>
+      <c r="AS47" s="73"/>
+      <c r="AT47" s="73"/>
+      <c r="AU47" s="73"/>
+      <c r="AV47" s="73"/>
+      <c r="AW47" s="73"/>
+      <c r="AX47" s="73"/>
+      <c r="AY47" s="73"/>
+      <c r="AZ47" s="73"/>
+      <c r="BA47" s="73"/>
+      <c r="BB47" s="73"/>
+      <c r="BC47" s="73"/>
+      <c r="BD47" s="73"/>
+      <c r="BE47" s="73"/>
+      <c r="BF47" s="73"/>
+      <c r="BG47" s="73"/>
+      <c r="BH47" s="73"/>
+      <c r="BI47" s="73"/>
+      <c r="BJ47" s="73"/>
+      <c r="BK47" s="73"/>
+      <c r="BL47" s="73"/>
+      <c r="BM47" s="73"/>
+      <c r="BN47" s="73"/>
+    </row>
+    <row r="48" spans="1:92" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G48" s="29">
+        <v>0</v>
+      </c>
+      <c r="H48" s="30">
+        <v>0</v>
+      </c>
+      <c r="I48" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J48" s="64"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="73"/>
+      <c r="AA48" s="73"/>
+      <c r="AB48" s="73"/>
+      <c r="AC48" s="73"/>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="73"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="73"/>
+      <c r="AI48" s="73"/>
+      <c r="AJ48" s="73"/>
+      <c r="AK48" s="73"/>
+      <c r="AL48" s="73"/>
+      <c r="AM48" s="73"/>
+      <c r="AN48" s="73"/>
+      <c r="AO48" s="73"/>
+      <c r="AP48" s="73"/>
+      <c r="AQ48" s="73"/>
+      <c r="AR48" s="73"/>
+      <c r="AS48" s="73"/>
+      <c r="AT48" s="73"/>
+      <c r="AU48" s="73"/>
+      <c r="AV48" s="73"/>
+      <c r="AW48" s="73"/>
+      <c r="AX48" s="73"/>
+      <c r="AY48" s="73"/>
+      <c r="AZ48" s="73"/>
+      <c r="BA48" s="73"/>
+      <c r="BB48" s="73"/>
+      <c r="BC48" s="73"/>
+      <c r="BD48" s="73"/>
+      <c r="BE48" s="73"/>
+      <c r="BF48" s="73"/>
+      <c r="BG48" s="73"/>
+      <c r="BH48" s="73"/>
+      <c r="BI48" s="73"/>
+      <c r="BJ48" s="73"/>
+      <c r="BK48" s="73"/>
+      <c r="BL48" s="73"/>
+      <c r="BM48" s="73"/>
+      <c r="BN48" s="73"/>
+    </row>
+    <row r="49" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G49" s="29">
+        <v>0</v>
+      </c>
+      <c r="H49" s="30">
+        <v>0</v>
+      </c>
+      <c r="I49" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J49" s="64"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="73"/>
+      <c r="AB49" s="73"/>
+      <c r="AC49" s="73"/>
+      <c r="AD49" s="73"/>
+      <c r="AE49" s="73"/>
+      <c r="AF49" s="73"/>
+      <c r="AG49" s="73"/>
+      <c r="AH49" s="73"/>
+      <c r="AI49" s="73"/>
+      <c r="AJ49" s="73"/>
+      <c r="AK49" s="73"/>
+      <c r="AL49" s="73"/>
+      <c r="AM49" s="73"/>
+      <c r="AN49" s="73"/>
+      <c r="AO49" s="73"/>
+      <c r="AP49" s="73"/>
+      <c r="AQ49" s="73"/>
+      <c r="AR49" s="73"/>
+      <c r="AS49" s="73"/>
+      <c r="AT49" s="73"/>
+      <c r="AU49" s="73"/>
+      <c r="AV49" s="73"/>
+      <c r="AW49" s="73"/>
+      <c r="AX49" s="73"/>
+      <c r="AY49" s="73"/>
+      <c r="AZ49" s="73"/>
+      <c r="BA49" s="73"/>
+      <c r="BB49" s="73"/>
+      <c r="BC49" s="73"/>
+      <c r="BD49" s="73"/>
+      <c r="BE49" s="73"/>
+      <c r="BF49" s="73"/>
+      <c r="BG49" s="73"/>
+      <c r="BH49" s="73"/>
+      <c r="BI49" s="73"/>
+      <c r="BJ49" s="73"/>
+      <c r="BK49" s="73"/>
+      <c r="BL49" s="73"/>
+      <c r="BM49" s="73"/>
+      <c r="BN49" s="73"/>
+    </row>
+    <row r="50" spans="1:66" s="42" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G50" s="29">
+        <v>0</v>
+      </c>
+      <c r="H50" s="30">
+        <v>0</v>
+      </c>
+      <c r="I50" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J50" s="112"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="73"/>
+      <c r="AA50" s="73"/>
+      <c r="AB50" s="73"/>
+      <c r="AC50" s="73"/>
+      <c r="AD50" s="73"/>
+      <c r="AE50" s="73"/>
+      <c r="AF50" s="73"/>
+      <c r="AG50" s="73"/>
+      <c r="AH50" s="73"/>
+      <c r="AI50" s="73"/>
+      <c r="AJ50" s="73"/>
+      <c r="AK50" s="73"/>
+      <c r="AL50" s="73"/>
+      <c r="AM50" s="73"/>
+      <c r="AN50" s="73"/>
+      <c r="AO50" s="73"/>
+      <c r="AP50" s="73"/>
+      <c r="AQ50" s="73"/>
+      <c r="AR50" s="73"/>
+      <c r="AS50" s="73"/>
+      <c r="AT50" s="73"/>
+      <c r="AU50" s="73"/>
+      <c r="AV50" s="73"/>
+      <c r="AW50" s="73"/>
+      <c r="AX50" s="73"/>
+      <c r="AY50" s="73"/>
+      <c r="AZ50" s="73"/>
+      <c r="BA50" s="73"/>
+      <c r="BB50" s="73"/>
+      <c r="BC50" s="73"/>
+      <c r="BD50" s="73"/>
+      <c r="BE50" s="73"/>
+      <c r="BF50" s="73"/>
+      <c r="BG50" s="73"/>
+      <c r="BH50" s="73"/>
+      <c r="BI50" s="73"/>
+      <c r="BJ50" s="73"/>
+      <c r="BK50" s="73"/>
+      <c r="BL50" s="73"/>
+      <c r="BM50" s="73"/>
+      <c r="BN50" s="73"/>
+    </row>
+    <row r="51" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J51" s="112"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="73"/>
+      <c r="AA51" s="73"/>
+      <c r="AB51" s="73"/>
+      <c r="AC51" s="73"/>
+      <c r="AD51" s="73"/>
+      <c r="AE51" s="73"/>
+      <c r="AF51" s="73"/>
+      <c r="AG51" s="73"/>
+      <c r="AH51" s="73"/>
+      <c r="AI51" s="73"/>
+      <c r="AJ51" s="73"/>
+      <c r="AK51" s="73"/>
+      <c r="AL51" s="73"/>
+      <c r="AM51" s="73"/>
+      <c r="AN51" s="73"/>
+      <c r="AO51" s="73"/>
+      <c r="AP51" s="73"/>
+      <c r="AQ51" s="73"/>
+      <c r="AR51" s="73"/>
+      <c r="AS51" s="73"/>
+      <c r="AT51" s="73"/>
+      <c r="AU51" s="73"/>
+      <c r="AV51" s="73"/>
+      <c r="AW51" s="73"/>
+      <c r="AX51" s="73"/>
+      <c r="AY51" s="73"/>
+      <c r="AZ51" s="73"/>
+      <c r="BA51" s="73"/>
+      <c r="BB51" s="73"/>
+      <c r="BC51" s="73"/>
+      <c r="BD51" s="73"/>
+      <c r="BE51" s="73"/>
+      <c r="BF51" s="73"/>
+      <c r="BG51" s="73"/>
+      <c r="BH51" s="73"/>
+      <c r="BI51" s="73"/>
+      <c r="BJ51" s="73"/>
+      <c r="BK51" s="73"/>
+      <c r="BL51" s="73"/>
+      <c r="BM51" s="73"/>
+      <c r="BN51" s="73"/>
+    </row>
+    <row r="52" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="27"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J52" s="65"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="73"/>
+      <c r="AA52" s="73"/>
+      <c r="AB52" s="73"/>
+      <c r="AC52" s="73"/>
+      <c r="AD52" s="73"/>
+      <c r="AE52" s="73"/>
+      <c r="AF52" s="73"/>
+      <c r="AG52" s="73"/>
+      <c r="AH52" s="73"/>
+      <c r="AI52" s="73"/>
+      <c r="AJ52" s="73"/>
+      <c r="AK52" s="73"/>
+      <c r="AL52" s="73"/>
+      <c r="AM52" s="73"/>
+      <c r="AN52" s="73"/>
+      <c r="AO52" s="73"/>
+      <c r="AP52" s="73"/>
+      <c r="AQ52" s="73"/>
+      <c r="AR52" s="73"/>
+      <c r="AS52" s="73"/>
+      <c r="AT52" s="73"/>
+      <c r="AU52" s="73"/>
+      <c r="AV52" s="73"/>
+      <c r="AW52" s="73"/>
+      <c r="AX52" s="73"/>
+      <c r="AY52" s="73"/>
+      <c r="AZ52" s="73"/>
+      <c r="BA52" s="73"/>
+      <c r="BB52" s="73"/>
+      <c r="BC52" s="73"/>
+      <c r="BD52" s="73"/>
+      <c r="BE52" s="73"/>
+      <c r="BF52" s="73"/>
+      <c r="BG52" s="73"/>
+      <c r="BH52" s="73"/>
+      <c r="BI52" s="73"/>
+      <c r="BJ52" s="73"/>
+      <c r="BK52" s="73"/>
+      <c r="BL52" s="73"/>
+      <c r="BM52" s="73"/>
+      <c r="BN52" s="73"/>
+    </row>
+    <row r="53" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="73"/>
+      <c r="AA53" s="73"/>
+      <c r="AB53" s="73"/>
+      <c r="AC53" s="73"/>
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="73"/>
+      <c r="AF53" s="73"/>
+      <c r="AG53" s="73"/>
+      <c r="AH53" s="73"/>
+      <c r="AI53" s="73"/>
+      <c r="AJ53" s="73"/>
+      <c r="AK53" s="73"/>
+      <c r="AL53" s="73"/>
+      <c r="AM53" s="73"/>
+      <c r="AN53" s="73"/>
+      <c r="AO53" s="73"/>
+      <c r="AP53" s="73"/>
+      <c r="AQ53" s="73"/>
+      <c r="AR53" s="73"/>
+      <c r="AS53" s="73"/>
+      <c r="AT53" s="73"/>
+      <c r="AU53" s="73"/>
+      <c r="AV53" s="73"/>
+      <c r="AW53" s="73"/>
+      <c r="AX53" s="73"/>
+      <c r="AY53" s="73"/>
+      <c r="AZ53" s="73"/>
+      <c r="BA53" s="73"/>
+      <c r="BB53" s="73"/>
+      <c r="BC53" s="73"/>
+      <c r="BD53" s="73"/>
+      <c r="BE53" s="73"/>
+      <c r="BF53" s="73"/>
+      <c r="BG53" s="73"/>
+      <c r="BH53" s="73"/>
+      <c r="BI53" s="73"/>
+      <c r="BJ53" s="73"/>
+      <c r="BK53" s="73"/>
+      <c r="BL53" s="73"/>
+      <c r="BM53" s="73"/>
+      <c r="BN53" s="73"/>
+    </row>
+    <row r="54" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="73"/>
+      <c r="AA54" s="73"/>
+      <c r="AB54" s="73"/>
+      <c r="AC54" s="73"/>
+      <c r="AD54" s="73"/>
+      <c r="AE54" s="73"/>
+      <c r="AF54" s="73"/>
+      <c r="AG54" s="73"/>
+      <c r="AH54" s="73"/>
+      <c r="AI54" s="73"/>
+      <c r="AJ54" s="73"/>
+      <c r="AK54" s="73"/>
+      <c r="AL54" s="73"/>
+      <c r="AM54" s="73"/>
+      <c r="AN54" s="73"/>
+      <c r="AO54" s="73"/>
+      <c r="AP54" s="73"/>
+      <c r="AQ54" s="73"/>
+      <c r="AR54" s="73"/>
+      <c r="AS54" s="73"/>
+      <c r="AT54" s="73"/>
+      <c r="AU54" s="73"/>
+      <c r="AV54" s="73"/>
+      <c r="AW54" s="73"/>
+      <c r="AX54" s="73"/>
+      <c r="AY54" s="73"/>
+      <c r="AZ54" s="73"/>
+      <c r="BA54" s="73"/>
+      <c r="BB54" s="73"/>
+      <c r="BC54" s="73"/>
+      <c r="BD54" s="73"/>
+      <c r="BE54" s="73"/>
+      <c r="BF54" s="73"/>
+      <c r="BG54" s="73"/>
+      <c r="BH54" s="73"/>
+      <c r="BI54" s="73"/>
+      <c r="BJ54" s="73"/>
+      <c r="BK54" s="73"/>
+      <c r="BL54" s="73"/>
+      <c r="BM54" s="73"/>
+      <c r="BN54" s="73"/>
+    </row>
+    <row r="55" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="95" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B55" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="45"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="67" t="str">
+        <f t="shared" ref="F55:F58" si="16">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="47" t="str">
+        <f>IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J55" s="65"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="73"/>
+      <c r="Z55" s="73"/>
+      <c r="AA55" s="73"/>
+      <c r="AB55" s="73"/>
+      <c r="AC55" s="73"/>
+      <c r="AD55" s="73"/>
+      <c r="AE55" s="73"/>
+      <c r="AF55" s="73"/>
+      <c r="AG55" s="73"/>
+      <c r="AH55" s="73"/>
+      <c r="AI55" s="73"/>
+      <c r="AJ55" s="73"/>
+      <c r="AK55" s="73"/>
+      <c r="AL55" s="73"/>
+      <c r="AM55" s="73"/>
+      <c r="AN55" s="73"/>
+      <c r="AO55" s="73"/>
+      <c r="AP55" s="73"/>
+      <c r="AQ55" s="73"/>
+      <c r="AR55" s="73"/>
+      <c r="AS55" s="73"/>
+      <c r="AT55" s="73"/>
+      <c r="AU55" s="73"/>
+      <c r="AV55" s="73"/>
+      <c r="AW55" s="73"/>
+      <c r="AX55" s="73"/>
+      <c r="AY55" s="73"/>
+      <c r="AZ55" s="73"/>
+      <c r="BA55" s="73"/>
+      <c r="BB55" s="73"/>
+      <c r="BC55" s="73"/>
+      <c r="BD55" s="73"/>
+      <c r="BE55" s="73"/>
+      <c r="BF55" s="73"/>
+      <c r="BG55" s="73"/>
+      <c r="BH55" s="73"/>
+      <c r="BI55" s="73"/>
+      <c r="BJ55" s="73"/>
+      <c r="BK55" s="73"/>
+      <c r="BL55" s="73"/>
+      <c r="BM55" s="73"/>
+      <c r="BN55" s="73"/>
+    </row>
+    <row r="56" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B56" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="68" t="str">
+      <c r="C56" s="48"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="67" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="47" t="str">
-        <f t="shared" ref="I40:I42" si="17">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
+      <c r="G56" s="29"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="47" t="str">
+        <f t="shared" ref="I56:I58" si="17">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
-      <c r="AY40" s="10"/>
-      <c r="AZ40" s="10"/>
-      <c r="BA40" s="10"/>
-      <c r="BB40" s="10"/>
-      <c r="BC40" s="10"/>
-      <c r="BD40" s="10"/>
-      <c r="BE40" s="10"/>
-      <c r="BF40" s="10"/>
-      <c r="BG40" s="10"/>
-      <c r="BH40" s="10"/>
-      <c r="BI40" s="10"/>
-      <c r="BJ40" s="10"/>
-      <c r="BK40" s="10"/>
-      <c r="BL40" s="10"/>
-      <c r="BM40" s="10"/>
-      <c r="BN40" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="10"/>
+      <c r="AQ56" s="10"/>
+      <c r="AR56" s="10"/>
+      <c r="AS56" s="10"/>
+      <c r="AT56" s="10"/>
+      <c r="AU56" s="10"/>
+      <c r="AV56" s="10"/>
+      <c r="AW56" s="10"/>
+      <c r="AX56" s="10"/>
+      <c r="AY56" s="10"/>
+      <c r="AZ56" s="10"/>
+      <c r="BA56" s="10"/>
+      <c r="BB56" s="10"/>
+      <c r="BC56" s="10"/>
+      <c r="BD56" s="10"/>
+      <c r="BE56" s="10"/>
+      <c r="BF56" s="10"/>
+      <c r="BG56" s="10"/>
+      <c r="BH56" s="10"/>
+      <c r="BI56" s="10"/>
+      <c r="BJ56" s="10"/>
+      <c r="BK56" s="10"/>
+      <c r="BL56" s="10"/>
+      <c r="BM56" s="10"/>
+      <c r="BN56" s="10"/>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="str">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A57" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B57" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68" t="str">
+      <c r="C57" s="48"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="67" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="47" t="str">
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="47" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="str">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B58" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68" t="str">
+      <c r="C58" s="48"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="67" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="47" t="str">
+      <c r="G58" s="29"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="47" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+    <row r="59" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -5778,19 +7197,10 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H20 H27:H42">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="H8:H20 H43:H58">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5804,25 +7214,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="10" priority="54">
+    <cfRule type="expression" dxfId="17" priority="57">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN20">
-    <cfRule type="expression" dxfId="9" priority="57">
+    <cfRule type="expression" dxfId="16" priority="60">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="58">
+    <cfRule type="expression" dxfId="15" priority="61">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN20 K23:BN39">
-    <cfRule type="expression" dxfId="7" priority="17">
+  <conditionalFormatting sqref="K6:BN20 K46:BN55 AU45:BN45 K36:BN44">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H22">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="H21:H35">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5835,21 +7245,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN22">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="K21:BN35">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN22">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="K21:BN35">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5862,8 +7272,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5876,8 +7286,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H39:H42">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5890,24 +7300,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="3" priority="65">
-      <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="10" priority="68">
+      <formula>AND($E37&lt;=K$6,ROUNDDOWN(($F37-$E37+1)*$H37,0)+$E37-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="66">
-      <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="9" priority="69">
+      <formula>AND(NOT(ISBLANK($E37)),$E37&lt;=K$6,$F37&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN39">
-    <cfRule type="expression" dxfId="1" priority="68">
-      <formula>AND($E27&lt;=K$6,ROUNDDOWN(($F27-$E27+1)*$H27,0)+$E27-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="AU45:BN45 K46:BN55 K43:BN44">
+    <cfRule type="expression" dxfId="8" priority="71">
+      <formula>AND($E46&lt;=K$6,ROUNDDOWN(($F46-$E46+1)*$H46,0)+$E46-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="69">
-      <formula>AND(NOT(ISBLANK($E27)),$E27&lt;=K$6,$F27&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="7" priority="72">
+      <formula>AND(NOT(ISBLANK($E46)),$E46&lt;=K$6,$F46&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H36">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5920,6 +7330,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K45:AT45">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:AT45">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND($E48&lt;=K$6,ROUNDDOWN(($F48-$E48+1)*$H48,0)+$E48-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND(NOT(ISBLANK($E48)),$E48&lt;=K$6,$F48&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="3" priority="81">
+      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="82">
+      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN41">
+    <cfRule type="expression" dxfId="1" priority="87">
+      <formula>AND($E43&lt;=K$6,ROUNDDOWN(($F43-$E43+1)*$H43,0)+$E43-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="88">
+      <formula>AND(NOT(ISBLANK($E43)),$E43&lt;=K$6,$F43&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
@@ -5930,7 +7369,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A35:B36 B30 B17 A38:B38 B37 E14 E20 E29 E35:H38 G14:H14 G20:H20 G29:H29 G39 G40:G41 G42 H27 H33 H31 H32 H30" unlockedFormula="1"/>
+    <ignoredError sqref="A51:B52 B46 B17 A54:B54 B53 E14 E20 E45 E51:H54 G14:H14 G20:H20 G45:H45 G55 G56:G57 G58 H43 H49 H47 H48 H46" unlockedFormula="1"/>
     <ignoredError sqref="A20 A14" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -5979,7 +7418,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H20 H27:H42</xm:sqref>
+          <xm:sqref>H8:H20 H43:H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2FF0FC17-99F8-4043-8C72-4D80C2CF5D75}">
@@ -5994,7 +7433,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21:H22</xm:sqref>
+          <xm:sqref>H21:H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1A1CAC4A-1FDB-4B85-A11C-C24386224E1C}">
@@ -6009,7 +7448,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H24</xm:sqref>
+          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0B2A41A-F48A-44FB-91F1-06A23FE15B72}">
@@ -6024,7 +7463,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
+          <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{649CE155-25C9-44CC-81B2-37997D7B3A65}">
@@ -6039,7 +7478,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
+          <xm:sqref>H39:H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C862E5DA-8BCC-403C-9F71-B31EE3B1FF64}">
@@ -6054,7 +7493,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H23</xm:sqref>
+          <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Plan_de_Trabajo/DiagramaGantt.xlsx
+++ b/Plan_de_Trabajo/DiagramaGantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\Repositorio\TechnoShop\Plan_de_Trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\Repositorio\Clone\TechnoShop\Plan_de_Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8F54A5-5960-45A0-8D52-A3F509F82931}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF50D0-6A12-44FD-A1B0-F70EE797B85A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$45</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>WBS</t>
   </si>
@@ -528,9 +528,6 @@
     <t>Pruebas</t>
   </si>
   <si>
-    <t>Creacion del repositorio en Github</t>
-  </si>
-  <si>
     <t>Acuerdo del funcionamiento del proyecto</t>
   </si>
   <si>
@@ -555,52 +552,7 @@
     <t>E2</t>
   </si>
   <si>
-    <t>Administracion de Usuarios</t>
-  </si>
-  <si>
     <t>Acciones del administrador</t>
-  </si>
-  <si>
-    <t>Bases de datos</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>3.1.2</t>
-  </si>
-  <si>
-    <t>3.1.3</t>
-  </si>
-  <si>
-    <t>3.1.4</t>
-  </si>
-  <si>
-    <t>3.1.5</t>
-  </si>
-  <si>
-    <t>3.1.6</t>
-  </si>
-  <si>
-    <t>3.1.7</t>
-  </si>
-  <si>
-    <t>3.1.8</t>
-  </si>
-  <si>
-    <t>3.1.9</t>
-  </si>
-  <si>
-    <t>3.1.10</t>
-  </si>
-  <si>
-    <t>3.1.11</t>
-  </si>
-  <si>
-    <t>3.1.12</t>
-  </si>
-  <si>
-    <t>3.1.13</t>
   </si>
   <si>
     <t>...Validacion de usuarios</t>
@@ -612,13 +564,7 @@
     <t>...Carrito de productos</t>
   </si>
   <si>
-    <t>...Pedidos realizados</t>
-  </si>
-  <si>
     <t>Diseño de interfaz grafica</t>
-  </si>
-  <si>
-    <t>...Pago por tarjeta</t>
   </si>
   <si>
     <t>...Agregar o eliminar producto</t>
@@ -627,25 +573,55 @@
     <t>...Validacion de administrador</t>
   </si>
   <si>
-    <t>...Asignar y actualizar membresia</t>
+    <t>Diagrama MVC</t>
   </si>
   <si>
-    <t>…Pago por membresia</t>
+    <t>Juan D.</t>
   </si>
   <si>
-    <t>Administracion de Tienda</t>
+    <t>Acciones de Usuarios</t>
   </si>
   <si>
-    <t>…Control de productos</t>
+    <t>La fecha de fin, es la fecha programada para terminar con la actividad</t>
   </si>
   <si>
-    <t>…Reporte de pedidos</t>
+    <t>…Realizar pedido</t>
   </si>
   <si>
-    <t>3.3.1</t>
+    <t>…..Pago por tarjeta</t>
   </si>
   <si>
-    <t>3.3.2</t>
+    <t>…..Pago por membresia</t>
+  </si>
+  <si>
+    <t>Ulises Ancona</t>
+  </si>
+  <si>
+    <t>Adimistracion de la tienda</t>
+  </si>
+  <si>
+    <t>…Ver pedidos realizados</t>
+  </si>
+  <si>
+    <t>…Generar reporte de ganancias</t>
+  </si>
+  <si>
+    <t>…Disponibilidad de productos</t>
+  </si>
+  <si>
+    <t>Implementacion de Bases de datos</t>
+  </si>
+  <si>
+    <t>Creacion y actualizacion del repositorio en Github</t>
+  </si>
+  <si>
+    <t>Emmanuel A.</t>
+  </si>
+  <si>
+    <t>...Asignacion de membresia</t>
+  </si>
+  <si>
+    <t>…Añadir accesorio a un dispositivo</t>
   </si>
 </sst>
 </file>
@@ -658,7 +634,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -982,6 +958,21 @@
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="27">
@@ -1430,7 +1421,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1710,6 +1701,15 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1739,16 +1739,17 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1798,21 +1799,7 @@
     <cellStyle name="Título 3" xfId="32" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1852,20 +1839,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2038,14 +2011,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>122766</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>387350</xdr:rowOff>
     </xdr:to>
@@ -2106,7 +2079,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>115358</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -2438,17 +2411,17 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CN59"/>
+  <dimension ref="A1:CN55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
@@ -2456,7 +2429,9 @@
     <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="1.85546875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
+    <col min="11" max="21" width="2.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="2.140625" style="1" customWidth="1"/>
+    <col min="23" max="66" width="2.42578125" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -2470,29 +2445,54 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="I1" s="97"/>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AL1" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="114"/>
+      <c r="AP1" s="114"/>
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="114"/>
+      <c r="AT1" s="114"/>
+      <c r="AU1" s="114"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="114"/>
+      <c r="AX1" s="114"/>
+      <c r="AY1" s="114"/>
+      <c r="AZ1" s="114"/>
+      <c r="BA1" s="114"/>
+      <c r="BB1" s="114"/>
+      <c r="BC1" s="114"/>
+      <c r="BD1" s="114"/>
+      <c r="BE1" s="114"/>
+      <c r="BF1" s="114"/>
+      <c r="BG1" s="114"/>
+      <c r="BH1" s="114"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -2539,11 +2539,11 @@
       <c r="B4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="113">
         <v>43259</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="77"/>
       <c r="G4" s="80" t="s">
         <v>9</v>
@@ -2553,180 +2553,182 @@
       </c>
       <c r="I4" s="78"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="102" t="str">
+      <c r="K4" s="105" t="str">
         <f>"Semana "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="102" t="str">
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="105" t="str">
         <f>"Semana "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="102" t="str">
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="105" t="str">
         <f>"Semana "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="102" t="str">
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="105" t="str">
         <f>"Semana "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="102" t="str">
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="105" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="102" t="str">
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="105" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="102" t="str">
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="106"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="105" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="102" t="str">
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="106"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="105" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="103"/>
-      <c r="BL4" s="103"/>
-      <c r="BM4" s="103"/>
-      <c r="BN4" s="104"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="106"/>
+      <c r="BN4" s="107"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76"/>
       <c r="B5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="C5" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
       <c r="H5" s="79"/>
       <c r="I5" s="79"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="105">
+      <c r="K5" s="108">
         <f>K6</f>
         <v>43255</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="105">
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="108">
         <f>R6</f>
         <v>43262</v>
       </c>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="105">
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="108">
         <f>Y6</f>
         <v>43269</v>
       </c>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="105">
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="108">
         <f>AF6</f>
         <v>43276</v>
       </c>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="105">
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="108">
         <f>AM6</f>
         <v>43283</v>
       </c>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="105">
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="109"/>
+      <c r="AR5" s="109"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="108">
         <f>AT6</f>
         <v>43290</v>
       </c>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="105">
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="109"/>
+      <c r="AW5" s="109"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="108">
         <f>BA6</f>
         <v>43297</v>
       </c>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="106"/>
-      <c r="BD5" s="106"/>
-      <c r="BE5" s="106"/>
-      <c r="BF5" s="106"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="105">
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="109"/>
+      <c r="BF5" s="109"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="108">
         <f>BH6</f>
         <v>43304</v>
       </c>
-      <c r="BI5" s="106"/>
-      <c r="BJ5" s="106"/>
-      <c r="BK5" s="106"/>
-      <c r="BL5" s="106"/>
-      <c r="BM5" s="106"/>
-      <c r="BN5" s="107"/>
+      <c r="BI5" s="109"/>
+      <c r="BJ5" s="109"/>
+      <c r="BK5" s="109"/>
+      <c r="BL5" s="109"/>
+      <c r="BM5" s="109"/>
+      <c r="BN5" s="110"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
@@ -3037,7 +3039,7 @@
         <f t="shared" si="2"/>
         <v>J</v>
       </c>
-      <c r="V7" s="111" t="str">
+      <c r="V7" s="102" t="str">
         <f t="shared" si="2"/>
         <v>V</v>
       </c>
@@ -3077,7 +3079,7 @@
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="AF7" s="111" t="str">
+      <c r="AF7" s="102" t="str">
         <f t="shared" ref="AF7:AP7" si="3">CHOOSE(WEEKDAY(AF6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
@@ -3236,7 +3238,7 @@
       <c r="G8" s="56"/>
       <c r="H8" s="57"/>
       <c r="I8" s="58" t="str">
-        <f t="shared" ref="I8:I52" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I48" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="61"/>
@@ -3252,7 +3254,7 @@
       <c r="T8" s="72"/>
       <c r="U8" s="72"/>
       <c r="V8" s="100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W8" s="72"/>
       <c r="X8" s="72"/>
@@ -3264,7 +3266,7 @@
       <c r="AD8" s="72"/>
       <c r="AE8" s="72"/>
       <c r="AF8" s="100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG8" s="72"/>
       <c r="AH8" s="72"/>
@@ -3275,9 +3277,9 @@
       <c r="AM8" s="72"/>
       <c r="AN8" s="72"/>
       <c r="AO8" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP8" s="72"/>
+        <v>35</v>
+      </c>
+      <c r="AP8" s="75"/>
       <c r="AQ8" s="72"/>
       <c r="AR8" s="72"/>
       <c r="AS8" s="72"/>
@@ -3309,7 +3311,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>26</v>
@@ -3406,18 +3408,17 @@
         <v>43262</v>
       </c>
       <c r="F10" s="67">
-        <f t="shared" ref="F10:F50" si="7">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F46" si="7">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>43266</v>
       </c>
       <c r="G10" s="29">
         <v>5</v>
       </c>
       <c r="H10" s="30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I10" s="31">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="73"/>
@@ -3483,7 +3484,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>26</v>
@@ -3494,17 +3495,16 @@
       </c>
       <c r="F11" s="67">
         <f>IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
-        <v>43265</v>
+        <v>43272</v>
       </c>
       <c r="G11" s="29">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H11" s="30">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="I11" s="31">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="73"/>
@@ -3570,7 +3570,7 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>26</v>
@@ -3581,17 +3581,17 @@
       </c>
       <c r="F12" s="67">
         <f t="shared" si="7"/>
-        <v>43262</v>
+        <v>43284</v>
       </c>
       <c r="G12" s="29">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H12" s="30">
         <v>1</v>
       </c>
       <c r="I12" s="31">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J12" s="62"/>
       <c r="K12" s="73"/>
@@ -3657,27 +3657,27 @@
         <v>1.5</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="66">
-        <v>43266</v>
+        <v>43262</v>
       </c>
       <c r="F13" s="67">
         <f>IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
-        <v>43270</v>
+        <v>43279</v>
       </c>
       <c r="G13" s="29">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H13" s="30">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I13" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="73"/>
@@ -3824,7 +3824,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="93"/>
       <c r="E15" s="66">
@@ -3832,17 +3832,16 @@
       </c>
       <c r="F15" s="67">
         <f t="shared" si="7"/>
-        <v>43266</v>
+        <v>43279</v>
       </c>
       <c r="G15" s="29">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H15" s="30">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I15" s="31">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="73"/>
@@ -3908,7 +3907,7 @@
         <v>2.2</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>26</v>
@@ -3919,17 +3918,16 @@
       </c>
       <c r="F16" s="67">
         <f t="shared" si="7"/>
-        <v>43266</v>
+        <v>43274</v>
       </c>
       <c r="G16" s="29">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H16" s="30">
         <v>0.9</v>
       </c>
       <c r="I16" s="31">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="62"/>
       <c r="K16" s="73"/>
@@ -3995,23 +3993,28 @@
         <v>2.3</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="D17" s="93"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67" t="str">
+      <c r="E17" s="66">
+        <v>43276</v>
+      </c>
+      <c r="F17" s="67">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
+        <v>43281</v>
       </c>
       <c r="G17" s="29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17" s="30">
-        <v>0</v>
-      </c>
-      <c r="I17" s="31" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="I17" s="31">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
+        <v>5</v>
       </c>
       <c r="J17" s="62"/>
       <c r="K17" s="73"/>
@@ -4076,22 +4079,28 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B18" s="92"/>
+      <c r="B18" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="93"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67" t="str">
+      <c r="E18" s="66">
+        <v>43269</v>
+      </c>
+      <c r="F18" s="67">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
+        <v>43276</v>
       </c>
       <c r="G18" s="29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H18" s="30">
-        <v>0</v>
-      </c>
-      <c r="I18" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
+        <v>0.95</v>
+      </c>
+      <c r="I18" s="31">
+        <v>4</v>
       </c>
       <c r="J18" s="62"/>
       <c r="K18" s="73"/>
@@ -4287,30 +4296,27 @@
       <c r="AQ20" s="75"/>
       <c r="AR20" s="75"/>
       <c r="AS20" s="75"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-      <c r="BC20" s="73"/>
-      <c r="BD20" s="73"/>
-      <c r="BE20" s="73"/>
-      <c r="BF20" s="73"/>
-      <c r="BG20" s="73"/>
-      <c r="BH20" s="73"/>
-      <c r="BI20" s="73"/>
-      <c r="BJ20" s="73"/>
-      <c r="BK20" s="73"/>
-      <c r="BL20" s="73"/>
-      <c r="BM20" s="73"/>
-      <c r="BN20" s="73"/>
-      <c r="BO20" s="28"/>
-      <c r="BP20" s="28"/>
-      <c r="BQ20" s="28"/>
+      <c r="AT20" s="75"/>
+      <c r="AU20" s="75"/>
+      <c r="AV20" s="75"/>
+      <c r="AW20" s="75"/>
+      <c r="AX20" s="75"/>
+      <c r="AY20" s="75"/>
+      <c r="AZ20" s="75"/>
+      <c r="BA20" s="75"/>
+      <c r="BB20" s="75"/>
+      <c r="BC20" s="75"/>
+      <c r="BD20" s="75"/>
+      <c r="BE20" s="75"/>
+      <c r="BF20" s="75"/>
+      <c r="BG20" s="75"/>
+      <c r="BH20" s="75"/>
+      <c r="BI20" s="75"/>
+      <c r="BJ20" s="75"/>
+      <c r="BK20" s="75"/>
+      <c r="BL20" s="75"/>
+      <c r="BM20" s="75"/>
+      <c r="BN20" s="75"/>
       <c r="BR20" s="28"/>
       <c r="BS20" s="28"/>
       <c r="BT20" s="28"/>
@@ -4335,31 +4341,31 @@
       <c r="CM20" s="28"/>
       <c r="CN20" s="28"/>
     </row>
-    <row r="21" spans="1:92" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="str">
         <f t="shared" ref="A21" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B21" s="92" t="s">
-        <v>39</v>
+      <c r="B21" s="115" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="93"/>
       <c r="E21" s="66">
-        <v>43262</v>
+        <v>43269</v>
       </c>
       <c r="F21" s="67">
-        <f t="shared" ref="F21" si="9">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>43266</v>
+        <f t="shared" ref="F21:F25" si="9">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <v>43281</v>
       </c>
       <c r="G21" s="29">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H21" s="30">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I21" s="31">
-        <f t="shared" ref="I21:I37" si="10">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
-        <v>5</v>
+        <f t="shared" ref="I21:I25" si="10">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
+        <v>10</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="73"/>
@@ -4420,18 +4426,34 @@
       <c r="BN21" s="73"/>
     </row>
     <row r="22" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>55</v>
+      <c r="A22" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B22" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="93"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="E22" s="66">
+        <v>43269</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="9"/>
+        <v>43278</v>
+      </c>
+      <c r="G22" s="29">
+        <v>10</v>
+      </c>
+      <c r="H22" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="31">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
       <c r="J22" s="62"/>
       <c r="K22" s="73"/>
       <c r="L22" s="73"/>
@@ -4491,18 +4513,34 @@
       <c r="BN22" s="73"/>
     </row>
     <row r="23" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>56</v>
+      <c r="A23" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.2</v>
+      </c>
+      <c r="B23" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="93"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="E23" s="66">
+        <v>43270</v>
+      </c>
+      <c r="F23" s="67">
+        <f t="shared" si="9"/>
+        <v>43271</v>
+      </c>
+      <c r="G23" s="29">
+        <v>2</v>
+      </c>
+      <c r="H23" s="30">
+        <v>1</v>
+      </c>
+      <c r="I23" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
       <c r="J23" s="62"/>
       <c r="K23" s="73"/>
       <c r="L23" s="73"/>
@@ -4562,18 +4600,34 @@
       <c r="BN23" s="73"/>
     </row>
     <row r="24" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>57</v>
+      <c r="A24" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.3</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D24" s="93"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+      <c r="E24" s="66">
+        <v>43277</v>
+      </c>
+      <c r="F24" s="67">
+        <f t="shared" si="9"/>
+        <v>43278</v>
+      </c>
+      <c r="G24" s="29">
+        <v>2</v>
+      </c>
+      <c r="H24" s="30">
+        <v>0</v>
+      </c>
+      <c r="I24" s="31">
+        <f>IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
+        <v>2</v>
+      </c>
       <c r="J24" s="62"/>
       <c r="K24" s="73"/>
       <c r="L24" s="73"/>
@@ -4633,18 +4687,34 @@
       <c r="BN24" s="73"/>
     </row>
     <row r="25" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="92" t="s">
-        <v>58</v>
+      <c r="A25" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.4</v>
+      </c>
+      <c r="B25" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D25" s="93"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="66">
+        <v>43278</v>
+      </c>
+      <c r="F25" s="67">
+        <f t="shared" si="9"/>
+        <v>43279</v>
+      </c>
+      <c r="G25" s="29">
+        <v>2</v>
+      </c>
+      <c r="H25" s="30">
+        <v>0</v>
+      </c>
+      <c r="I25" s="31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
       <c r="J25" s="62"/>
       <c r="K25" s="73"/>
       <c r="L25" s="73"/>
@@ -4704,18 +4774,33 @@
       <c r="BN25" s="73"/>
     </row>
     <row r="26" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="92" t="s">
-        <v>60</v>
+      <c r="A26" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.5</v>
+      </c>
+      <c r="B26" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="93"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+      <c r="E26" s="66">
+        <v>43270</v>
+      </c>
+      <c r="F26" s="67">
+        <f t="shared" ref="F26" si="11">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>43280</v>
+      </c>
+      <c r="G26" s="29">
+        <v>11</v>
+      </c>
+      <c r="H26" s="30">
+        <v>0</v>
+      </c>
+      <c r="I26" s="31">
+        <v>2</v>
+      </c>
       <c r="J26" s="62"/>
       <c r="K26" s="73"/>
       <c r="L26" s="73"/>
@@ -4775,18 +4860,33 @@
       <c r="BN26" s="73"/>
     </row>
     <row r="27" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="92" t="s">
-        <v>64</v>
+      <c r="A27" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.5.1</v>
+      </c>
+      <c r="B27" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="D27" s="93"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="E27" s="66">
+        <v>43270</v>
+      </c>
+      <c r="F27" s="67">
+        <f t="shared" ref="F27" si="12">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <v>43270</v>
+      </c>
+      <c r="G27" s="29">
+        <v>1</v>
+      </c>
+      <c r="H27" s="30">
+        <v>1</v>
+      </c>
+      <c r="I27" s="31">
+        <v>1</v>
+      </c>
       <c r="J27" s="62"/>
       <c r="K27" s="73"/>
       <c r="L27" s="73"/>
@@ -4845,17 +4945,34 @@
       <c r="BM27" s="73"/>
       <c r="BN27" s="73"/>
     </row>
-    <row r="28" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="92"/>
+    <row r="28" spans="1:92" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.5.2</v>
+      </c>
+      <c r="B28" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" s="93"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
+      <c r="E28" s="66">
+        <v>43278</v>
+      </c>
+      <c r="F28" s="67">
+        <f>IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
+        <v>43278</v>
+      </c>
+      <c r="G28" s="29">
+        <v>1</v>
+      </c>
+      <c r="H28" s="30">
+        <v>0</v>
+      </c>
+      <c r="I28" s="31">
+        <v>1</v>
+      </c>
       <c r="J28" s="62"/>
       <c r="K28" s="73"/>
       <c r="L28" s="73"/>
@@ -4914,17 +5031,35 @@
       <c r="BM28" s="73"/>
       <c r="BN28" s="73"/>
     </row>
-    <row r="29" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+    <row r="29" spans="1:92" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.6</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="66">
+        <v>43280</v>
+      </c>
+      <c r="F29" s="67">
+        <f t="shared" ref="F29" si="13">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
+        <v>43280</v>
+      </c>
+      <c r="G29" s="29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="30">
+        <v>0</v>
+      </c>
+      <c r="I29" s="47">
+        <f t="shared" ref="I29" si="14">IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
+        <v>1</v>
+      </c>
       <c r="J29" s="62"/>
       <c r="K29" s="73"/>
       <c r="L29" s="73"/>
@@ -4983,17 +5118,35 @@
       <c r="BM29" s="73"/>
       <c r="BN29" s="73"/>
     </row>
-    <row r="30" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="92"/>
+    <row r="30" spans="1:92" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.7</v>
+      </c>
+      <c r="B30" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="D30" s="93"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
+      <c r="E30" s="66">
+        <v>43270</v>
+      </c>
+      <c r="F30" s="67">
+        <f t="shared" ref="F30" si="15">IF(ISBLANK(E30)," - ",IF(G30=0,E30,E30+G30-1))</f>
+        <v>43270</v>
+      </c>
+      <c r="G30" s="29">
+        <v>1</v>
+      </c>
+      <c r="H30" s="30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" ref="I30:I31" si="16">IF(OR(F30=0,E30=0)," - ",NETWORKDAYS(E30,F30))</f>
+        <v>1</v>
+      </c>
       <c r="J30" s="62"/>
       <c r="K30" s="73"/>
       <c r="L30" s="73"/>
@@ -5053,16 +5206,31 @@
       <c r="BN30" s="73"/>
     </row>
     <row r="31" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="92"/>
+      <c r="A31" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="93"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+      <c r="E31" s="66">
+        <v>43276</v>
+      </c>
+      <c r="F31" s="67">
+        <f>IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
+        <v>43280</v>
+      </c>
+      <c r="G31" s="29">
+        <v>5</v>
+      </c>
+      <c r="H31" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
       <c r="J31" s="62"/>
       <c r="K31" s="73"/>
       <c r="L31" s="73"/>
@@ -5122,16 +5290,34 @@
       <c r="BN31" s="73"/>
     </row>
     <row r="32" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
+      <c r="A32" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
+      </c>
+      <c r="B32" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="66">
+        <v>43279</v>
+      </c>
+      <c r="F32" s="67">
+        <f t="shared" ref="F32" si="17">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <v>43280</v>
+      </c>
+      <c r="G32" s="29">
+        <v>2</v>
+      </c>
+      <c r="H32" s="30">
+        <v>0</v>
+      </c>
+      <c r="I32" s="47">
+        <f>IF(OR(F32=0,E32=0)," - ",NETWORKDAYS(E32,F32))</f>
+        <v>2</v>
+      </c>
       <c r="J32" s="62"/>
       <c r="K32" s="73"/>
       <c r="L32" s="73"/>
@@ -5190,17 +5376,35 @@
       <c r="BM32" s="73"/>
       <c r="BN32" s="73"/>
     </row>
-    <row r="33" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
+    <row r="33" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.2</v>
+      </c>
+      <c r="B33" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="66">
+        <v>43276</v>
+      </c>
+      <c r="F33" s="67">
+        <f t="shared" ref="F33:F41" si="18">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+        <v>43277</v>
+      </c>
+      <c r="G33" s="29">
+        <v>2</v>
+      </c>
+      <c r="H33" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="I33" s="47">
+        <f>IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
+        <v>2</v>
+      </c>
       <c r="J33" s="62"/>
       <c r="K33" s="73"/>
       <c r="L33" s="73"/>
@@ -5259,17 +5463,35 @@
       <c r="BM33" s="73"/>
       <c r="BN33" s="73"/>
     </row>
-    <row r="34" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
+    <row r="34" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.3</v>
+      </c>
+      <c r="B34" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="66">
+        <v>43277</v>
+      </c>
+      <c r="F34" s="67">
+        <f t="shared" si="18"/>
+        <v>43277</v>
+      </c>
+      <c r="G34" s="29">
+        <v>1</v>
+      </c>
+      <c r="H34" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="31">
+        <f t="shared" ref="I34:I41" si="19">IF(OR(F34=0,E34=0)," - ",NETWORKDAYS(E34,F34))</f>
+        <v>1</v>
+      </c>
       <c r="J34" s="62"/>
       <c r="K34" s="73"/>
       <c r="L34" s="73"/>
@@ -5328,31 +5550,32 @@
       <c r="BM34" s="73"/>
       <c r="BN34" s="73"/>
     </row>
-    <row r="35" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B35" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="93"/>
+        <v>3.3</v>
+      </c>
+      <c r="B35" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="66">
-        <v>43262</v>
+        <v>43279</v>
       </c>
       <c r="F35" s="67">
-        <f>IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
-        <v>43275</v>
+        <f t="shared" ref="F35:F38" si="20">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <v>43280</v>
       </c>
       <c r="G35" s="29">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H35" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="I35" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I35" s="47">
+        <f t="shared" ref="I35:I38" si="21">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
+        <v>2</v>
       </c>
       <c r="J35" s="62"/>
       <c r="K35" s="73"/>
@@ -5412,26 +5635,34 @@
       <c r="BM35" s="73"/>
       <c r="BN35" s="73"/>
     </row>
-    <row r="36" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="48"/>
+        <v>3.3.1</v>
+      </c>
+      <c r="B36" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>26</v>
+      </c>
       <c r="D36" s="46"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67" t="str">
-        <f t="shared" ref="F36" si="11">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="47" t="str">
-        <f t="shared" ref="I36" si="12">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E36" s="66">
+        <v>43280</v>
+      </c>
+      <c r="F36" s="67">
+        <f t="shared" si="20"/>
+        <v>43280</v>
+      </c>
+      <c r="G36" s="29">
+        <v>1</v>
+      </c>
+      <c r="H36" s="30">
+        <v>0</v>
+      </c>
+      <c r="I36" s="31">
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="J36" s="62"/>
       <c r="K36" s="73"/>
@@ -5491,26 +5722,31 @@
       <c r="BM36" s="73"/>
       <c r="BN36" s="73"/>
     </row>
-    <row r="37" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.2</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67" t="str">
-        <f t="shared" ref="F37" si="13">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="47" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B37" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="93"/>
+      <c r="E37" s="66">
+        <v>43273</v>
+      </c>
+      <c r="F37" s="67">
+        <f t="shared" si="20"/>
+        <v>43281</v>
+      </c>
+      <c r="G37" s="29">
+        <v>9</v>
+      </c>
+      <c r="H37" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="I37" s="31">
+        <f t="shared" si="21"/>
+        <v>6</v>
       </c>
       <c r="J37" s="62"/>
       <c r="K37" s="73"/>
@@ -5570,26 +5806,30 @@
       <c r="BM37" s="73"/>
       <c r="BN37" s="73"/>
     </row>
-    <row r="38" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.3</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>63</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>4</v>
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="46"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="67" t="str">
-        <f t="shared" ref="F38:F39" si="14">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E38" s="66">
+        <v>43279</v>
+      </c>
+      <c r="F38" s="67">
+        <f t="shared" si="20"/>
+        <v>43279</v>
       </c>
       <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="47" t="str">
-        <f t="shared" ref="I38:I39" si="15">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="H38" s="30">
+        <v>0</v>
+      </c>
+      <c r="I38" s="47">
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="J38" s="62"/>
       <c r="K38" s="73"/>
@@ -5649,24 +5889,30 @@
       <c r="BM38" s="73"/>
       <c r="BN38" s="73"/>
     </row>
-    <row r="39" spans="1:92" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.4</v>
-      </c>
-      <c r="B39" s="49"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.6</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>4</v>
+      </c>
       <c r="C39" s="48"/>
       <c r="D39" s="46"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E39" s="66">
+        <v>43279</v>
+      </c>
+      <c r="F39" s="67">
+        <f t="shared" si="18"/>
+        <v>43279</v>
       </c>
       <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="47" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> - </v>
+      <c r="H39" s="30">
+        <v>0</v>
+      </c>
+      <c r="I39" s="47">
+        <f>IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <v>1</v>
       </c>
       <c r="J39" s="62"/>
       <c r="K39" s="73"/>
@@ -5725,47 +5971,32 @@
       <c r="BL39" s="73"/>
       <c r="BM39" s="73"/>
       <c r="BN39" s="73"/>
-      <c r="BO39" s="28"/>
-      <c r="BP39" s="28"/>
-      <c r="BQ39" s="28"/>
-      <c r="BR39" s="28"/>
-      <c r="BS39" s="28"/>
-      <c r="BT39" s="28"/>
-      <c r="BU39" s="28"/>
-      <c r="BV39" s="28"/>
-      <c r="BW39" s="28"/>
-      <c r="BX39" s="28"/>
-      <c r="BY39" s="28"/>
-      <c r="BZ39" s="28"/>
-      <c r="CA39" s="28"/>
-      <c r="CB39" s="28"/>
-      <c r="CC39" s="28"/>
-      <c r="CD39" s="28"/>
-      <c r="CE39" s="28"/>
-      <c r="CF39" s="28"/>
-      <c r="CG39" s="28"/>
-      <c r="CH39" s="28"/>
-      <c r="CI39" s="28"/>
-      <c r="CJ39" s="28"/>
-      <c r="CK39" s="28"/>
-      <c r="CL39" s="28"/>
-      <c r="CM39" s="28"/>
-      <c r="CN39" s="28"/>
     </row>
-    <row r="40" spans="1:92" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
-        <v>3.3</v>
-      </c>
-      <c r="B40" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="114"/>
+    <row r="40" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.7</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="48"/>
       <c r="D40" s="46"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
+      <c r="E40" s="66">
+        <v>43280</v>
+      </c>
+      <c r="F40" s="67">
+        <f t="shared" si="18"/>
+        <v>43280</v>
+      </c>
       <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="47"/>
+      <c r="H40" s="30">
+        <v>0</v>
+      </c>
+      <c r="I40" s="47">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
       <c r="J40" s="62"/>
       <c r="K40" s="73"/>
       <c r="L40" s="73"/>
@@ -5823,83 +6054,68 @@
       <c r="BL40" s="73"/>
       <c r="BM40" s="73"/>
       <c r="BN40" s="73"/>
-      <c r="BO40" s="28"/>
-      <c r="BP40" s="28"/>
-      <c r="BQ40" s="28"/>
-      <c r="BR40" s="28"/>
-      <c r="BS40" s="28"/>
-      <c r="BT40" s="28"/>
-      <c r="BU40" s="28"/>
-      <c r="BV40" s="28"/>
-      <c r="BW40" s="28"/>
-      <c r="BX40" s="28"/>
-      <c r="BY40" s="28"/>
-      <c r="BZ40" s="28"/>
-      <c r="CA40" s="28"/>
-      <c r="CB40" s="28"/>
-      <c r="CC40" s="28"/>
-      <c r="CD40" s="28"/>
-      <c r="CE40" s="28"/>
-      <c r="CF40" s="28"/>
-      <c r="CG40" s="28"/>
-      <c r="CH40" s="28"/>
-      <c r="CI40" s="28"/>
-      <c r="CJ40" s="28"/>
-      <c r="CK40" s="28"/>
-      <c r="CL40" s="28"/>
-      <c r="CM40" s="28"/>
-      <c r="CN40" s="28"/>
     </row>
-    <row r="41" spans="1:92" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="114"/>
+    <row r="41" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="95" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B41" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="45"/>
       <c r="D41" s="46"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
+      <c r="F41" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G41" s="29">
+        <v>0</v>
+      </c>
+      <c r="H41" s="30">
+        <v>0</v>
+      </c>
+      <c r="I41" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J41" s="63"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
       <c r="V41" s="101"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="75"/>
+      <c r="Z41" s="75"/>
+      <c r="AA41" s="75"/>
+      <c r="AB41" s="75"/>
+      <c r="AC41" s="75"/>
+      <c r="AD41" s="75"/>
+      <c r="AE41" s="75"/>
       <c r="AF41" s="101"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="73"/>
-      <c r="AK41" s="73"/>
-      <c r="AL41" s="73"/>
-      <c r="AM41" s="73"/>
-      <c r="AN41" s="73"/>
+      <c r="AG41" s="75"/>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="75"/>
+      <c r="AJ41" s="75"/>
+      <c r="AK41" s="75"/>
+      <c r="AL41" s="75"/>
+      <c r="AM41" s="75"/>
+      <c r="AN41" s="75"/>
       <c r="AO41" s="101"/>
-      <c r="AP41" s="73"/>
-      <c r="AQ41" s="73"/>
-      <c r="AR41" s="73"/>
-      <c r="AS41" s="73"/>
+      <c r="AP41" s="75"/>
+      <c r="AQ41" s="75"/>
+      <c r="AR41" s="75"/>
+      <c r="AS41" s="75"/>
       <c r="AT41" s="73"/>
       <c r="AU41" s="73"/>
       <c r="AV41" s="73"/>
@@ -5921,47 +6137,31 @@
       <c r="BL41" s="73"/>
       <c r="BM41" s="73"/>
       <c r="BN41" s="73"/>
-      <c r="BO41" s="28"/>
-      <c r="BP41" s="28"/>
-      <c r="BQ41" s="28"/>
-      <c r="BR41" s="28"/>
-      <c r="BS41" s="28"/>
-      <c r="BT41" s="28"/>
-      <c r="BU41" s="28"/>
-      <c r="BV41" s="28"/>
-      <c r="BW41" s="28"/>
-      <c r="BX41" s="28"/>
-      <c r="BY41" s="28"/>
-      <c r="BZ41" s="28"/>
-      <c r="CA41" s="28"/>
-      <c r="CB41" s="28"/>
-      <c r="CC41" s="28"/>
-      <c r="CD41" s="28"/>
-      <c r="CE41" s="28"/>
-      <c r="CF41" s="28"/>
-      <c r="CG41" s="28"/>
-      <c r="CH41" s="28"/>
-      <c r="CI41" s="28"/>
-      <c r="CJ41" s="28"/>
-      <c r="CK41" s="28"/>
-      <c r="CL41" s="28"/>
-      <c r="CM41" s="28"/>
-      <c r="CN41" s="28"/>
     </row>
-    <row r="42" spans="1:92" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="46"/>
+    <row r="42" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="27" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B42" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="93"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="47"/>
+      <c r="F42" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G42" s="29">
+        <v>0</v>
+      </c>
+      <c r="H42" s="30">
+        <v>0</v>
+      </c>
+      <c r="I42" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J42" s="62"/>
       <c r="K42" s="73"/>
       <c r="L42" s="73"/>
@@ -5974,7 +6174,7 @@
       <c r="S42" s="73"/>
       <c r="T42" s="73"/>
       <c r="U42" s="73"/>
-      <c r="V42" s="101"/>
+      <c r="V42" s="73"/>
       <c r="W42" s="73"/>
       <c r="X42" s="73"/>
       <c r="Y42" s="73"/>
@@ -5984,7 +6184,7 @@
       <c r="AC42" s="73"/>
       <c r="AD42" s="73"/>
       <c r="AE42" s="73"/>
-      <c r="AF42" s="101"/>
+      <c r="AF42" s="73"/>
       <c r="AG42" s="73"/>
       <c r="AH42" s="73"/>
       <c r="AI42" s="73"/>
@@ -5993,7 +6193,7 @@
       <c r="AL42" s="73"/>
       <c r="AM42" s="73"/>
       <c r="AN42" s="73"/>
-      <c r="AO42" s="101"/>
+      <c r="AO42" s="73"/>
       <c r="AP42" s="73"/>
       <c r="AQ42" s="73"/>
       <c r="AR42" s="73"/>
@@ -6019,40 +6219,10 @@
       <c r="BL42" s="73"/>
       <c r="BM42" s="73"/>
       <c r="BN42" s="73"/>
-      <c r="BO42" s="28"/>
-      <c r="BP42" s="28"/>
-      <c r="BQ42" s="28"/>
-      <c r="BR42" s="28"/>
-      <c r="BS42" s="28"/>
-      <c r="BT42" s="28"/>
-      <c r="BU42" s="28"/>
-      <c r="BV42" s="28"/>
-      <c r="BW42" s="28"/>
-      <c r="BX42" s="28"/>
-      <c r="BY42" s="28"/>
-      <c r="BZ42" s="28"/>
-      <c r="CA42" s="28"/>
-      <c r="CB42" s="28"/>
-      <c r="CC42" s="28"/>
-      <c r="CD42" s="28"/>
-      <c r="CE42" s="28"/>
-      <c r="CF42" s="28"/>
-      <c r="CG42" s="28"/>
-      <c r="CH42" s="28"/>
-      <c r="CI42" s="28"/>
-      <c r="CJ42" s="28"/>
-      <c r="CK42" s="28"/>
-      <c r="CL42" s="28"/>
-      <c r="CM42" s="28"/>
-      <c r="CN42" s="28"/>
     </row>
-    <row r="43" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="27">
-        <v>3.4</v>
-      </c>
-      <c r="B43" s="92" t="s">
-        <v>41</v>
-      </c>
+    <row r="43" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="B43" s="92"/>
       <c r="D43" s="93"/>
       <c r="E43" s="66"/>
       <c r="F43" s="67" t="str">
@@ -6127,13 +6297,10 @@
       <c r="BM43" s="73"/>
       <c r="BN43" s="73"/>
     </row>
-    <row r="44" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="27">
-        <v>3.5</v>
-      </c>
-      <c r="B44" s="92" t="s">
-        <v>59</v>
-      </c>
+    <row r="44" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="93"/>
       <c r="E44" s="66"/>
       <c r="F44" s="67" t="str">
@@ -6150,7 +6317,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J44" s="62"/>
+      <c r="J44" s="64"/>
       <c r="K44" s="73"/>
       <c r="L44" s="73"/>
       <c r="M44" s="73"/>
@@ -6208,63 +6375,62 @@
       <c r="BM44" s="73"/>
       <c r="BN44" s="73"/>
     </row>
-    <row r="45" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68" t="str">
+    <row r="45" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26" t="str">
+      <c r="G45" s="29">
+        <v>0</v>
+      </c>
+      <c r="H45" s="30">
+        <v>0</v>
+      </c>
+      <c r="I45" s="31" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J45" s="63"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="75"/>
-      <c r="T45" s="75"/>
-      <c r="U45" s="75"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="75"/>
-      <c r="Y45" s="75"/>
-      <c r="Z45" s="75"/>
-      <c r="AA45" s="75"/>
-      <c r="AB45" s="75"/>
-      <c r="AC45" s="75"/>
-      <c r="AD45" s="75"/>
-      <c r="AE45" s="75"/>
-      <c r="AF45" s="101"/>
-      <c r="AG45" s="75"/>
-      <c r="AH45" s="75"/>
-      <c r="AI45" s="75"/>
-      <c r="AJ45" s="75"/>
-      <c r="AK45" s="75"/>
-      <c r="AL45" s="75"/>
-      <c r="AM45" s="75"/>
-      <c r="AN45" s="75"/>
-      <c r="AO45" s="101"/>
-      <c r="AP45" s="75"/>
-      <c r="AQ45" s="75"/>
-      <c r="AR45" s="75"/>
-      <c r="AS45" s="75"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="73"/>
+      <c r="AL45" s="73"/>
+      <c r="AM45" s="73"/>
+      <c r="AN45" s="73"/>
+      <c r="AO45" s="73"/>
+      <c r="AP45" s="73"/>
+      <c r="AQ45" s="73"/>
+      <c r="AR45" s="73"/>
+      <c r="AS45" s="73"/>
       <c r="AT45" s="73"/>
       <c r="AU45" s="73"/>
       <c r="AV45" s="73"/>
@@ -6287,14 +6453,10 @@
       <c r="BM45" s="73"/>
       <c r="BN45" s="73"/>
     </row>
-    <row r="46" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="27" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B46" s="92" t="s">
-        <v>2</v>
-      </c>
+    <row r="46" spans="1:66" s="42" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="93"/>
       <c r="E46" s="66"/>
       <c r="F46" s="67" t="str">
@@ -6311,7 +6473,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J46" s="62"/>
+      <c r="J46" s="103"/>
       <c r="K46" s="73"/>
       <c r="L46" s="73"/>
       <c r="M46" s="73"/>
@@ -6369,26 +6531,20 @@
       <c r="BM46" s="73"/>
       <c r="BN46" s="73"/>
     </row>
-    <row r="47" spans="1:92" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
-      <c r="B47" s="92"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="67" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G47" s="29">
-        <v>0</v>
-      </c>
-      <c r="H47" s="30">
-        <v>0</v>
-      </c>
-      <c r="I47" s="31" t="str">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J47" s="62"/>
+      <c r="J47" s="103"/>
       <c r="K47" s="73"/>
       <c r="L47" s="73"/>
       <c r="M47" s="73"/>
@@ -6446,27 +6602,20 @@
       <c r="BM47" s="73"/>
       <c r="BN47" s="73"/>
     </row>
-    <row r="48" spans="1:92" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="67" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G48" s="29">
-        <v>0</v>
-      </c>
-      <c r="H48" s="30">
-        <v>0</v>
-      </c>
-      <c r="I48" s="31" t="str">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J48" s="64"/>
+      <c r="J48" s="65"/>
       <c r="K48" s="73"/>
       <c r="L48" s="73"/>
       <c r="M48" s="73"/>
@@ -6525,26 +6674,18 @@
       <c r="BN48" s="73"/>
     </row>
     <row r="49" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="67" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G49" s="29">
-        <v>0</v>
-      </c>
-      <c r="H49" s="30">
-        <v>0</v>
-      </c>
-      <c r="I49" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J49" s="64"/>
+      <c r="A49" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="65"/>
       <c r="K49" s="73"/>
       <c r="L49" s="73"/>
       <c r="M49" s="73"/>
@@ -6602,27 +6743,19 @@
       <c r="BM49" s="73"/>
       <c r="BN49" s="73"/>
     </row>
-    <row r="50" spans="1:66" s="42" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="67" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G50" s="29">
-        <v>0</v>
-      </c>
-      <c r="H50" s="30">
-        <v>0</v>
-      </c>
-      <c r="I50" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J50" s="112"/>
+    <row r="50" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="65"/>
       <c r="K50" s="73"/>
       <c r="L50" s="73"/>
       <c r="M50" s="73"/>
@@ -6681,19 +6814,27 @@
       <c r="BN50" s="73"/>
     </row>
     <row r="51" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="36" t="str">
-        <f t="shared" si="5"/>
+      <c r="A51" s="95" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B51" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67" t="str">
+        <f t="shared" ref="F51:F54" si="22">IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J51" s="112"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="47" t="str">
+        <f>IF(OR(F51=0,E51=0)," - ",NETWORKDAYS(E51,F51))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J51" s="65"/>
       <c r="K51" s="73"/>
       <c r="L51" s="73"/>
       <c r="M51" s="73"/>
@@ -6751,429 +6892,139 @@
       <c r="BM51" s="73"/>
       <c r="BN51" s="73"/>
     </row>
-    <row r="52" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J52" s="65"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="73"/>
-      <c r="U52" s="73"/>
-      <c r="V52" s="73"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="73"/>
-      <c r="Y52" s="73"/>
-      <c r="Z52" s="73"/>
-      <c r="AA52" s="73"/>
-      <c r="AB52" s="73"/>
-      <c r="AC52" s="73"/>
-      <c r="AD52" s="73"/>
-      <c r="AE52" s="73"/>
-      <c r="AF52" s="73"/>
-      <c r="AG52" s="73"/>
-      <c r="AH52" s="73"/>
-      <c r="AI52" s="73"/>
-      <c r="AJ52" s="73"/>
-      <c r="AK52" s="73"/>
-      <c r="AL52" s="73"/>
-      <c r="AM52" s="73"/>
-      <c r="AN52" s="73"/>
-      <c r="AO52" s="73"/>
-      <c r="AP52" s="73"/>
-      <c r="AQ52" s="73"/>
-      <c r="AR52" s="73"/>
-      <c r="AS52" s="73"/>
-      <c r="AT52" s="73"/>
-      <c r="AU52" s="73"/>
-      <c r="AV52" s="73"/>
-      <c r="AW52" s="73"/>
-      <c r="AX52" s="73"/>
-      <c r="AY52" s="73"/>
-      <c r="AZ52" s="73"/>
-      <c r="BA52" s="73"/>
-      <c r="BB52" s="73"/>
-      <c r="BC52" s="73"/>
-      <c r="BD52" s="73"/>
-      <c r="BE52" s="73"/>
-      <c r="BF52" s="73"/>
-      <c r="BG52" s="73"/>
-      <c r="BH52" s="73"/>
-      <c r="BI52" s="73"/>
-      <c r="BJ52" s="73"/>
-      <c r="BK52" s="73"/>
-      <c r="BL52" s="73"/>
-      <c r="BM52" s="73"/>
-      <c r="BN52" s="73"/>
-    </row>
-    <row r="53" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="73"/>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
-      <c r="Z53" s="73"/>
-      <c r="AA53" s="73"/>
-      <c r="AB53" s="73"/>
-      <c r="AC53" s="73"/>
-      <c r="AD53" s="73"/>
-      <c r="AE53" s="73"/>
-      <c r="AF53" s="73"/>
-      <c r="AG53" s="73"/>
-      <c r="AH53" s="73"/>
-      <c r="AI53" s="73"/>
-      <c r="AJ53" s="73"/>
-      <c r="AK53" s="73"/>
-      <c r="AL53" s="73"/>
-      <c r="AM53" s="73"/>
-      <c r="AN53" s="73"/>
-      <c r="AO53" s="73"/>
-      <c r="AP53" s="73"/>
-      <c r="AQ53" s="73"/>
-      <c r="AR53" s="73"/>
-      <c r="AS53" s="73"/>
-      <c r="AT53" s="73"/>
-      <c r="AU53" s="73"/>
-      <c r="AV53" s="73"/>
-      <c r="AW53" s="73"/>
-      <c r="AX53" s="73"/>
-      <c r="AY53" s="73"/>
-      <c r="AZ53" s="73"/>
-      <c r="BA53" s="73"/>
-      <c r="BB53" s="73"/>
-      <c r="BC53" s="73"/>
-      <c r="BD53" s="73"/>
-      <c r="BE53" s="73"/>
-      <c r="BF53" s="73"/>
-      <c r="BG53" s="73"/>
-      <c r="BH53" s="73"/>
-      <c r="BI53" s="73"/>
-      <c r="BJ53" s="73"/>
-      <c r="BK53" s="73"/>
-      <c r="BL53" s="73"/>
-      <c r="BM53" s="73"/>
-      <c r="BN53" s="73"/>
-    </row>
-    <row r="54" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73"/>
-      <c r="W54" s="73"/>
-      <c r="X54" s="73"/>
-      <c r="Y54" s="73"/>
-      <c r="Z54" s="73"/>
-      <c r="AA54" s="73"/>
-      <c r="AB54" s="73"/>
-      <c r="AC54" s="73"/>
-      <c r="AD54" s="73"/>
-      <c r="AE54" s="73"/>
-      <c r="AF54" s="73"/>
-      <c r="AG54" s="73"/>
-      <c r="AH54" s="73"/>
-      <c r="AI54" s="73"/>
-      <c r="AJ54" s="73"/>
-      <c r="AK54" s="73"/>
-      <c r="AL54" s="73"/>
-      <c r="AM54" s="73"/>
-      <c r="AN54" s="73"/>
-      <c r="AO54" s="73"/>
-      <c r="AP54" s="73"/>
-      <c r="AQ54" s="73"/>
-      <c r="AR54" s="73"/>
-      <c r="AS54" s="73"/>
-      <c r="AT54" s="73"/>
-      <c r="AU54" s="73"/>
-      <c r="AV54" s="73"/>
-      <c r="AW54" s="73"/>
-      <c r="AX54" s="73"/>
-      <c r="AY54" s="73"/>
-      <c r="AZ54" s="73"/>
-      <c r="BA54" s="73"/>
-      <c r="BB54" s="73"/>
-      <c r="BC54" s="73"/>
-      <c r="BD54" s="73"/>
-      <c r="BE54" s="73"/>
-      <c r="BF54" s="73"/>
-      <c r="BG54" s="73"/>
-      <c r="BH54" s="73"/>
-      <c r="BI54" s="73"/>
-      <c r="BJ54" s="73"/>
-      <c r="BK54" s="73"/>
-      <c r="BL54" s="73"/>
-      <c r="BM54" s="73"/>
-      <c r="BN54" s="73"/>
-    </row>
-    <row r="55" spans="1:66" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="95" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B55" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="67" t="str">
-        <f t="shared" ref="F55:F58" si="16">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="47" t="str">
-        <f>IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J55" s="65"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="73"/>
-      <c r="T55" s="73"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73"/>
-      <c r="W55" s="73"/>
-      <c r="X55" s="73"/>
-      <c r="Y55" s="73"/>
-      <c r="Z55" s="73"/>
-      <c r="AA55" s="73"/>
-      <c r="AB55" s="73"/>
-      <c r="AC55" s="73"/>
-      <c r="AD55" s="73"/>
-      <c r="AE55" s="73"/>
-      <c r="AF55" s="73"/>
-      <c r="AG55" s="73"/>
-      <c r="AH55" s="73"/>
-      <c r="AI55" s="73"/>
-      <c r="AJ55" s="73"/>
-      <c r="AK55" s="73"/>
-      <c r="AL55" s="73"/>
-      <c r="AM55" s="73"/>
-      <c r="AN55" s="73"/>
-      <c r="AO55" s="73"/>
-      <c r="AP55" s="73"/>
-      <c r="AQ55" s="73"/>
-      <c r="AR55" s="73"/>
-      <c r="AS55" s="73"/>
-      <c r="AT55" s="73"/>
-      <c r="AU55" s="73"/>
-      <c r="AV55" s="73"/>
-      <c r="AW55" s="73"/>
-      <c r="AX55" s="73"/>
-      <c r="AY55" s="73"/>
-      <c r="AZ55" s="73"/>
-      <c r="BA55" s="73"/>
-      <c r="BB55" s="73"/>
-      <c r="BC55" s="73"/>
-      <c r="BD55" s="73"/>
-      <c r="BE55" s="73"/>
-      <c r="BF55" s="73"/>
-      <c r="BG55" s="73"/>
-      <c r="BH55" s="73"/>
-      <c r="BI55" s="73"/>
-      <c r="BJ55" s="73"/>
-      <c r="BK55" s="73"/>
-      <c r="BL55" s="73"/>
-      <c r="BM55" s="73"/>
-      <c r="BN55" s="73"/>
-    </row>
-    <row r="56" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27" t="str">
+    <row r="52" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B52" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="67" t="str">
-        <f t="shared" si="16"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="67" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="47" t="str">
-        <f t="shared" ref="I56:I58" si="17">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="47" t="str">
+        <f t="shared" ref="I52:I54" si="23">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-      <c r="AH56" s="10"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
-      <c r="AL56" s="10"/>
-      <c r="AM56" s="10"/>
-      <c r="AN56" s="10"/>
-      <c r="AO56" s="10"/>
-      <c r="AP56" s="10"/>
-      <c r="AQ56" s="10"/>
-      <c r="AR56" s="10"/>
-      <c r="AS56" s="10"/>
-      <c r="AT56" s="10"/>
-      <c r="AU56" s="10"/>
-      <c r="AV56" s="10"/>
-      <c r="AW56" s="10"/>
-      <c r="AX56" s="10"/>
-      <c r="AY56" s="10"/>
-      <c r="AZ56" s="10"/>
-      <c r="BA56" s="10"/>
-      <c r="BB56" s="10"/>
-      <c r="BC56" s="10"/>
-      <c r="BD56" s="10"/>
-      <c r="BE56" s="10"/>
-      <c r="BF56" s="10"/>
-      <c r="BG56" s="10"/>
-      <c r="BH56" s="10"/>
-      <c r="BI56" s="10"/>
-      <c r="BJ56" s="10"/>
-      <c r="BK56" s="10"/>
-      <c r="BL56" s="10"/>
-      <c r="BM56" s="10"/>
-      <c r="BN56" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="10"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="10"/>
+      <c r="AQ52" s="10"/>
+      <c r="AR52" s="10"/>
+      <c r="AS52" s="10"/>
+      <c r="AT52" s="10"/>
+      <c r="AU52" s="10"/>
+      <c r="AV52" s="10"/>
+      <c r="AW52" s="10"/>
+      <c r="AX52" s="10"/>
+      <c r="AY52" s="10"/>
+      <c r="AZ52" s="10"/>
+      <c r="BA52" s="10"/>
+      <c r="BB52" s="10"/>
+      <c r="BC52" s="10"/>
+      <c r="BD52" s="10"/>
+      <c r="BE52" s="10"/>
+      <c r="BF52" s="10"/>
+      <c r="BG52" s="10"/>
+      <c r="BH52" s="10"/>
+      <c r="BI52" s="10"/>
+      <c r="BJ52" s="10"/>
+      <c r="BK52" s="10"/>
+      <c r="BL52" s="10"/>
+      <c r="BM52" s="10"/>
+      <c r="BN52" s="10"/>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A57" s="27" t="str">
+    <row r="53" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A53" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B53" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="67" t="str">
-        <f t="shared" si="16"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="67" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="47" t="str">
-        <f t="shared" si="17"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="47" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="str">
+    <row r="54" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A54" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B54" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="67" t="str">
-        <f t="shared" si="16"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="67" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="47" t="str">
-        <f t="shared" si="17"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="47" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+    <row r="55" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -7199,8 +7050,8 @@
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H20 H43:H58">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="H8:H20 H42:H54">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7214,25 +7065,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="17" priority="57">
+    <cfRule type="expression" dxfId="13" priority="110">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN20">
-    <cfRule type="expression" dxfId="16" priority="60">
+  <conditionalFormatting sqref="K8:BN39">
+    <cfRule type="expression" dxfId="12" priority="113">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="61">
+    <cfRule type="expression" dxfId="11" priority="114">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN20 K46:BN55 AU45:BN45 K36:BN44">
-    <cfRule type="expression" dxfId="14" priority="20">
+  <conditionalFormatting sqref="K42:BN51 AU41:BN41 K6:BN40">
+    <cfRule type="expression" dxfId="10" priority="73">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H35">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="H21:H28">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7245,17 +7096,242 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN35">
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K41:BN51">
+    <cfRule type="expression" dxfId="9" priority="124">
+      <formula>AND($E44&lt;=K$6,ROUNDDOWN(($F44-$E44+1)*$H44,0)+$E44-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="8" priority="125">
+      <formula>AND(NOT(ISBLANK($E44)),$E44&lt;=K$6,$F44&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN35">
-    <cfRule type="expression" dxfId="11" priority="10">
+  <conditionalFormatting sqref="K41:AT41">
+    <cfRule type="expression" dxfId="7" priority="54">
       <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL1">
+    <cfRule type="expression" dxfId="6" priority="52">
+      <formula>AND($E1&lt;=AL$6,ROUNDDOWN(($F1-$E1+1)*$H1,0)+$E1-1&gt;=AL$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="53">
+      <formula>AND(NOT(ISBLANK($E1)),$E1&lt;=AL$6,$F1&gt;=AL$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL1">
+    <cfRule type="expression" dxfId="4" priority="51">
+      <formula>AL$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="dataBar" priority="50">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5C64F880-8A0C-4584-AFDF-B638FC4C36DA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D7147305-2FDA-4D83-8784-CC850D249858}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{609E9530-E021-45F6-B3E1-5EEB2E7C3686}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0AB73D50-B8AC-457F-B05A-DA87AF1152F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EBC10F2E-E54B-45E6-8923-45FB9F1B71DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97077C9B-785B-4ACC-A89C-64375BE07876}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0AF6C42B-73F3-4CE9-A500-571B77CE6F5B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:AP40">
+    <cfRule type="expression" dxfId="3" priority="145">
+      <formula>AND(#REF!&lt;=K$6,ROUNDDOWN((#REF!-#REF!+1)*#REF!,0)+#REF!-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="146">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=K$6,#REF!&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="1" priority="165">
+      <formula>AND(#REF!&lt;=K$6,ROUNDDOWN((#REF!-#REF!+1)*#REF!,0)+#REF!-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="166">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=K$6,#REF!&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3EFF89D5-DD93-4085-AE40-B42B93333C2B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97B7FB37-0C3C-46ED-9E82-117564CBC8A6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4349B167-0C40-4855-A51F-300A746BA11D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DE6D0839-4422-4A42-99E0-9A574FAC224C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F6FD27C3-F907-428F-9C4D-9091BAE61A81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D5DC2D6-C0D8-4736-A8B9-DD34AE537E7C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CEC79A96-5D7E-4788-9E7F-37A8A2CCCF2A}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
@@ -7267,12 +7343,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A1CAC4A-1FDB-4B85-A11C-C24386224E1C}</x14:id>
+          <x14:id>{6B8A734F-0617-4E6B-B219-5001B8E5A8AF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H37">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7281,42 +7357,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A0B2A41A-F48A-44FB-91F1-06A23FE15B72}</x14:id>
+          <x14:id>{B0AB4685-403A-472F-BB2E-4B149B5534F9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H42">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{649CE155-25C9-44CC-81B2-37997D7B3A65}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="10" priority="68">
-      <formula>AND($E37&lt;=K$6,ROUNDDOWN(($F37-$E37+1)*$H37,0)+$E37-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="69">
-      <formula>AND(NOT(ISBLANK($E37)),$E37&lt;=K$6,$F37&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU45:BN45 K46:BN55 K43:BN44">
-    <cfRule type="expression" dxfId="8" priority="71">
-      <formula>AND($E46&lt;=K$6,ROUNDDOWN(($F46-$E46+1)*$H46,0)+$E46-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="72">
-      <formula>AND(NOT(ISBLANK($E46)),$E46&lt;=K$6,$F46&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H41">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7325,38 +7371,51 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C862E5DA-8BCC-403C-9F71-B31EE3B1FF64}</x14:id>
+          <x14:id>{153F441B-CA35-4C34-B0B5-83CC70899D9A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:AT45">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BB833B4C-C2CE-4079-BAD9-1D8FD54B13A0}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:AT45">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>AND($E48&lt;=K$6,ROUNDDOWN(($F48-$E48+1)*$H48,0)+$E48-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>AND(NOT(ISBLANK($E48)),$E48&lt;=K$6,$F48&gt;=K$6)</formula>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{196B7BBD-B640-4C00-8097-AF5F9FBD377D}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="3" priority="81">
-      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="82">
-      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN41">
-    <cfRule type="expression" dxfId="1" priority="87">
-      <formula>AND($E43&lt;=K$6,ROUNDDOWN(($F43-$E43+1)*$H43,0)+$E43-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="88">
-      <formula>AND(NOT(ISBLANK($E43)),$E43&lt;=K$6,$F43&gt;=K$6)</formula>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A7A3FB2-8CCE-4CAE-9573-7D13DFEDEF5A}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7369,7 +7428,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A51:B52 B46 B17 A54:B54 B53 E14 E20 E45 E51:H54 G14:H14 G20:H20 G45:H45 G55 G56:G57 G58 H43 H49 H47 H48 H46" unlockedFormula="1"/>
+    <ignoredError sqref="A47:B48 B42 A50:B50 B49 E14 E20 E47:H50 G14:H14 G20:H20 G51 G52:G53 G54 H45 H43 H44 H42" unlockedFormula="1"/>
     <ignoredError sqref="A20 A14" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -7390,7 +7449,7 @@
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -7418,7 +7477,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H20 H43:H58</xm:sqref>
+          <xm:sqref>H8:H20 H42:H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2FF0FC17-99F8-4043-8C72-4D80C2CF5D75}">
@@ -7433,10 +7492,205 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21:H35</xm:sqref>
+          <xm:sqref>H21:H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1A1CAC4A-1FDB-4B85-A11C-C24386224E1C}">
+          <x14:cfRule type="dataBar" id="{5C64F880-8A0C-4584-AFDF-B638FC4C36DA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D7147305-2FDA-4D83-8784-CC850D249858}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{609E9530-E021-45F6-B3E1-5EEB2E7C3686}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0AB73D50-B8AC-457F-B05A-DA87AF1152F6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EBC10F2E-E54B-45E6-8923-45FB9F1B71DE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{97077C9B-785B-4ACC-A89C-64375BE07876}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0AF6C42B-73F3-4CE9-A500-571B77CE6F5B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3EFF89D5-DD93-4085-AE40-B42B93333C2B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{97B7FB37-0C3C-46ED-9E82-117564CBC8A6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4349B167-0C40-4855-A51F-300A746BA11D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE6D0839-4422-4A42-99E0-9A574FAC224C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F6FD27C3-F907-428F-9C4D-9091BAE61A81}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D5DC2D6-C0D8-4736-A8B9-DD34AE537E7C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CEC79A96-5D7E-4788-9E7F-37A8A2CCCF2A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7451,7 +7705,7 @@
           <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0B2A41A-F48A-44FB-91F1-06A23FE15B72}">
+          <x14:cfRule type="dataBar" id="{6B8A734F-0617-4E6B-B219-5001B8E5A8AF}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7463,10 +7717,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
+          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{649CE155-25C9-44CC-81B2-37997D7B3A65}">
+          <x14:cfRule type="dataBar" id="{B0AB4685-403A-472F-BB2E-4B149B5534F9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7478,10 +7732,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39:H42</xm:sqref>
+          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C862E5DA-8BCC-403C-9F71-B31EE3B1FF64}">
+          <x14:cfRule type="dataBar" id="{153F441B-CA35-4C34-B0B5-83CC70899D9A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7493,7 +7747,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BB833B4C-C2CE-4079-BAD9-1D8FD54B13A0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{196B7BBD-B640-4C00-8097-AF5F9FBD377D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7A7A3FB2-8CCE-4CAE-9573-7D13DFEDEF5A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Plan_de_Trabajo/DiagramaGantt.xlsx
+++ b/Plan_de_Trabajo/DiagramaGantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\Repositorio\Clone\TechnoShop\Plan_de_Trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\Repositorio\TechnoShop17\Plan_de_Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF50D0-6A12-44FD-A1B0-F70EE797B85A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C81CC-12E8-45FB-913B-693CA7233703}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1710,23 +1710,18 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1735,22 +1730,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2020,7 +2020,7 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>122766</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>387350</xdr:rowOff>
+      <xdr:rowOff>301625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2079,7 +2079,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>115358</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -2414,8 +2414,8 @@
   <dimension ref="A1:CN55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2445,54 +2445,54 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="I1" s="97"/>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
       <c r="AL1" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="114"/>
-      <c r="AO1" s="114"/>
-      <c r="AP1" s="114"/>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="114"/>
-      <c r="AT1" s="114"/>
-      <c r="AU1" s="114"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="114"/>
-      <c r="AX1" s="114"/>
-      <c r="AY1" s="114"/>
-      <c r="AZ1" s="114"/>
-      <c r="BA1" s="114"/>
-      <c r="BB1" s="114"/>
-      <c r="BC1" s="114"/>
-      <c r="BD1" s="114"/>
-      <c r="BE1" s="114"/>
-      <c r="BF1" s="114"/>
-      <c r="BG1" s="114"/>
-      <c r="BH1" s="114"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
+      <c r="AX1" s="105"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="105"/>
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="105"/>
+      <c r="BE1" s="105"/>
+      <c r="BF1" s="105"/>
+      <c r="BG1" s="105"/>
+      <c r="BH1" s="105"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -2539,11 +2539,11 @@
       <c r="B4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="115">
         <v>43259</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="77"/>
       <c r="G4" s="80" t="s">
         <v>9</v>
@@ -2553,182 +2553,182 @@
       </c>
       <c r="I4" s="78"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="105" t="str">
+      <c r="K4" s="112" t="str">
         <f>"Semana "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="105" t="str">
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="112" t="str">
         <f>"Semana "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="105" t="str">
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="112" t="str">
         <f>"Semana "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="105" t="str">
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="112" t="str">
         <f>"Semana "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="105" t="str">
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="112" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="107"/>
-      <c r="AT4" s="105" t="str">
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="112" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="106"/>
-      <c r="AZ4" s="107"/>
-      <c r="BA4" s="105" t="str">
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="112" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="106"/>
-      <c r="BG4" s="107"/>
-      <c r="BH4" s="105" t="str">
+      <c r="BB4" s="113"/>
+      <c r="BC4" s="113"/>
+      <c r="BD4" s="113"/>
+      <c r="BE4" s="113"/>
+      <c r="BF4" s="113"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="112" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="106"/>
-      <c r="BN4" s="107"/>
+      <c r="BI4" s="113"/>
+      <c r="BJ4" s="113"/>
+      <c r="BK4" s="113"/>
+      <c r="BL4" s="113"/>
+      <c r="BM4" s="113"/>
+      <c r="BN4" s="114"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76"/>
       <c r="B5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
       <c r="H5" s="79"/>
       <c r="I5" s="79"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="108">
+      <c r="K5" s="116">
         <f>K6</f>
         <v>43255</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="108">
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="116">
         <f>R6</f>
         <v>43262</v>
       </c>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="108">
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="116">
         <f>Y6</f>
         <v>43269</v>
       </c>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="109"/>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="108">
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="118"/>
+      <c r="AF5" s="116">
         <f>AF6</f>
         <v>43276</v>
       </c>
-      <c r="AG5" s="109"/>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="108">
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="117"/>
+      <c r="AL5" s="118"/>
+      <c r="AM5" s="116">
         <f>AM6</f>
         <v>43283</v>
       </c>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="109"/>
-      <c r="AR5" s="109"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="108">
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
+      <c r="AR5" s="117"/>
+      <c r="AS5" s="118"/>
+      <c r="AT5" s="116">
         <f>AT6</f>
         <v>43290</v>
       </c>
-      <c r="AU5" s="109"/>
-      <c r="AV5" s="109"/>
-      <c r="AW5" s="109"/>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="109"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="108">
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="117"/>
+      <c r="AW5" s="117"/>
+      <c r="AX5" s="117"/>
+      <c r="AY5" s="117"/>
+      <c r="AZ5" s="118"/>
+      <c r="BA5" s="116">
         <f>BA6</f>
         <v>43297</v>
       </c>
-      <c r="BB5" s="109"/>
-      <c r="BC5" s="109"/>
-      <c r="BD5" s="109"/>
-      <c r="BE5" s="109"/>
-      <c r="BF5" s="109"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="108">
+      <c r="BB5" s="117"/>
+      <c r="BC5" s="117"/>
+      <c r="BD5" s="117"/>
+      <c r="BE5" s="117"/>
+      <c r="BF5" s="117"/>
+      <c r="BG5" s="118"/>
+      <c r="BH5" s="116">
         <f>BH6</f>
         <v>43304</v>
       </c>
-      <c r="BI5" s="109"/>
-      <c r="BJ5" s="109"/>
-      <c r="BK5" s="109"/>
-      <c r="BL5" s="109"/>
-      <c r="BM5" s="109"/>
-      <c r="BN5" s="110"/>
+      <c r="BI5" s="117"/>
+      <c r="BJ5" s="117"/>
+      <c r="BK5" s="117"/>
+      <c r="BL5" s="117"/>
+      <c r="BM5" s="117"/>
+      <c r="BN5" s="118"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
@@ -3305,7 +3305,7 @@
       <c r="BM8" s="72"/>
       <c r="BN8" s="72"/>
     </row>
-    <row r="9" spans="1:66" s="28" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="str">
         <f t="shared" ref="A9:A13" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -3392,7 +3392,7 @@
       <c r="BM9" s="73"/>
       <c r="BN9" s="73"/>
     </row>
-    <row r="10" spans="1:66" s="28" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="str">
         <f t="shared" si="6"/>
         <v>1.2</v>
@@ -3501,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="30">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I11" s="31">
         <v>5</v>
@@ -3674,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="30">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I13" s="31">
         <v>4</v>
@@ -3838,7 +3838,7 @@
         <v>18</v>
       </c>
       <c r="H15" s="30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I15" s="31">
         <v>4</v>
@@ -3901,7 +3901,7 @@
       <c r="BM15" s="73"/>
       <c r="BN15" s="73"/>
     </row>
-    <row r="16" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -3924,7 +3924,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I16" s="31">
         <v>4</v>
@@ -4010,7 +4010,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="30">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I17" s="31">
         <f t="shared" si="5"/>
@@ -4097,7 +4097,7 @@
         <v>8</v>
       </c>
       <c r="H18" s="30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I18" s="31">
         <v>4</v>
@@ -4346,7 +4346,7 @@
         <f t="shared" ref="A21" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="106" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="93"/>
@@ -4361,7 +4361,7 @@
         <v>13</v>
       </c>
       <c r="H21" s="30">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I21" s="31">
         <f t="shared" ref="I21:I25" si="10">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
@@ -4430,7 +4430,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="106" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -4448,7 +4448,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="30">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="31">
         <f t="shared" si="10"/>
@@ -4517,7 +4517,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.2</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="106" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -4604,7 +4604,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.3</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="106" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -4622,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="31">
         <f>IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
@@ -4691,7 +4691,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.4</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="106" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -4709,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="31">
         <f t="shared" si="10"/>
@@ -4778,7 +4778,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.5</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="106" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -4796,7 +4796,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="31">
         <v>2</v>
@@ -4864,7 +4864,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.1.5.1</v>
       </c>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="106" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="28" t="s">
@@ -4950,7 +4950,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.1.5.2</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="106" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="31">
         <v>1</v>
@@ -5036,7 +5036,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.6</v>
       </c>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="107" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="47">
         <f t="shared" ref="I29" si="14">IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
@@ -5123,7 +5123,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.7</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="106" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="28" t="s">
@@ -5210,7 +5210,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="106" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="93"/>
@@ -5225,7 +5225,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="30">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I31" s="31">
         <f t="shared" si="16"/>
@@ -5294,7 +5294,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.1</v>
       </c>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="107" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="48" t="s">
@@ -5312,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="47">
         <f>IF(OR(F32=0,E32=0)," - ",NETWORKDAYS(E32,F32))</f>
@@ -5381,7 +5381,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.2</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="107" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="48" t="s">
@@ -5399,7 +5399,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="30">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="I33" s="47">
         <f>IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
@@ -5468,7 +5468,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.3</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="48" t="s">
@@ -5486,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="30">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="31">
         <f t="shared" ref="I34:I41" si="19">IF(OR(F34=0,E34=0)," - ",NETWORKDAYS(E34,F34))</f>
@@ -5555,7 +5555,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="109" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="48"/>
@@ -5571,7 +5571,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="47">
         <f t="shared" ref="I35:I38" si="21">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
@@ -5640,7 +5640,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.1</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="108" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="104" t="s">
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="31">
         <f t="shared" si="21"/>
@@ -5722,12 +5722,12 @@
       <c r="BM36" s="73"/>
       <c r="BN36" s="73"/>
     </row>
-    <row r="37" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="106" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="93"/>
@@ -5742,7 +5742,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="30">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I37" s="31">
         <f t="shared" si="21"/>
@@ -7029,15 +7029,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7048,10 +7039,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H20 H42:H54">
-    <cfRule type="dataBar" priority="67">
+  <conditionalFormatting sqref="H42:H54 H8:H20">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7065,25 +7065,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="13" priority="110">
+    <cfRule type="expression" dxfId="13" priority="123">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN39">
-    <cfRule type="expression" dxfId="12" priority="113">
+    <cfRule type="expression" dxfId="12" priority="126">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="114">
+    <cfRule type="expression" dxfId="11" priority="127">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN51 AU41:BN41 K6:BN40">
-    <cfRule type="expression" dxfId="10" priority="73">
+    <cfRule type="expression" dxfId="10" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H28">
-    <cfRule type="dataBar" priority="62">
+  <conditionalFormatting sqref="H27:H28 H23">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7097,33 +7097,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:BN51">
-    <cfRule type="expression" dxfId="9" priority="124">
+    <cfRule type="expression" dxfId="9" priority="137">
       <formula>AND($E44&lt;=K$6,ROUNDDOWN(($F44-$E44+1)*$H44,0)+$E44-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="125">
+    <cfRule type="expression" dxfId="8" priority="138">
       <formula>AND(NOT(ISBLANK($E44)),$E44&lt;=K$6,$F44&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:AT41">
-    <cfRule type="expression" dxfId="7" priority="54">
+    <cfRule type="expression" dxfId="7" priority="67">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1">
-    <cfRule type="expression" dxfId="6" priority="52">
+    <cfRule type="expression" dxfId="6" priority="65">
       <formula>AND($E1&lt;=AL$6,ROUNDDOWN(($F1-$E1+1)*$H1,0)+$E1-1&gt;=AL$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="53">
+    <cfRule type="expression" dxfId="5" priority="66">
       <formula>AND(NOT(ISBLANK($E1)),$E1&lt;=AL$6,$F1&gt;=AL$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1">
-    <cfRule type="expression" dxfId="4" priority="51">
+    <cfRule type="expression" dxfId="4" priority="64">
       <formula>AL$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7136,108 +7136,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="47">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D7147305-2FDA-4D83-8784-CC850D249858}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="39">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{609E9530-E021-45F6-B3E1-5EEB2E7C3686}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0AB73D50-B8AC-457F-B05A-DA87AF1152F6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EBC10F2E-E54B-45E6-8923-45FB9F1B71DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97077C9B-785B-4ACC-A89C-64375BE07876}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0AF6C42B-73F3-4CE9-A500-571B77CE6F5B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K34:AP40">
-    <cfRule type="expression" dxfId="3" priority="145">
+    <cfRule type="expression" dxfId="3" priority="158">
       <formula>AND(#REF!&lt;=K$6,ROUNDDOWN((#REF!-#REF!+1)*#REF!,0)+#REF!-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="146">
+    <cfRule type="expression" dxfId="2" priority="159">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=K$6,#REF!&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="1" priority="165">
+    <cfRule type="expression" dxfId="1" priority="178">
       <formula>AND(#REF!&lt;=K$6,ROUNDDOWN((#REF!-#REF!+1)*#REF!,0)+#REF!-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="166">
+    <cfRule type="expression" dxfId="0" priority="179">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=K$6,#REF!&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7251,7 +7167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7264,36 +7180,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4349B167-0C40-4855-A51F-300A746BA11D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DE6D0839-4422-4A42-99E0-9A574FAC224C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7306,64 +7194,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9D5DC2D6-C0D8-4736-A8B9-DD34AE537E7C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CEC79A96-5D7E-4788-9E7F-37A8A2CCCF2A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6B8A734F-0617-4E6B-B219-5001B8E5A8AF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0AB4685-403A-472F-BB2E-4B149B5534F9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7376,7 +7208,147 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A82D0862-C436-42D8-9308-2A684932DDE6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AA4ACF52-F616-42F5-ADC8-F0B938C83CE1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97CEC981-EB83-45C5-9D21-8CE4C1308166}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{53A9232C-22E3-4A99-B0E6-4238DC994BEA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D74AD4C7-0F55-4FD5-A148-EA738C13EAE0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7CB0AA81-BBF8-473E-B903-AADD50D6C4BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DEC06E57-CF20-47D5-A8A9-528DB839C8C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{557193E1-663C-4BE2-A1A9-43AB3FA0A362}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{680166FF-CBAE-4FCC-A6E9-34B645D3C16A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BBD66630-3123-46A1-ABBE-E910DB87F46A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7385,12 +7357,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BB833B4C-C2CE-4079-BAD9-1D8FD54B13A0}</x14:id>
+          <x14:id>{82C24FFF-065B-4056-9607-4EB39F16985E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H36">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7399,12 +7371,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{196B7BBD-B640-4C00-8097-AF5F9FBD377D}</x14:id>
+          <x14:id>{6145B0A6-507C-43D9-861C-949C0F7B65BE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7413,7 +7385,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7A7A3FB2-8CCE-4CAE-9573-7D13DFEDEF5A}</x14:id>
+          <x14:id>{6634F4C2-3DF4-47A5-9D84-5EE7B75135DA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7477,7 +7449,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H20 H42:H54</xm:sqref>
+          <xm:sqref>H42:H54 H8:H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2FF0FC17-99F8-4043-8C72-4D80C2CF5D75}">
@@ -7492,7 +7464,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21:H28</xm:sqref>
+          <xm:sqref>H27:H28 H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C64F880-8A0C-4584-AFDF-B638FC4C36DA}">
@@ -7508,96 +7480,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D7147305-2FDA-4D83-8784-CC850D249858}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{609E9530-E021-45F6-B3E1-5EEB2E7C3686}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0AB73D50-B8AC-457F-B05A-DA87AF1152F6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EBC10F2E-E54B-45E6-8923-45FB9F1B71DE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{97077C9B-785B-4ACC-A89C-64375BE07876}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0AF6C42B-73F3-4CE9-A500-571B77CE6F5B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3EFF89D5-DD93-4085-AE40-B42B93333C2B}">
@@ -7630,36 +7512,6 @@
           <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4349B167-0C40-4855-A51F-300A746BA11D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DE6D0839-4422-4A42-99E0-9A574FAC224C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F6FD27C3-F907-428F-9C4D-9091BAE61A81}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -7673,66 +7525,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9D5DC2D6-C0D8-4736-A8B9-DD34AE537E7C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CEC79A96-5D7E-4788-9E7F-37A8A2CCCF2A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6B8A734F-0617-4E6B-B219-5001B8E5A8AF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B0AB4685-403A-472F-BB2E-4B149B5534F9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{153F441B-CA35-4C34-B0B5-83CC70899D9A}">
@@ -7750,7 +7542,112 @@
           <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BB833B4C-C2CE-4079-BAD9-1D8FD54B13A0}">
+          <x14:cfRule type="dataBar" id="{A82D0862-C436-42D8-9308-2A684932DDE6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AA4ACF52-F616-42F5-ADC8-F0B938C83CE1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{97CEC981-EB83-45C5-9D21-8CE4C1308166}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{53A9232C-22E3-4A99-B0E6-4238DC994BEA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D74AD4C7-0F55-4FD5-A148-EA738C13EAE0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7CB0AA81-BBF8-473E-B903-AADD50D6C4BA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DEC06E57-CF20-47D5-A8A9-528DB839C8C5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{557193E1-663C-4BE2-A1A9-43AB3FA0A362}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7765,7 +7662,7 @@
           <xm:sqref>H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{196B7BBD-B640-4C00-8097-AF5F9FBD377D}">
+          <x14:cfRule type="dataBar" id="{680166FF-CBAE-4FCC-A6E9-34B645D3C16A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7777,10 +7674,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
+          <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7A7A3FB2-8CCE-4CAE-9573-7D13DFEDEF5A}">
+          <x14:cfRule type="dataBar" id="{BBD66630-3123-46A1-ABBE-E910DB87F46A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7792,7 +7689,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82C24FFF-065B-4056-9607-4EB39F16985E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6145B0A6-507C-43D9-861C-949C0F7B65BE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6634F4C2-3DF4-47A5-9D84-5EE7B75135DA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
